--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1381.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1381.xlsx
@@ -9276,10 +9276,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.02668521054132512</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0004669911844731896</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02668521054132512</v>
+        <v>0.05603894213678274</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0004669911844731896</v>
+        <v>0.001400973553419569</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.04033382936394372</v>
+        <v>0.07758660000000001</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007416846741733639</v>
+        <v>0.0013577655</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0690473419654126</v>
+        <v>0.1375866</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007305141180704002</v>
+        <v>0.001459962903225807</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.08918577769441666</v>
+        <v>0.1975866000000001</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006979016256455469</v>
+        <v>0.001257190277777778</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.05603894213678274</v>
+        <v>0.05578165692012457</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001400973553419569</v>
+        <v>0.003178524442921307</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.07758660000000001</v>
+        <v>0.2155415306225707</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.0013577655</v>
+        <v>0.003205381959972367</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1375866</v>
+        <v>0.3536573533185665</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.0014143390625</v>
+        <v>0.003208463288712843</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1975866000000001</v>
+        <v>0.6435128135733024</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001459962903225807</v>
+        <v>0.003771570833333335</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.05068394592194939</v>
+        <v>0.06038628393527807</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002231225583027047</v>
+        <v>0.00476778666438196</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1156725355964723</v>
+        <v>0.2620176825542067</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002225054022520092</v>
+        <v>0.0040732965</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.192193188355117</v>
+        <v>0.4527652480637545</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002191542354211201</v>
+        <v>0.004379888709677419</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2620296781743067</v>
+        <v>0.6958891902753112</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002093704876936641</v>
+        <v>0.004803524311817846</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.06161830732413901</v>
+        <v>0.07595955949586353</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002974967444036062</v>
+        <v>0.006357048885842614</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.142937712617548</v>
+        <v>0.3053586499056132</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002966738696693456</v>
+        <v>0.006410763919944733</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2462614801227358</v>
+        <v>0.5133944550363193</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002922056472281601</v>
+        <v>0.006416926577425686</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.3260326930029188</v>
+        <v>0.7618053292162917</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002791606502582188</v>
+        <v>0.006404699082423795</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02668521054132512</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.05934407055747652</v>
+        <v>0.07461007032876424</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003718709305045078</v>
+        <v>0.007946311107303266</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1728635412032473</v>
+        <v>0.3324048679866796</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00370842337086682</v>
+        <v>0.008013454899930916</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.289595598384036</v>
+        <v>0.5644423718077031</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003652570590352001</v>
+        <v>0.008021158221782107</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3954906136998577</v>
+        <v>0.8327117631167521</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003489508128227734</v>
+        <v>0.008005873853029742</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.06286661662444193</v>
+        <v>0.0854464031608636</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004462451166054093</v>
+        <v>0.009535573328763921</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.2007862410278185</v>
+        <v>0.353483388821832</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004450108045040184</v>
+        <v>0.009616145879917099</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.3346676684313631</v>
+        <v>0.6013422325886932</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004383084708422402</v>
+        <v>0.009625389866138529</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.4624553764026863</v>
+        <v>0.8883061641751938</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004187409753873281</v>
+        <v>0.009607048623635692</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.07319132652751537</v>
+        <v>0.07957714471904506</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005206193027063109</v>
+        <v>0.01112483555022457</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.2224420317655095</v>
+        <v>0.3753002591998354</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005191792719213548</v>
+        <v>0.01121883685990328</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.3824498155570626</v>
+        <v>0.637380932249431</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005113598826492802</v>
+        <v>0.01122962151049495</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.5136789172489679</v>
+        <v>0.9313862045901183</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004885311379518828</v>
+        <v>0.01120822339424164</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.07432358126917693</v>
+        <v>0.08711088173019182</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005949934888072125</v>
+        <v>0.01271409777168523</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.244567133090568</v>
+        <v>0.3909615259094545</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005933477393386911</v>
+        <v>0.01282152783988947</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.4197141650534802</v>
+        <v>0.6732453656600575</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005844112944563201</v>
+        <v>0.01283385315485137</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.5629131723762656</v>
+        <v>0.973349556560028</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005583213005164375</v>
+        <v>0.01280939816484759</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0722687618519067</v>
+        <v>0.08615620092118734</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00669367674908114</v>
+        <v>0.01430335999314588</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.2620176825542066</v>
+        <v>0.4069732357394542</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006550442063855166</v>
+        <v>0.01442421881987565</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.4527652480637545</v>
+        <v>0.6932224276907141</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006648940443733728</v>
+        <v>0.01443808479920779</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.6109100779221424</v>
+        <v>1.000793892283425</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006281114630809922</v>
+        <v>0.01441057293545354</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08203224927818478</v>
+        <v>0.08782168901891502</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007437418610090157</v>
+        <v>0.01589262221460653</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.275316225180279</v>
+        <v>0.4209414354785995</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00741684674173364</v>
+        <v>0.01602690979986183</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.4718212884273165</v>
+        <v>0.7214990132115413</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007305141180704001</v>
+        <v>0.01604231644356421</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.6435128135733023</v>
+        <v>1.030616883958811</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006792716535920999</v>
+        <v>0.01601174770605948</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.08361942455049126</v>
+        <v>0.09421593275025814</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008181160471099172</v>
+        <v>0.01748188443606719</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.2954928661616593</v>
+        <v>0.4323721719156551</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008158531415907003</v>
+        <v>0.01762960077984801</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.4948126768562257</v>
+        <v>0.7378620170926807</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008035655298774402</v>
+        <v>0.01764654808792064</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.6855357566859882</v>
+        <v>1.063316203784687</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007676917882101015</v>
+        <v>0.01761292247666544</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.08603566867130627</v>
+        <v>0.08744751884210011</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008924902332108187</v>
+        <v>0.01907114665752784</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3101450195348734</v>
+        <v>0.4414714918393862</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008900216090080368</v>
+        <v>0.0192322917598342</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5261752108753129</v>
+        <v>0.754898334204273</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008766169416844804</v>
+        <v>0.01925077973227706</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7126799954483926</v>
+        <v>1.085489523959557</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008374819507746562</v>
+        <v>0.01921409724727138</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.09128636264310983</v>
+        <v>0.0926250340213243</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009668644193117203</v>
+        <v>0.02066040887898849</v>
       </c>
       <c r="J78" t="n">
-        <v>0.320436730280123</v>
+        <v>0.4446454420385571</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00964190076425373</v>
+        <v>0.02083498273982038</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5478465610454871</v>
+        <v>0.7738948594164601</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009496683534915203</v>
+        <v>0.02085501137663348</v>
       </c>
       <c r="N78" t="n">
-        <v>0.7493254484274215</v>
+        <v>1.105934516681921</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009072721133392109</v>
+        <v>0.02081527201787733</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0923768874683821</v>
+        <v>0.08885706501481405</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01041238605412622</v>
+        <v>0.02224967110044915</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3387320433776097</v>
+        <v>0.4564000693019333</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0103835854384271</v>
+        <v>0.02243767371980657</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5703643979276579</v>
+        <v>0.7865384875993819</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0102271976529856</v>
+        <v>0.0224592430209899</v>
       </c>
       <c r="N79" t="n">
-        <v>0.7879897184896981</v>
+        <v>1.123648854150282</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009770622759037655</v>
+        <v>0.02241644678848329</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.09531262414960315</v>
+        <v>0.09915902182794331</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01115612791513524</v>
+        <v>0.0238389333219098</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3495950038075352</v>
+        <v>0.4614414204182792</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01112527011260046</v>
+        <v>0.02404036469979275</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5992663920827344</v>
+        <v>0.7971161136231806</v>
       </c>
       <c r="M80" t="n">
-        <v>0.010957711771056</v>
+        <v>0.02406347466534632</v>
       </c>
       <c r="N80" t="n">
-        <v>0.817090408501845</v>
+        <v>1.130630208563141</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0104685243846832</v>
+        <v>0.02401762155908923</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.08709895368925305</v>
+        <v>0.09642727238631144</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01189986977614425</v>
+        <v>0.02542819554337046</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3643896565501012</v>
+        <v>0.4691717421429629</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01186695478677382</v>
+        <v>0.02564305567977893</v>
       </c>
       <c r="L81" t="n">
-        <v>0.6206902140716254</v>
+        <v>0.8072160462968734</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0116882258891264</v>
+        <v>0.02566770630970274</v>
       </c>
       <c r="N81" t="n">
-        <v>0.8599451213304848</v>
+        <v>1.147120064091564</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01116642601032875</v>
+        <v>0.02561879632969518</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.09574125708981199</v>
+        <v>0.1016524793659823</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01264361163715326</v>
+        <v>0.02701745776483111</v>
       </c>
       <c r="J82" t="n">
-        <v>0.3776800465855096</v>
+        <v>0.4740459054369701</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01260863946094719</v>
+        <v>0.02724574665976512</v>
       </c>
       <c r="L82" t="n">
-        <v>0.6462735344552405</v>
+        <v>0.8156712755903559</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0124187400071968</v>
+        <v>0.02727193795405916</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8920714598422402</v>
+        <v>1.160152770124634</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01186432763597429</v>
+        <v>0.02721997110030113</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1002449153537599</v>
+        <v>0.1028266206171865</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01338735349816228</v>
+        <v>0.02860671998629176</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3902302188939616</v>
+        <v>0.4787359132535838</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01335032413512055</v>
+        <v>0.0288484376397513</v>
       </c>
       <c r="L83" t="n">
-        <v>0.6659540237944884</v>
+        <v>0.8285193250448533</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0131492541252672</v>
+        <v>0.02887616959841559</v>
       </c>
       <c r="N83" t="n">
-        <v>0.9128870269037342</v>
+        <v>1.179017811482127</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01256222926161984</v>
+        <v>0.02882114587090708</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.09061530948357699</v>
+        <v>0.09594167399015477</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0141310953591713</v>
+        <v>0.03019598220775241</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4069042184556592</v>
+        <v>0.4850032980773345</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01409200880929391</v>
+        <v>0.03045112861973748</v>
       </c>
       <c r="L84" t="n">
-        <v>0.6875693526502784</v>
+        <v>0.8372935311038812</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0138797682433376</v>
+        <v>0.030480401242772</v>
       </c>
       <c r="N84" t="n">
-        <v>0.9503094253815888</v>
+        <v>1.192220980210033</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01326013088726539</v>
+        <v>0.03042232064151303</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.09685782048174332</v>
+        <v>0.09898961733511771</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01487483722018031</v>
+        <v>0.03178524442921307</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4167660902508042</v>
+        <v>0.4919095923927522</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01483369348346728</v>
+        <v>0.03205381959972366</v>
       </c>
       <c r="L85" t="n">
-        <v>0.7077571915835201</v>
+        <v>0.8460272302109562</v>
       </c>
       <c r="M85" t="n">
-        <v>0.014610282361408</v>
+        <v>0.03208463288712843</v>
       </c>
       <c r="N85" t="n">
-        <v>0.9822562581424278</v>
+        <v>1.209668068354337</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01395803251291094</v>
+        <v>0.03202349541211897</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.09297782935073903</v>
+        <v>0.1019624285023061</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01561857908118933</v>
+        <v>0.03337450665067372</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4287798792595979</v>
+        <v>0.4928163286843674</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01557537815764064</v>
+        <v>0.03365651057970984</v>
       </c>
       <c r="L86" t="n">
-        <v>0.7332552111551224</v>
+        <v>0.8503537588095953</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01534079647947841</v>
+        <v>0.03368886453148485</v>
       </c>
       <c r="N86" t="n">
-        <v>1.004345128052873</v>
+        <v>1.223464867961031</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01465593413855648</v>
+        <v>0.03362467018272492</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.09898071709304412</v>
+        <v>0.1058520853419506</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01636232094219834</v>
+        <v>0.03496376887213438</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4372096304622422</v>
+        <v>0.5007850394367099</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01631706283181401</v>
+        <v>0.03525920155969603</v>
       </c>
       <c r="L87" t="n">
-        <v>0.7476010819259941</v>
+        <v>0.8586064533433149</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0160713105975488</v>
+        <v>0.03529309617584128</v>
       </c>
       <c r="N87" t="n">
-        <v>1.029693637979548</v>
+        <v>1.227617171076102</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01535383576420203</v>
+        <v>0.03522584495333087</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1028718647111388</v>
+        <v>0.09965056570428177</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01710606280320736</v>
+        <v>0.03655303109359503</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4522193888389387</v>
+        <v>0.5028772571343105</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01705874750598737</v>
+        <v>0.03686189253968222</v>
       </c>
       <c r="L88" t="n">
-        <v>0.7728324744570449</v>
+        <v>0.8679186502556313</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01680182471561921</v>
+        <v>0.0368973278201977</v>
       </c>
       <c r="N88" t="n">
-        <v>1.063419390789075</v>
+        <v>1.244330769745539</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01605173738984758</v>
+        <v>0.03682701972393682</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.096656653207503</v>
+        <v>0.1073498474395304</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01784980466421637</v>
+        <v>0.03814229331505568</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4592731993698891</v>
+        <v>0.5094545142616993</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01780043218016074</v>
+        <v>0.0384645835196684</v>
       </c>
       <c r="L89" t="n">
-        <v>0.7820870593091838</v>
+        <v>0.8768236859900611</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01753233883368961</v>
+        <v>0.03850155946455412</v>
       </c>
       <c r="N89" t="n">
-        <v>1.086039989348076</v>
+        <v>1.25271145601533</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01674963901549312</v>
+        <v>0.03842819449454277</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.09734046358461701</v>
+        <v>0.1079419083979271</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01859354652522539</v>
+        <v>0.03973155553651633</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4707351070352953</v>
+        <v>0.5104783433034064</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0185421168543341</v>
+        <v>0.04006727449965458</v>
       </c>
       <c r="L90" t="n">
-        <v>0.8060025070433199</v>
+        <v>0.8850548969901211</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01826285295176001</v>
+        <v>0.04010579110891054</v>
       </c>
       <c r="N90" t="n">
-        <v>1.115973036523175</v>
+        <v>1.263865021931464</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01744754064113867</v>
+        <v>0.04002936926514872</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1049286768449608</v>
+        <v>0.1074187264297027</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01933728838623441</v>
+        <v>0.04132081775797699</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4779691568153586</v>
+        <v>0.5154102767439621</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01928380152850746</v>
+        <v>0.04166996547964077</v>
       </c>
       <c r="L91" t="n">
-        <v>0.8158164882203622</v>
+        <v>0.8882456196993276</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01899336706983041</v>
+        <v>0.04171002275326696</v>
       </c>
       <c r="N91" t="n">
-        <v>1.128636135180995</v>
+        <v>1.272097259539929</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01814544226678422</v>
+        <v>0.04163054403575467</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1054266739910145</v>
+        <v>0.1067722793850877</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02008103024724342</v>
+        <v>0.04291007997943765</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4833393936902809</v>
+        <v>0.5168118470678968</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02002548620268083</v>
+        <v>0.04327265645962695</v>
       </c>
       <c r="L92" t="n">
-        <v>0.8312666734012202</v>
+        <v>0.891829190561197</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0197238811879008</v>
+        <v>0.04331425439762338</v>
       </c>
       <c r="N92" t="n">
-        <v>1.155246888188157</v>
+        <v>1.273913960886714</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01884334389242976</v>
+        <v>0.04323171880636062</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1048398360252582</v>
+        <v>0.1120778842735655</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02082477210825244</v>
+        <v>0.0444993422008983</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4887098626402638</v>
+        <v>0.5209445867597409</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02076717087685419</v>
+        <v>0.04487534743961313</v>
       </c>
       <c r="L93" t="n">
-        <v>0.8386907331468032</v>
+        <v>0.8962389460192461</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02045439530597121</v>
+        <v>0.0449184860419798</v>
       </c>
       <c r="N93" t="n">
-        <v>1.171122898411285</v>
+        <v>1.274520918017808</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01954124551807531</v>
+        <v>0.04483289357696657</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.09917354395017194</v>
+        <v>0.1080775014676089</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02156851396926145</v>
+        <v>0.04608860442235895</v>
       </c>
       <c r="J94" t="n">
-        <v>0.494244608645509</v>
+        <v>0.5228700283040242</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02150885555102755</v>
+        <v>0.04647803841959931</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8522263380180193</v>
+        <v>0.896908222516992</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02118490942404161</v>
+        <v>0.04652271768633622</v>
       </c>
       <c r="N94" t="n">
-        <v>1.187281768717001</v>
+        <v>1.287025627146605</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02023914714372086</v>
+        <v>0.04643406834757251</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1004331787682359</v>
+        <v>0.1010472311806009</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02231225583027047</v>
+        <v>0.0476778666438196</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5003076766862182</v>
+        <v>0.5240353651084133</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02225054022520092</v>
+        <v>0.0480807293995855</v>
       </c>
       <c r="L95" t="n">
-        <v>0.8597111585757791</v>
+        <v>0.905530496127509</v>
       </c>
       <c r="M95" t="n">
-        <v>0.021915423542112</v>
+        <v>0.04812694933069264</v>
       </c>
       <c r="N95" t="n">
-        <v>1.203141101971928</v>
+        <v>1.281728767816877</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02093704876936641</v>
+        <v>0.04803524311817847</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1036241214819301</v>
+        <v>0.1079481947362809</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02305599769127948</v>
+        <v>0.04926712886528026</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5058631117425929</v>
+        <v>0.5209919821211277</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02299222489937428</v>
+        <v>0.04968342037957168</v>
       </c>
       <c r="L96" t="n">
-        <v>0.8697828653809911</v>
+        <v>0.8976957524339215</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02264593766018241</v>
+        <v>0.04973118097504907</v>
       </c>
       <c r="N96" t="n">
-        <v>1.21351850104269</v>
+        <v>1.274041899353332</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02163495039501195</v>
+        <v>0.04963641788878441</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1017517530937347</v>
+        <v>0.11078481471186</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0237997395522885</v>
+        <v>0.05085639108674091</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5094749587948353</v>
+        <v>0.5225568883355931</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02373390957354764</v>
+        <v>0.05128611135955786</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8750791289945641</v>
+        <v>0.9043069469812015</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02337645177825281</v>
+        <v>0.05133541261940549</v>
       </c>
       <c r="N97" t="n">
-        <v>1.237031568795908</v>
+        <v>1.274494198800598</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0223328520206575</v>
+        <v>0.05123759265939036</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1018214546061298</v>
+        <v>0.1105613190116125</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02454348141329751</v>
+        <v>0.05244565330820156</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5087072628231462</v>
+        <v>0.5192075772686879</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02447559424772101</v>
+        <v>0.05288880233954404</v>
       </c>
       <c r="L98" t="n">
-        <v>0.8808376199774084</v>
+        <v>0.8949684964046576</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02410696589632321</v>
+        <v>0.05293964426376191</v>
       </c>
       <c r="N98" t="n">
-        <v>1.239397908098204</v>
+        <v>1.283884094807656</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02303075364630305</v>
+        <v>0.05283876742999631</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1028362264558195</v>
+        <v>0.1052819355398128</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02528722327430653</v>
+        <v>0.05403491552966222</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5136240688077283</v>
+        <v>0.5193643224104068</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02521727892189438</v>
+        <v>0.05449149331953023</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8872960088904318</v>
+        <v>0.893815534321027</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02483748001439361</v>
+        <v>0.05454387590811832</v>
       </c>
       <c r="N99" t="n">
-        <v>1.247035121816204</v>
+        <v>1.273461237683077</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02372865527194859</v>
+        <v>0.05443994220060226</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1096813926792096</v>
+        <v>0.1019508922007353</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02603096513531555</v>
+        <v>0.05562417775112288</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5101411438163808</v>
+        <v>0.5164473972507435</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02595896359606774</v>
+        <v>0.05609418429951642</v>
       </c>
       <c r="L100" t="n">
-        <v>0.8891919662945442</v>
+        <v>0.8991831943470465</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02556799413246401</v>
+        <v>0.05614810755247476</v>
       </c>
       <c r="N100" t="n">
-        <v>1.254060812816528</v>
+        <v>1.276375277735432</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02442655689759414</v>
+        <v>0.0560411169712082</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.109316111837141</v>
+        <v>0.1085724168986545</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02677470699632456</v>
+        <v>0.05721343997258353</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5105566882480568</v>
+        <v>0.5193770752796922</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0267006482702411</v>
+        <v>0.0576968752795026</v>
       </c>
       <c r="L101" t="n">
-        <v>0.8835377235907846</v>
+        <v>0.8920066100994541</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02629850825053441</v>
+        <v>0.05775233919683118</v>
       </c>
       <c r="N101" t="n">
-        <v>1.259492583965799</v>
+        <v>1.27427586527329</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02512445852323969</v>
+        <v>0.05764229174181415</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1027748344004519</v>
+        <v>0.1041507375378447</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02751844885733358</v>
+        <v>0.05880270219404418</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5127055540798016</v>
+        <v>0.5165736299872474</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02744233294441447</v>
+        <v>0.05929956625948878</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8790767297916795</v>
+        <v>0.8894209151949863</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02702902236860481</v>
+        <v>0.0593565708411876</v>
       </c>
       <c r="N102" t="n">
-        <v>1.253372080170037</v>
+        <v>1.260012650605224</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02582236014888523</v>
+        <v>0.0592434665124201</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09909201083998034</v>
+        <v>0.09869008202258034</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0282621907183426</v>
+        <v>0.06039196441550482</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5113418816910831</v>
+        <v>0.5106573348634031</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02818401761858783</v>
+        <v>0.06090225723947496</v>
       </c>
       <c r="L103" t="n">
-        <v>0.8797926787080643</v>
+        <v>0.8851612432503804</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02775953648667521</v>
+        <v>0.06096080248554401</v>
       </c>
       <c r="N103" t="n">
-        <v>1.26210059999811</v>
+        <v>1.263235284039804</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02652026177453078</v>
+        <v>0.06084464128302605</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1033020916265645</v>
+        <v>0.1061946782571359</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02900593257935161</v>
+        <v>0.06198122663696548</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5054198114613704</v>
+        <v>0.5105484633981536</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02892570229276119</v>
+        <v>0.06250494821946115</v>
       </c>
       <c r="L104" t="n">
-        <v>0.8788672625813496</v>
+        <v>0.8872627278823735</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02849005060474561</v>
+        <v>0.06256503412990044</v>
       </c>
       <c r="N104" t="n">
-        <v>1.254290801831074</v>
+        <v>1.2575934158856</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02721816340017633</v>
+        <v>0.062445816053632</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1024395272310424</v>
+        <v>0.1036687541457856</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02974967444036063</v>
+        <v>0.06357048885842613</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5059934837701323</v>
+        <v>0.508267289081493</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02966738696693456</v>
+        <v>0.06410763919944733</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8671821736529464</v>
+        <v>0.8807605027077028</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02922056472281601</v>
+        <v>0.06416926577425686</v>
       </c>
       <c r="N105" t="n">
-        <v>1.248406302764525</v>
+        <v>1.243036696451183</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02791606502582187</v>
+        <v>0.06404699082423794</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1055387681242523</v>
+        <v>0.09911653759280409</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03049341630136964</v>
+        <v>0.06515975107988679</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5008170389968374</v>
+        <v>0.5041340854034155</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03040907164110792</v>
+        <v>0.06571033017943351</v>
       </c>
       <c r="L106" t="n">
-        <v>0.8680191041642642</v>
+        <v>0.8764897013431057</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02995107884088641</v>
+        <v>0.06577349741861328</v>
       </c>
       <c r="N106" t="n">
-        <v>1.240610719894056</v>
+        <v>1.241614776045126</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02861396665146742</v>
+        <v>0.06564816559484389</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1046342647770322</v>
+        <v>0.1005422565024656</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03123715816237866</v>
+        <v>0.06674901330134744</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5016446175209541</v>
+        <v>0.5036691258539154</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03115075631528129</v>
+        <v>0.06731302115941969</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8643597463567145</v>
+        <v>0.8730854574053191</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03068159295895681</v>
+        <v>0.0673777290629697</v>
       </c>
       <c r="N107" t="n">
-        <v>1.239467670315262</v>
+        <v>1.241277304975997</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02931186827711297</v>
+        <v>0.06724934036544984</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.09876046766022029</v>
+        <v>0.1039501387790446</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03198090002338767</v>
+        <v>0.06833827552280809</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4990303597219513</v>
+        <v>0.5021926839229867</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03189244098945465</v>
+        <v>0.06891571213940588</v>
       </c>
       <c r="L108" t="n">
-        <v>0.8511857924717074</v>
+        <v>0.8704829045110802</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03141210707702721</v>
+        <v>0.06898196070732612</v>
       </c>
       <c r="N108" t="n">
-        <v>1.232740771123737</v>
+        <v>1.230373933552368</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03000976990275852</v>
+        <v>0.06885051513605579</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0949518272446547</v>
+        <v>0.1063444123268154</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03272464188439669</v>
+        <v>0.06992753774426876</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4976284059792974</v>
+        <v>0.5007250331006234</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03263412566362801</v>
+        <v>0.07051840311939206</v>
       </c>
       <c r="L109" t="n">
-        <v>0.8467789347506536</v>
+        <v>0.8605171762771262</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03214262119509761</v>
+        <v>0.07058619235168255</v>
       </c>
       <c r="N109" t="n">
-        <v>1.224993639415075</v>
+        <v>1.224954312082809</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03070767152840406</v>
+        <v>0.07045168990666174</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0982427940011735</v>
+        <v>0.1037293050500525</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03346838374540571</v>
+        <v>0.07151679996572941</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4937928966724613</v>
+        <v>0.4942864468768203</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03337581033780138</v>
+        <v>0.07212109409937824</v>
       </c>
       <c r="L110" t="n">
-        <v>0.8411208654349633</v>
+        <v>0.8580234063201939</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03287313531316801</v>
+        <v>0.07219042399603896</v>
       </c>
       <c r="N110" t="n">
-        <v>1.21968989228487</v>
+        <v>1.210968090875892</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03140557315404961</v>
+        <v>0.07205286467726769</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.09466781840061486</v>
+        <v>0.09610904485303037</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03421212560641471</v>
+        <v>0.07310606218719007</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4886779721809115</v>
+        <v>0.4942971987415711</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03411749501197474</v>
+        <v>0.07372378507936443</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8375932767660477</v>
+        <v>0.8505367282570213</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03360364943123841</v>
+        <v>0.07379465564039539</v>
       </c>
       <c r="N111" t="n">
-        <v>1.213693146828716</v>
+        <v>1.209664920240187</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03210347477969516</v>
+        <v>0.07365403944787363</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1012613509138169</v>
+        <v>0.09648785964002329</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03495586746742373</v>
+        <v>0.07469532440865072</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4885377728841169</v>
+        <v>0.4921775621848702</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0348591796861481</v>
+        <v>0.07532647605935061</v>
       </c>
       <c r="L112" t="n">
-        <v>0.8326778609853165</v>
+        <v>0.845892275704345</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03433416354930881</v>
+        <v>0.0753988872847518</v>
       </c>
       <c r="N112" t="n">
-        <v>1.212367020142208</v>
+        <v>1.201594450484265</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0328013764053407</v>
+        <v>0.07525521421847958</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.09105784201161765</v>
+        <v>0.09886997731530572</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03569960932843275</v>
+        <v>0.07628458663011137</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4835264391615456</v>
+        <v>0.4852478106967118</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03560086436032147</v>
+        <v>0.07692916703933679</v>
       </c>
       <c r="L113" t="n">
-        <v>0.827556310334181</v>
+        <v>0.8449251822789023</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03506467766737922</v>
+        <v>0.07700311892910823</v>
       </c>
       <c r="N113" t="n">
-        <v>1.200375129320939</v>
+        <v>1.189906331916697</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03349927803098625</v>
+        <v>0.07685638898908553</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1000518903722985</v>
+        <v>0.1032587441816576</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03644335118944177</v>
+        <v>0.07787384885157202</v>
       </c>
       <c r="J114" t="n">
-        <v>0.482798111392667</v>
+        <v>0.4825282177670899</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03634254903449483</v>
+        <v>0.07853185801932298</v>
       </c>
       <c r="L114" t="n">
-        <v>0.8219103170540512</v>
+        <v>0.8408705815974302</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03579519178544961</v>
+        <v>0.07860735057346466</v>
       </c>
       <c r="N114" t="n">
-        <v>1.197781091460505</v>
+        <v>1.183550214846053</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0341971796566318</v>
+        <v>0.07845756375969148</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1011133219153583</v>
+        <v>0.09659237998065598</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03718709305045078</v>
+        <v>0.07946311107303267</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4787069299569492</v>
+        <v>0.480039056885999</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03708423370866819</v>
+        <v>0.08013454899930916</v>
       </c>
       <c r="L115" t="n">
-        <v>0.8261215733863376</v>
+        <v>0.8360636072766661</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03652570590352001</v>
+        <v>0.08021158221782107</v>
       </c>
       <c r="N115" t="n">
-        <v>1.180248523656499</v>
+        <v>1.174275698875463</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03489508128227734</v>
+        <v>0.08005873853029744</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09322580150178622</v>
+        <v>0.09084082039369165</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03793083491145979</v>
+        <v>0.08105237329449333</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4807070352338612</v>
+        <v>0.4760051635325533</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03782591838284156</v>
+        <v>0.08173723997929534</v>
       </c>
       <c r="L116" t="n">
-        <v>0.8176717715724511</v>
+        <v>0.8225023412393904</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03725622002159041</v>
+        <v>0.0818158138621775</v>
       </c>
       <c r="N116" t="n">
-        <v>1.183641043004515</v>
+        <v>1.17728788519174</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03559298290792288</v>
+        <v>0.08165991330090339</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0993860364208253</v>
+        <v>0.09201784043827416</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03867457677246881</v>
+        <v>0.08264163551595398</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4795525676028713</v>
+        <v>0.4752544211336618</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03856760305701492</v>
+        <v>0.08333993095928154</v>
       </c>
       <c r="L117" t="n">
-        <v>0.8209389578929787</v>
+        <v>0.8215301778636748</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03798673413966081</v>
+        <v>0.08342004550653391</v>
       </c>
       <c r="N117" t="n">
-        <v>1.170922266600148</v>
+        <v>1.160989466230672</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03629088453356843</v>
+        <v>0.08326108807150934</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09059073396171843</v>
+        <v>0.09613721513191298</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03941831863347783</v>
+        <v>0.08423089773741463</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4743976674434484</v>
+        <v>0.4707482182122778</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03930928773118829</v>
+        <v>0.08494262193926772</v>
       </c>
       <c r="L118" t="n">
-        <v>0.8250423639977069</v>
+        <v>0.8154264387332402</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03871724825773121</v>
+        <v>0.08502427715089034</v>
       </c>
       <c r="N118" t="n">
-        <v>1.168155811538991</v>
+        <v>1.158042208632543</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03698878615921398</v>
+        <v>0.08486226284211529</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.09683660141370862</v>
+        <v>0.0942127194921176</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04016206049448684</v>
+        <v>0.08582015995887529</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4760964751350611</v>
+        <v>0.465352608222198</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04005097240536165</v>
+        <v>0.08654531291925389</v>
       </c>
       <c r="L119" t="n">
-        <v>0.8180233675935404</v>
+        <v>0.8071055933711213</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03944776237580161</v>
+        <v>0.08662850879524676</v>
       </c>
       <c r="N119" t="n">
-        <v>1.170905294916639</v>
+        <v>1.140407879037637</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03768668778485953</v>
+        <v>0.08646343761272124</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1021203460660388</v>
+        <v>0.09525812853639745</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04090580235549586</v>
+        <v>0.08740942218033594</v>
       </c>
       <c r="J120" t="n">
-        <v>0.477587382984652</v>
+        <v>0.4604336446172201</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04079265707953501</v>
+        <v>0.08814800389924007</v>
       </c>
       <c r="L120" t="n">
-        <v>0.8210570722007136</v>
+        <v>0.8031821113003521</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04017827649387201</v>
+        <v>0.08823274043960318</v>
       </c>
       <c r="N120" t="n">
-        <v>1.170134333828686</v>
+        <v>1.13364824408624</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03838458941050508</v>
+        <v>0.08806461238332719</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1024386752079519</v>
+        <v>0.08828721728226216</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04164954421650487</v>
+        <v>0.08899868440179659</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4775874835997706</v>
+        <v>0.456357380851141</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04153434175370838</v>
+        <v>0.08975069487922627</v>
       </c>
       <c r="L121" t="n">
-        <v>0.8226185813394631</v>
+        <v>0.7882704620439678</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04090879061194241</v>
+        <v>0.0898369720839596</v>
       </c>
       <c r="N121" t="n">
-        <v>1.161914512250561</v>
+        <v>1.127225070418634</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03908249103615062</v>
+        <v>0.08966578715393314</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.096788296128691</v>
+        <v>0.09231376074722114</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04239328607751389</v>
+        <v>0.09058794662325725</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4766185588356529</v>
+        <v>0.4533898703777584</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04227602642788175</v>
+        <v>0.09135338585921245</v>
       </c>
       <c r="L122" t="n">
-        <v>0.8311829985300241</v>
+        <v>0.7804851151250021</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04163930473001282</v>
+        <v>0.09144120372831602</v>
       </c>
       <c r="N122" t="n">
-        <v>1.162042607010362</v>
+        <v>1.115300124675106</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03978039266179617</v>
+        <v>0.09126696192453908</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.09616591611749895</v>
+        <v>0.08535153394878392</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0431370279385229</v>
+        <v>0.0921772088447179</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4742664361786457</v>
+        <v>0.450897166650869</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04301771110205511</v>
+        <v>0.09295607683919863</v>
       </c>
       <c r="L123" t="n">
-        <v>0.8249254272926319</v>
+        <v>0.77264054006649</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04236981884808321</v>
+        <v>0.09304543537267244</v>
       </c>
       <c r="N123" t="n">
-        <v>1.164117781532289</v>
+        <v>1.093835173495938</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04047829428744171</v>
+        <v>0.09286813669514503</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09256824246361878</v>
+        <v>0.08441431190445997</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04388076979953192</v>
+        <v>0.09376647106617855</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4782169431150958</v>
+        <v>0.4430453231242704</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04375939577622847</v>
+        <v>0.09455876781918481</v>
       </c>
       <c r="L124" t="n">
-        <v>0.8344209711475219</v>
+        <v>0.7667512063914652</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04310033296615361</v>
+        <v>0.09464966701702887</v>
       </c>
       <c r="N124" t="n">
-        <v>1.175215599327491</v>
+        <v>1.086391983521416</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04117619591308726</v>
+        <v>0.09446931146575098</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09999198245629345</v>
+        <v>0.09151586963175881</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04462451166054094</v>
+        <v>0.0953557332876392</v>
       </c>
       <c r="J125" t="n">
-        <v>0.4798559071313501</v>
+        <v>0.4381003932517598</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04450108045040183</v>
+        <v>0.096161458799171</v>
       </c>
       <c r="L125" t="n">
-        <v>0.8369447336149303</v>
+        <v>0.7626315836229629</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04383084708422401</v>
+        <v>0.09625389866138528</v>
       </c>
       <c r="N125" t="n">
-        <v>1.172411623907121</v>
+        <v>1.080932321391824</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04187409753873281</v>
+        <v>0.09607048623635693</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.09443384338476588</v>
+        <v>0.08362855021057719</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04536825352154995</v>
+        <v>0.09694499550909985</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4773691557137557</v>
+        <v>0.4377284304871344</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0452427651245752</v>
+        <v>0.09776414977915718</v>
       </c>
       <c r="L126" t="n">
-        <v>0.8367718182150925</v>
+        <v>0.7487961412840171</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04456136120229442</v>
+        <v>0.09785813030574171</v>
       </c>
       <c r="N126" t="n">
-        <v>1.176381418782329</v>
+        <v>1.063217953747447</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04257199916437836</v>
+        <v>0.09767166100696288</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1038905325382791</v>
+        <v>0.08966099834895172</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04611199538255897</v>
+        <v>0.09853425773056051</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4808425163486591</v>
+        <v>0.4313760734169494</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04598444979874856</v>
+        <v>0.09936684075914336</v>
       </c>
       <c r="L127" t="n">
-        <v>0.8383773284682436</v>
+        <v>0.7481373380231154</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04529187532036481</v>
+        <v>0.09946236195009814</v>
       </c>
       <c r="N127" t="n">
-        <v>1.169600547464267</v>
+        <v>1.060969104753211</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0432699007900239</v>
+        <v>0.09927283577756882</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.104358757206076</v>
+        <v>0.08462723984740528</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04685573724356798</v>
+        <v>0.1001235199520212</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4819618165224075</v>
+        <v>0.4254700992614959</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04672613447292193</v>
+        <v>0.1009695317391295</v>
       </c>
       <c r="L128" t="n">
-        <v>0.8431363678946198</v>
+        <v>0.7362303274909715</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04602238943843522</v>
+        <v>0.1010665935944546</v>
       </c>
       <c r="N128" t="n">
-        <v>1.178144573464085</v>
+        <v>1.052695702481693</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04396780241566945</v>
+        <v>0.1008740105481748</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1058352246773995</v>
+        <v>0.08654699364753821</v>
       </c>
       <c r="G129" t="n">
-        <v>0.047599479104577</v>
+        <v>0.1017127821734818</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4868128837213476</v>
+        <v>0.4234353281258811</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04746781914709529</v>
+        <v>0.1025722227191157</v>
       </c>
       <c r="L129" t="n">
-        <v>0.8473240400144562</v>
+        <v>0.7326326622146312</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04675290355650561</v>
+        <v>0.102670825238811</v>
       </c>
       <c r="N129" t="n">
-        <v>1.185289060292935</v>
+        <v>1.038246127486727</v>
       </c>
       <c r="O129" t="n">
-        <v>0.044665704041315</v>
+        <v>0.1024751853187807</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09631664224149269</v>
+        <v>0.08143997869095071</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04834322096558602</v>
+        <v>0.1033020443949425</v>
       </c>
       <c r="J130" t="n">
-        <v>0.4857815454318263</v>
+        <v>0.4185663155485662</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04820950382126866</v>
+        <v>0.1041749136991019</v>
       </c>
       <c r="L130" t="n">
-        <v>0.8468154483479886</v>
+        <v>0.7252082053498519</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04748341767457601</v>
+        <v>0.1042750568831674</v>
       </c>
       <c r="N130" t="n">
-        <v>1.186109571461967</v>
+        <v>1.024151948761267</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04536360566696054</v>
+        <v>0.1040763600893867</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1027997171875985</v>
+        <v>0.07732591391924307</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04908696282659503</v>
+        <v>0.1048913066164031</v>
       </c>
       <c r="J131" t="n">
-        <v>0.4875536291401906</v>
+        <v>0.4114576170680124</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04895118849544202</v>
+        <v>0.1057776046790881</v>
       </c>
       <c r="L131" t="n">
-        <v>0.8498856964154529</v>
+        <v>0.7131208200523917</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04821393179264642</v>
+        <v>0.1058792885275238</v>
       </c>
       <c r="N131" t="n">
-        <v>1.193081670482333</v>
+        <v>1.003844735298272</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04606150729260609</v>
+        <v>0.1056775348599926</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.09828115680495991</v>
+        <v>0.08122451827401542</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04983070468760405</v>
+        <v>0.1064805688378638</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4922149623327873</v>
+        <v>0.4064037882226809</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04969287316961538</v>
+        <v>0.1073802956590743</v>
       </c>
       <c r="L132" t="n">
-        <v>0.854909887737084</v>
+        <v>0.7032343694780084</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04894444591071681</v>
+        <v>0.1074835201718802</v>
       </c>
       <c r="N132" t="n">
-        <v>1.188880920865183</v>
+        <v>0.9924560560906991</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04675940891825164</v>
+        <v>0.1072787096305986</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1047576683828198</v>
+        <v>0.07515551069686824</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05057444654861306</v>
+        <v>0.1080698310593244</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4927513724959632</v>
+        <v>0.4028993845510326</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05043455784378875</v>
+        <v>0.1089829866390605</v>
       </c>
       <c r="L133" t="n">
-        <v>0.8584631258331179</v>
+        <v>0.6984127167824596</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04967496002878722</v>
+        <v>0.1090877518162366</v>
       </c>
       <c r="N133" t="n">
-        <v>1.197182886121669</v>
+        <v>0.9834174801315042</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04745731054389718</v>
+        <v>0.1088798844012045</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1052259592104212</v>
+        <v>0.07913861012940157</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05131818840962208</v>
+        <v>0.1096590932807851</v>
       </c>
       <c r="J134" t="n">
-        <v>0.4950486871160654</v>
+        <v>0.3941389615915294</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05117624251796211</v>
+        <v>0.1105856776190466</v>
       </c>
       <c r="L134" t="n">
-        <v>0.8613205142237899</v>
+        <v>0.684819725121503</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05040547414685762</v>
+        <v>0.1106919834605931</v>
       </c>
       <c r="N134" t="n">
-        <v>1.204163129762942</v>
+        <v>0.9743605764136439</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04815521216954273</v>
+        <v>0.1104810591718105</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1026827365770071</v>
+        <v>0.07519353551321578</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05206193027063109</v>
+        <v>0.1112483555022458</v>
       </c>
       <c r="J135" t="n">
-        <v>0.4975927336794406</v>
+        <v>0.3901170748826315</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05191792719213548</v>
+        <v>0.1121883685990328</v>
       </c>
       <c r="L135" t="n">
-        <v>0.8679571564293358</v>
+        <v>0.6789192576508966</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05113598826492802</v>
+        <v>0.1122962151049495</v>
       </c>
       <c r="N135" t="n">
-        <v>1.200997215300153</v>
+        <v>0.9642169139300764</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04885311379518828</v>
+        <v>0.1120822339424164</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1001247077718204</v>
+        <v>0.07434000578991112</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05280567213164011</v>
+        <v>0.1128376177237064</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5006693396724358</v>
+        <v>0.387328279962801</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05265961186630883</v>
+        <v>0.113791059579019</v>
       </c>
       <c r="L136" t="n">
-        <v>0.8755481559699911</v>
+        <v>0.6651751775263984</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05186650238299841</v>
+        <v>0.1139004467493059</v>
       </c>
       <c r="N136" t="n">
-        <v>1.214160706244453</v>
+        <v>0.9467180616737577</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04955101542083382</v>
+        <v>0.1136834087130223</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1095485800841041</v>
+        <v>0.07659773990108779</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05354941399264912</v>
+        <v>0.1144268799451671</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5011643325813975</v>
+        <v>0.3800671323704986</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0534012965404822</v>
+        <v>0.1153937505590052</v>
       </c>
       <c r="L137" t="n">
-        <v>0.8700686163659914</v>
+        <v>0.6597513479037657</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05259701650106881</v>
+        <v>0.1155046783936624</v>
       </c>
       <c r="N137" t="n">
-        <v>1.218129166106993</v>
+        <v>0.9434955886376447</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05024891704647937</v>
+        <v>0.1152845834836283</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09995106080310115</v>
+        <v>0.07298645678834612</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05429315585365814</v>
+        <v>0.1160161421666277</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5041635398926732</v>
+        <v>0.3776281876441857</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05414298121465557</v>
+        <v>0.1169964415389914</v>
       </c>
       <c r="L138" t="n">
-        <v>0.8746936411375721</v>
+        <v>0.6552116319387564</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05332753061913922</v>
+        <v>0.1171089100380188</v>
       </c>
       <c r="N138" t="n">
-        <v>1.223878158398924</v>
+        <v>0.9358810638146947</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05094681867212492</v>
+        <v>0.1168857582542343</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1023288572180545</v>
+        <v>0.07052587539328631</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05503689771466715</v>
+        <v>0.1176054043880884</v>
       </c>
       <c r="J139" t="n">
-        <v>0.5050527890926093</v>
+        <v>0.3784060013223233</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05488466588882893</v>
+        <v>0.1185991325189776</v>
       </c>
       <c r="L139" t="n">
-        <v>0.8808983338049692</v>
+        <v>0.6499198927871285</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05405804473720962</v>
+        <v>0.1187131416823752</v>
       </c>
       <c r="N139" t="n">
-        <v>1.227083246631397</v>
+        <v>0.9287060561978638</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05164472029777047</v>
+        <v>0.1184869330248402</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1106786766182071</v>
+        <v>0.07323571465750858</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05578063957567617</v>
+        <v>0.119194666609549</v>
       </c>
       <c r="J140" t="n">
-        <v>0.5081179076675528</v>
+        <v>0.3733951289433728</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0556263505630023</v>
+        <v>0.1202018234989637</v>
       </c>
       <c r="L140" t="n">
-        <v>0.8855577978884175</v>
+        <v>0.6495399936046395</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05478855885528002</v>
+        <v>0.1203173733267316</v>
       </c>
       <c r="N140" t="n">
-        <v>1.230719994315563</v>
+        <v>0.9117021347801096</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05234262192341601</v>
+        <v>0.1200881077954462</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.108997226292802</v>
+        <v>0.06913568816911875</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05652438143668519</v>
+        <v>0.1207839288310096</v>
       </c>
       <c r="J141" t="n">
-        <v>0.5110447231038509</v>
+        <v>0.3718901260457952</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05636803523717565</v>
+        <v>0.1218045144789499</v>
       </c>
       <c r="L141" t="n">
-        <v>0.8866471369081537</v>
+        <v>0.6449357975470474</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05551907297335042</v>
+        <v>0.121921604971088</v>
       </c>
       <c r="N141" t="n">
-        <v>1.231863964962574</v>
+        <v>0.9212008685543888</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05304052354906155</v>
+        <v>0.1216892825660521</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1092812135310821</v>
+        <v>0.07815096702917315</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0572681232976942</v>
+        <v>0.1223731910524703</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5133190628878499</v>
+        <v>0.3741855481680519</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05710971991134902</v>
+        <v>0.1234072054589361</v>
       </c>
       <c r="L142" t="n">
-        <v>0.8863414543844119</v>
+        <v>0.6418711677701101</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05624958709142082</v>
+        <v>0.1235258366154445</v>
       </c>
       <c r="N142" t="n">
-        <v>1.24259072208358</v>
+        <v>0.9142248482530174</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05373842517470711</v>
+        <v>0.1232904573366581</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1025273456222904</v>
+        <v>0.08019536497231688</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05801186515870321</v>
+        <v>0.123962453273931</v>
       </c>
       <c r="J143" t="n">
-        <v>0.511626754505897</v>
+        <v>0.371353610918041</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05785140458552238</v>
+        <v>0.1250098964389223</v>
       </c>
       <c r="L143" t="n">
-        <v>0.8884158538374292</v>
+        <v>0.6442461047126651</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05698010120949121</v>
+        <v>0.1251300682598009</v>
       </c>
       <c r="N143" t="n">
-        <v>1.244275829189732</v>
+        <v>0.9104323634801054</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05443632680035265</v>
+        <v>0.124891632107264</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1087323298556697</v>
+        <v>0.07726743305790412</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05875560701971223</v>
+        <v>0.1255517154953916</v>
       </c>
       <c r="J144" t="n">
-        <v>0.5166536254443392</v>
+        <v>0.372260512727037</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05859308925969575</v>
+        <v>0.1266125874189085</v>
       </c>
       <c r="L144" t="n">
-        <v>0.89144543878744</v>
+        <v>0.6406768155757455</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05771061532756162</v>
+        <v>0.1267342999041573</v>
       </c>
       <c r="N144" t="n">
-        <v>1.247094849792182</v>
+        <v>0.9207777228067792</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0551342284259982</v>
+        <v>0.12649280687787</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1008928735204632</v>
+        <v>0.08036572234528913</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05949934888072125</v>
+        <v>0.1271409777168523</v>
       </c>
       <c r="J145" t="n">
-        <v>0.5186855031895232</v>
+        <v>0.3713990818362224</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05933477393386912</v>
+        <v>0.1282152783988947</v>
       </c>
       <c r="L145" t="n">
-        <v>0.8923053127546807</v>
+        <v>0.6407368721368027</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05844112944563201</v>
+        <v>0.1283385315485137</v>
       </c>
       <c r="N145" t="n">
-        <v>1.24912334740208</v>
+        <v>0.9126439106277894</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05583213005164375</v>
+        <v>0.1280939816484759</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1120056839059138</v>
+        <v>0.07348878389382602</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06024309074173027</v>
+        <v>0.1287302399383129</v>
       </c>
       <c r="J146" t="n">
-        <v>0.518908215227796</v>
+        <v>0.3707623703390745</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06007645860804247</v>
+        <v>0.1298179693788808</v>
       </c>
       <c r="L146" t="n">
-        <v>0.8997705792593862</v>
+        <v>0.644614233790842</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05917164356370241</v>
+        <v>0.1299427631928701</v>
       </c>
       <c r="N146" t="n">
-        <v>1.253336885530578</v>
+        <v>0.920213911337887</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0565300316772893</v>
+        <v>0.1296951564190818</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1010674683012644</v>
+        <v>0.07863516876286902</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06098683260273927</v>
+        <v>0.1303195021597736</v>
       </c>
       <c r="J147" t="n">
-        <v>0.5220075890455043</v>
+        <v>0.3737434303290706</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06081814328221584</v>
+        <v>0.131420660358867</v>
       </c>
       <c r="L147" t="n">
-        <v>0.8975163418217926</v>
+        <v>0.6478968599328685</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05990215768177282</v>
+        <v>0.1315469948372266</v>
       </c>
       <c r="N147" t="n">
-        <v>1.265611027688826</v>
+        <v>0.9178707093318225</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05722793330293484</v>
+        <v>0.1312963311896878</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1120778842735655</v>
+        <v>0.07880342801177231</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06173057446374829</v>
+        <v>0.1319087643812342</v>
       </c>
       <c r="J148" t="n">
-        <v>0.5240353651084133</v>
+        <v>0.3736353138996886</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0615598279563892</v>
+        <v>0.1330233513388532</v>
       </c>
       <c r="L148" t="n">
-        <v>0.8976177039621351</v>
+        <v>0.6439727099578869</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06063267179984321</v>
+        <v>0.133151226481583</v>
       </c>
       <c r="N148" t="n">
-        <v>1.257621337387976</v>
+        <v>0.9135972890043468</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05792583492858038</v>
+        <v>0.1328975059602937</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1040923486267984</v>
+        <v>0.07099211269989014</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06247431632475731</v>
+        <v>0.1334980266026949</v>
       </c>
       <c r="J149" t="n">
-        <v>0.5213652193532925</v>
+        <v>0.3732310731444055</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06230151263056257</v>
+        <v>0.1346260423188394</v>
       </c>
       <c r="L149" t="n">
-        <v>0.905530496127509</v>
+        <v>0.6447297432609024</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06136318591791362</v>
+        <v>0.1347554581259394</v>
       </c>
       <c r="N149" t="n">
-        <v>1.261243378139179</v>
+        <v>0.9268766347502101</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05862373655422594</v>
+        <v>0.1344986807308997</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1011014070560937</v>
+        <v>0.07819977388657662</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06321805818576633</v>
+        <v>0.1350872888241555</v>
       </c>
       <c r="J150" t="n">
-        <v>0.5256070924715894</v>
+        <v>0.3759237601566988</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06304319730473594</v>
+        <v>0.1362287332988256</v>
       </c>
       <c r="L150" t="n">
-        <v>0.897801001601841</v>
+        <v>0.6486559192369199</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06209370003598402</v>
+        <v>0.1363596897702958</v>
       </c>
       <c r="N150" t="n">
-        <v>1.268052713453586</v>
+        <v>0.9230917309641641</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05932163817987148</v>
+        <v>0.1360998555015056</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1051101822273743</v>
+        <v>0.07742496263118603</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06396180004677535</v>
+        <v>0.1366765510456162</v>
       </c>
       <c r="J151" t="n">
-        <v>0.5280968487240938</v>
+        <v>0.3756064270300462</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0637848819789093</v>
+        <v>0.1378314242788118</v>
       </c>
       <c r="L151" t="n">
-        <v>0.9034421686974432</v>
+        <v>0.6544391972809448</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06282421415405443</v>
+        <v>0.1379639214146522</v>
       </c>
       <c r="N151" t="n">
-        <v>1.268824906842348</v>
+        <v>0.9294255620409585</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06001953980551703</v>
+        <v>0.1377010302721116</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1041186725523181</v>
+        <v>0.08166622999307249</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06470554190778435</v>
+        <v>0.1382658132670768</v>
       </c>
       <c r="J152" t="n">
-        <v>0.5280260894427145</v>
+        <v>0.3785721258579248</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06452656665308265</v>
+        <v>0.1394341152587979</v>
       </c>
       <c r="L152" t="n">
-        <v>0.8978734125242123</v>
+        <v>0.6503675367879819</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06355472827212483</v>
+        <v>0.1395681530590087</v>
       </c>
       <c r="N152" t="n">
-        <v>1.283635521816616</v>
+        <v>0.9273611123753446</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06071744143116257</v>
+        <v>0.1393022050427175</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1051268764426032</v>
+        <v>0.07392212703159026</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06544928376879337</v>
+        <v>0.1398550754885375</v>
       </c>
       <c r="J153" t="n">
-        <v>0.5293864159593609</v>
+        <v>0.3776139087338122</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06526825132725603</v>
+        <v>0.1410368062387841</v>
       </c>
       <c r="L153" t="n">
-        <v>0.9050945191461153</v>
+        <v>0.659028897153036</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06428524239019522</v>
+        <v>0.1411723847033651</v>
       </c>
       <c r="N153" t="n">
-        <v>1.287025627146605</v>
+        <v>0.9289813663620731</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06141534305680812</v>
+        <v>0.1409033798133235</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1111347923099074</v>
+        <v>0.07424324424543199</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06619302562980239</v>
+        <v>0.1414443377099982</v>
       </c>
       <c r="J154" t="n">
-        <v>0.532869429605942</v>
+        <v>0.3829248277511859</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06600993600142939</v>
+        <v>0.1426394972187703</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8996052746271193</v>
+        <v>0.6575112377711126</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06501575650826562</v>
+        <v>0.1427766163477215</v>
       </c>
       <c r="N154" t="n">
-        <v>1.283826390446611</v>
+        <v>0.9354693083958946</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06211324468245367</v>
+        <v>0.1425045545839294</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1041424185659086</v>
+        <v>0.08179742001449081</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06693676749081141</v>
+        <v>0.1430335999314588</v>
       </c>
       <c r="J155" t="n">
-        <v>0.5323667317143668</v>
+        <v>0.3810040988301894</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06675162067560275</v>
+        <v>0.1442421881987565</v>
       </c>
       <c r="L155" t="n">
-        <v>0.9033054650311909</v>
+        <v>0.661789000547132</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06574627062633602</v>
+        <v>0.1443808479920779</v>
       </c>
       <c r="N155" t="n">
-        <v>1.28616664923901</v>
+        <v>0.9439888110258695</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06281114630809921</v>
+        <v>0.1441057293545354</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1031497536222848</v>
+        <v>0.08055887924657804</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06768050935182042</v>
+        <v>0.1446228621529195</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5334699236165448</v>
+        <v>0.3853061645249622</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06749330534977611</v>
+        <v>0.1458448791787427</v>
       </c>
       <c r="L156" t="n">
-        <v>0.9032948764222974</v>
+        <v>0.6663671920429877</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06647678474440642</v>
+        <v>0.1459850796364343</v>
       </c>
       <c r="N156" t="n">
-        <v>1.28587219833043</v>
+        <v>0.9472861791660331</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06350904793374476</v>
+        <v>0.1457069041251413</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1011567958907138</v>
+        <v>0.07948388192073974</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06842425121282943</v>
+        <v>0.1462121243743801</v>
       </c>
       <c r="J157" t="n">
-        <v>0.5354706066443846</v>
+        <v>0.3859756750527082</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06823499002394948</v>
+        <v>0.1474475701587289</v>
       </c>
       <c r="L157" t="n">
-        <v>0.9026732948644058</v>
+        <v>0.6732580390154101</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06720729886247682</v>
+        <v>0.1475893112807908</v>
       </c>
       <c r="N157" t="n">
-        <v>1.296831482748376</v>
+        <v>0.9493025571184813</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06420694955939031</v>
+        <v>0.1473080788957473</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1121635437828736</v>
+        <v>0.08252868801602198</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06916799307383845</v>
+        <v>0.1478013865958408</v>
       </c>
       <c r="J158" t="n">
-        <v>0.5399603821297958</v>
+        <v>0.3938028898848815</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06897667469812284</v>
+        <v>0.1490502611387151</v>
       </c>
       <c r="L158" t="n">
-        <v>0.9059405064214825</v>
+        <v>0.6786980646606382</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06793781298054721</v>
+        <v>0.1491935429251472</v>
       </c>
       <c r="N158" t="n">
-        <v>1.295732947520357</v>
+        <v>0.9697242848293667</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06490485118503586</v>
+        <v>0.1489092536663532</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.106169995710442</v>
+        <v>0.08664955751147077</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06991173493484747</v>
+        <v>0.1493906488173014</v>
       </c>
       <c r="J159" t="n">
-        <v>0.5406308514046876</v>
+        <v>0.4004780684929364</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0697183593722962</v>
+        <v>0.1506529521187012</v>
       </c>
       <c r="L159" t="n">
-        <v>0.9095962971574953</v>
+        <v>0.6911237921749096</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06866832709861762</v>
+        <v>0.1507977745695036</v>
       </c>
       <c r="N159" t="n">
-        <v>1.298965037673881</v>
+        <v>0.9848377022448399</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0656027528106814</v>
+        <v>0.1505104284369592</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1081761500850971</v>
+        <v>0.08080275038613224</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07065547679585649</v>
+        <v>0.1509799110387621</v>
       </c>
       <c r="J160" t="n">
-        <v>0.5439736158009685</v>
+        <v>0.4049914703483267</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07046004404646958</v>
+        <v>0.1522556430986874</v>
       </c>
       <c r="L160" t="n">
-        <v>0.9066404531364103</v>
+        <v>0.695771744754463</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06939884121668802</v>
+        <v>0.15240200621386</v>
       </c>
       <c r="N160" t="n">
-        <v>1.305516198236453</v>
+        <v>0.9919291493110532</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06630065443632695</v>
+        <v>0.1521116032075651</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1071820053185167</v>
+        <v>0.08494452661905239</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07139921865686549</v>
+        <v>0.1525691732602227</v>
       </c>
       <c r="J161" t="n">
-        <v>0.5432802766505485</v>
+        <v>0.4105333549225067</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07120172872064294</v>
+        <v>0.1538583340786736</v>
       </c>
       <c r="L161" t="n">
-        <v>0.909672760422195</v>
+        <v>0.7078784455955364</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07012935533475843</v>
+        <v>0.1540062378582165</v>
       </c>
       <c r="N161" t="n">
-        <v>1.303674874235583</v>
+        <v>1.003484965974159</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0669985560619725</v>
+        <v>0.1537127779781711</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1061875598223787</v>
+        <v>0.08403114618927726</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07214296051787451</v>
+        <v>0.1541584354816834</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5423424352853361</v>
+        <v>0.4145939816869302</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0719434133948163</v>
+        <v>0.1554610250586598</v>
       </c>
       <c r="L162" t="n">
-        <v>0.9036930050788159</v>
+        <v>0.7123804178943683</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07085986945282882</v>
+        <v>0.1556104695025729</v>
       </c>
       <c r="N162" t="n">
-        <v>1.314529510698776</v>
+        <v>1.017291492180308</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06769645768761805</v>
+        <v>0.155313952748777</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.108192812008361</v>
+        <v>0.08401886907585301</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07288670237888353</v>
+        <v>0.155747697703144</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5478516930372406</v>
+        <v>0.4197636101130517</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07268509806898966</v>
+        <v>0.157063716038646</v>
       </c>
       <c r="L163" t="n">
-        <v>0.9083009731702403</v>
+        <v>0.7276141848471974</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07159038357089922</v>
+        <v>0.1572147011469293</v>
       </c>
       <c r="N163" t="n">
-        <v>1.313768552653541</v>
+        <v>1.024335067875652</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0683943593132636</v>
+        <v>0.156915127519383</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1051977602881416</v>
+        <v>0.0808725847178299</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07363044423989255</v>
+        <v>0.1573369599246047</v>
       </c>
       <c r="J164" t="n">
-        <v>0.546599651238171</v>
+        <v>0.4258324996723248</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07342678274316303</v>
+        <v>0.1586664070186321</v>
       </c>
       <c r="L164" t="n">
-        <v>0.908396450760435</v>
+        <v>0.7303162696502611</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07232089768896963</v>
+        <v>0.1588189327912857</v>
       </c>
       <c r="N164" t="n">
-        <v>1.315980445127384</v>
+        <v>1.036002033006344</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06909226093890913</v>
+        <v>0.1585163022899889</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1052024030733983</v>
+        <v>0.08967443578535653</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07437418610090156</v>
+        <v>0.1589262221460653</v>
       </c>
       <c r="J165" t="n">
-        <v>0.5499779112200369</v>
+        <v>0.4294820529654162</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07416846741733639</v>
+        <v>0.1602690979986183</v>
       </c>
       <c r="L165" t="n">
-        <v>0.908479223913367</v>
+        <v>0.7359247307168895</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07305141180704003</v>
+        <v>0.1604231644356421</v>
       </c>
       <c r="N165" t="n">
-        <v>1.315453633147813</v>
+        <v>1.051498732971365</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06979016256455468</v>
+        <v>0.1601174770605949</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1012067387758092</v>
+        <v>0.09145714928749793</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07511792796191057</v>
+        <v>0.160515484367526</v>
       </c>
       <c r="J166" t="n">
-        <v>0.5497780743147471</v>
+        <v>0.4320473105347313</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07491015209150975</v>
+        <v>0.1618717889786045</v>
       </c>
       <c r="L166" t="n">
-        <v>0.9103490786930031</v>
+        <v>0.7442526466948163</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07378192592511042</v>
+        <v>0.1620273960799986</v>
       </c>
       <c r="N166" t="n">
-        <v>1.317876561742336</v>
+        <v>1.059916181452501</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07048806419020023</v>
+        <v>0.1617186518312008</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.109210765807052</v>
+        <v>0.08822211278936679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07586166982291959</v>
+        <v>0.1621047465889867</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5536917418542109</v>
+        <v>0.4358227036473571</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07565183676568313</v>
+        <v>0.1634744799585907</v>
       </c>
       <c r="L167" t="n">
-        <v>0.9088058011633102</v>
+        <v>0.7508238934245494</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07451244004318082</v>
+        <v>0.163631627724355</v>
       </c>
       <c r="N167" t="n">
-        <v>1.325337675938459</v>
+        <v>1.066714853277307</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07118596581584577</v>
+        <v>0.1633198266018068</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1092144825788048</v>
+        <v>0.08597071385607577</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07660541168392861</v>
+        <v>0.1636940088104473</v>
       </c>
       <c r="J168" t="n">
-        <v>0.553310515170337</v>
+        <v>0.4394148859041333</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07639352143985648</v>
+        <v>0.1650771709385769</v>
       </c>
       <c r="L168" t="n">
-        <v>0.9036491773882558</v>
+        <v>0.7537500014842907</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07524295416125122</v>
+        <v>0.1652358593687114</v>
       </c>
       <c r="N168" t="n">
-        <v>1.324325420763691</v>
+        <v>1.080811043288696</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07188386744149133</v>
+        <v>0.1649210013724127</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1012178875027454</v>
+        <v>0.08570434005273753</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07734915354493763</v>
+        <v>0.165283271031908</v>
       </c>
       <c r="J169" t="n">
-        <v>0.5521259955950351</v>
+        <v>0.4447305109058987</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07713520611402984</v>
+        <v>0.1666798619185631</v>
       </c>
       <c r="L169" t="n">
-        <v>0.9078789934318061</v>
+        <v>0.761142501452242</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07597346827932162</v>
+        <v>0.1668400910130678</v>
       </c>
       <c r="N169" t="n">
-        <v>1.332028241245538</v>
+        <v>1.082921046329583</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07258176906713687</v>
+        <v>0.1665221761430187</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1042209789905517</v>
+        <v>0.08842437894446478</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07809289540594665</v>
+        <v>0.1668725332533686</v>
       </c>
       <c r="J170" t="n">
-        <v>0.5530297844602139</v>
+        <v>0.4478762322534923</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07787689078820322</v>
+        <v>0.1682825528985492</v>
       </c>
       <c r="L170" t="n">
-        <v>0.9091950353579286</v>
+        <v>0.7681129239066056</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07670398239739203</v>
+        <v>0.1684443226574243</v>
       </c>
       <c r="N170" t="n">
-        <v>1.330634582411507</v>
+        <v>1.089561157242881</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07327967069278241</v>
+        <v>0.1681233509136246</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1052237554539017</v>
+        <v>0.09113221809637009</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07883663726695565</v>
+        <v>0.1684617954748293</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5548134830977827</v>
+        <v>0.4466587035477532</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07861857546237658</v>
+        <v>0.1698852438785354</v>
       </c>
       <c r="L171" t="n">
-        <v>0.9066970892305899</v>
+        <v>0.7734727994255828</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07743449651546241</v>
+        <v>0.1700485543017807</v>
       </c>
       <c r="N171" t="n">
-        <v>1.334632889289107</v>
+        <v>1.098647670871503</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07397757231842797</v>
+        <v>0.1697245256842306</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1022262153044733</v>
+        <v>0.09682924507356616</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07958037912796467</v>
+        <v>0.1700510576962899</v>
       </c>
       <c r="J172" t="n">
-        <v>0.5571686928396509</v>
+        <v>0.4520845783895205</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07936026013654994</v>
+        <v>0.1714879348585216</v>
       </c>
       <c r="L172" t="n">
-        <v>0.908684941113757</v>
+        <v>0.7769336585873758</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07816501063353282</v>
+        <v>0.1716527859461371</v>
       </c>
       <c r="N172" t="n">
-        <v>1.336811606905844</v>
+        <v>1.110196882058364</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07467547394407351</v>
+        <v>0.1713257004548365</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1032283569539443</v>
+        <v>0.09051684744116567</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08032412098897368</v>
+        <v>0.1716403199177506</v>
       </c>
       <c r="J173" t="n">
-        <v>0.5551870150177272</v>
+        <v>0.4532605103796336</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0801019448107233</v>
+        <v>0.1730906258385078</v>
       </c>
       <c r="L173" t="n">
-        <v>0.9069583770713967</v>
+        <v>0.7842070319701864</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07889552475160322</v>
+        <v>0.1732570175904935</v>
       </c>
       <c r="N173" t="n">
-        <v>1.340359180289226</v>
+        <v>1.116325085646377</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07537337556971906</v>
+        <v>0.1729268752254425</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1062301788139928</v>
+        <v>0.09119641276428123</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0810678628499827</v>
+        <v>0.1732295821392112</v>
       </c>
       <c r="J174" t="n">
-        <v>0.5584600509639208</v>
+        <v>0.4583931531189311</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08084362948489666</v>
+        <v>0.174693316818494</v>
       </c>
       <c r="L174" t="n">
-        <v>0.9120171831674766</v>
+        <v>0.789204450152216</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07962603886967363</v>
+        <v>0.1748612492348499</v>
       </c>
       <c r="N174" t="n">
-        <v>1.33836405446676</v>
+        <v>1.130548576478456</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07607127719536461</v>
+        <v>0.1745280499960484</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1082316792962966</v>
+        <v>0.0978693286080255</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08181160471099172</v>
+        <v>0.1748188443606719</v>
       </c>
       <c r="J175" t="n">
-        <v>0.5584794020101413</v>
+        <v>0.4641891602082526</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08158531415907003</v>
+        <v>0.1762960077984801</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9096611454659631</v>
+        <v>0.7989374437116672</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08035655298774402</v>
+        <v>0.1764654808792064</v>
       </c>
       <c r="N175" t="n">
-        <v>1.339414674465953</v>
+        <v>1.138683649397514</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07676917882101016</v>
+        <v>0.1761292247666544</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1032328568125336</v>
+        <v>0.09055224584641386</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08255534657200073</v>
+        <v>0.1764081065821325</v>
       </c>
       <c r="J176" t="n">
-        <v>0.5562365215134397</v>
+        <v>0.4629551852484365</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08232699883324339</v>
+        <v>0.1778986987784663</v>
       </c>
       <c r="L176" t="n">
-        <v>0.909090050030823</v>
+        <v>0.8008175432267417</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08108706710581443</v>
+        <v>0.1780697125235628</v>
       </c>
       <c r="N176" t="n">
-        <v>1.345599485314313</v>
+        <v>1.138448258597401</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07746708044665569</v>
+        <v>0.1777303995372603</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1122337097743817</v>
+        <v>0.09127432529711607</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08329908843300975</v>
+        <v>0.1779973688035932</v>
       </c>
       <c r="J177" t="n">
-        <v>0.559718774286116</v>
+        <v>0.4703255803714251</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08306868350741677</v>
+        <v>0.1795013897584525</v>
       </c>
       <c r="L177" t="n">
-        <v>0.9105036829260236</v>
+        <v>0.8085433785451213</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08181758122388483</v>
+        <v>0.1796739441679192</v>
       </c>
       <c r="N177" t="n">
-        <v>1.342306932039347</v>
+        <v>1.147917389550332</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07816498207230124</v>
+        <v>0.1793315743078663</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.112234236593519</v>
+        <v>0.09301419184042209</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08404283029401877</v>
+        <v>0.1795866310250538</v>
       </c>
       <c r="J178" t="n">
-        <v>0.5556269147395982</v>
+        <v>0.470463831112439</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08381036818159013</v>
+        <v>0.1811040807384387</v>
       </c>
       <c r="L178" t="n">
-        <v>0.9127018302155314</v>
+        <v>0.8152737425098275</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08254809534195523</v>
+        <v>0.1812781758122756</v>
       </c>
       <c r="N178" t="n">
-        <v>1.348625459668563</v>
+        <v>1.163775030356129</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07886288369794679</v>
+        <v>0.1809327490784722</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1122344356816232</v>
+        <v>0.09474800955498419</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08478657215502779</v>
+        <v>0.1811758932465145</v>
       </c>
       <c r="J179" t="n">
-        <v>0.555867807390525</v>
+        <v>0.4758556804281165</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08455205285576349</v>
+        <v>0.1827067717184249</v>
       </c>
       <c r="L179" t="n">
-        <v>0.9117842779633141</v>
+        <v>0.8210132621608592</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08327860946002563</v>
+        <v>0.182882407456632</v>
       </c>
       <c r="N179" t="n">
-        <v>1.344843513229467</v>
+        <v>1.162641264353212</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07956078532359234</v>
+        <v>0.1825339238490782</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1082232219021162</v>
+        <v>0.09645194251945485</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08553031401603679</v>
+        <v>0.1827651554679751</v>
       </c>
       <c r="J180" t="n">
-        <v>0.5573483167555355</v>
+        <v>0.4768868311911859</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08529373752993685</v>
+        <v>0.1843094626984111</v>
       </c>
       <c r="L180" t="n">
-        <v>0.907150812233338</v>
+        <v>0.8237638625015151</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08400912357809602</v>
+        <v>0.1844866391009885</v>
       </c>
       <c r="N180" t="n">
-        <v>1.350949537749568</v>
+        <v>1.177036174879997</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08025868694923789</v>
+        <v>0.1841350986196841</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1101849085813628</v>
+        <v>0.1011021548124864</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0862740558770458</v>
+        <v>0.1843544176894358</v>
       </c>
       <c r="J181" t="n">
-        <v>0.5560753073512685</v>
+        <v>0.4820429862743759</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08603542220411022</v>
+        <v>0.1859121536783973</v>
       </c>
       <c r="L181" t="n">
-        <v>0.9113012190895702</v>
+        <v>0.8362274685350948</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08473963769616642</v>
+        <v>0.1860908707453449</v>
       </c>
       <c r="N181" t="n">
-        <v>1.348631978256372</v>
+        <v>1.186179845274903</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08095658857488343</v>
+        <v>0.1857362733902901</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1071206269099089</v>
+        <v>0.09367481051273119</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08701779773805482</v>
+        <v>0.1859436799108965</v>
       </c>
       <c r="J182" t="n">
-        <v>0.5566556436943633</v>
+        <v>0.4868098485504149</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08677710687828358</v>
+        <v>0.1875148446583834</v>
       </c>
       <c r="L182" t="n">
-        <v>0.9086352845959775</v>
+        <v>0.8349060052648967</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08547015181423682</v>
+        <v>0.1876951023897013</v>
       </c>
       <c r="N182" t="n">
-        <v>1.358679279777387</v>
+        <v>1.189892358876348</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08165449020052898</v>
+        <v>0.187337448160896</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1020316640558431</v>
+        <v>0.09414607369884159</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08776153959906384</v>
+        <v>0.1875329421323571</v>
       </c>
       <c r="J183" t="n">
-        <v>0.5542961903014589</v>
+        <v>0.4875731208920316</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08751879155245694</v>
+        <v>0.1891175356383696</v>
       </c>
       <c r="L183" t="n">
-        <v>0.9104527948165273</v>
+        <v>0.8383013976942206</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08620066593230723</v>
+        <v>0.1892993340340577</v>
       </c>
       <c r="N183" t="n">
-        <v>1.359379887340119</v>
+        <v>1.197493799022752</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08235239182617453</v>
+        <v>0.188938622931502</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1009193071872543</v>
+        <v>0.1014921084494701</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08850528146007286</v>
+        <v>0.1891222043538177</v>
       </c>
       <c r="J184" t="n">
-        <v>0.5535038116891939</v>
+        <v>0.4918185061719545</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08826047622663032</v>
+        <v>0.1907202266183558</v>
       </c>
       <c r="L184" t="n">
-        <v>0.9096267200047647</v>
+        <v>0.8419155708263646</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08693118005037763</v>
+        <v>0.1909035656784142</v>
       </c>
       <c r="N184" t="n">
-        <v>1.352722245972077</v>
+        <v>1.20580424905253</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08305029345182006</v>
+        <v>0.1905397977021079</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1007848434722312</v>
+        <v>0.09676125351777101</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08924902332108188</v>
+        <v>0.1907114665752784</v>
       </c>
       <c r="J185" t="n">
-        <v>0.5483853723742078</v>
+        <v>0.4916641193886735</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08900216090080366</v>
+        <v>0.192322917598342</v>
       </c>
       <c r="L185" t="n">
-        <v>0.9095690162784356</v>
+        <v>0.8494819103174731</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08766169416844802</v>
+        <v>0.1925077973227706</v>
       </c>
       <c r="N185" t="n">
-        <v>1.351540901621258</v>
+        <v>1.208467685653321</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08374819507746563</v>
+        <v>0.1921409724727139</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1076295600788625</v>
+        <v>0.09902469754066975</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08999276518209089</v>
+        <v>0.1923007287967391</v>
       </c>
       <c r="J186" t="n">
-        <v>0.5513477368731392</v>
+        <v>0.4899240328224809</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08974384557497703</v>
+        <v>0.1939256085783282</v>
       </c>
       <c r="L186" t="n">
-        <v>0.910155880653063</v>
+        <v>0.8477646269528356</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08839220828651842</v>
+        <v>0.194112028967127</v>
       </c>
       <c r="N186" t="n">
-        <v>1.35327968785297</v>
+        <v>1.213354201629319</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08444609670311116</v>
+        <v>0.1937421472433198</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1064547441752372</v>
+        <v>0.1022823972859715</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09073650704309991</v>
+        <v>0.1938899910181997</v>
       </c>
       <c r="J187" t="n">
-        <v>0.5483977697026272</v>
+        <v>0.4920569072064708</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0904855302491504</v>
+        <v>0.1955282995583144</v>
       </c>
       <c r="L187" t="n">
-        <v>0.9120025693998057</v>
+        <v>0.8524005849762706</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08912272240458884</v>
+        <v>0.1957162606114834</v>
       </c>
       <c r="N187" t="n">
-        <v>1.347453569156444</v>
+        <v>1.211574359471399</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08514399832875671</v>
+        <v>0.1953433220139258</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.107261682929444</v>
+        <v>0.1035342650342603</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09148024890410893</v>
+        <v>0.1954792532396604</v>
       </c>
       <c r="J188" t="n">
-        <v>0.544742335379311</v>
+        <v>0.4940623219117489</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09122721492332377</v>
+        <v>0.1971309905383005</v>
       </c>
       <c r="L188" t="n">
-        <v>0.905024338789822</v>
+        <v>0.855789055444987</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08985323652265924</v>
+        <v>0.1973204922558398</v>
       </c>
       <c r="N188" t="n">
-        <v>1.353477585228058</v>
+        <v>1.220027129048367</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08584189995440226</v>
+        <v>0.1969444967845317</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1020516635095715</v>
+        <v>0.1047802130661201</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09222399076511793</v>
+        <v>0.197068515461121</v>
       </c>
       <c r="J189" t="n">
-        <v>0.5444882984198294</v>
+        <v>0.4933398563094202</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09196889959749713</v>
+        <v>0.1987336815182867</v>
       </c>
       <c r="L189" t="n">
-        <v>0.9017364450942704</v>
+        <v>0.8541293094161939</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09058375064072963</v>
+        <v>0.1989247239001963</v>
       </c>
       <c r="N189" t="n">
-        <v>1.343566775764186</v>
+        <v>1.219311480229031</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0865398015800478</v>
+        <v>0.1985456715551376</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.09982597308370866</v>
+        <v>0.1000201536621352</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09296773262612695</v>
+        <v>0.1986577776825817</v>
       </c>
       <c r="J190" t="n">
-        <v>0.5435425233408213</v>
+        <v>0.49888908977059</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09271058427167049</v>
+        <v>0.2003363724982729</v>
       </c>
       <c r="L190" t="n">
-        <v>0.907154144584309</v>
+        <v>0.8570206179471009</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09131426475880003</v>
+        <v>0.2005289555445527</v>
       </c>
       <c r="N190" t="n">
-        <v>1.350536180461205</v>
+        <v>1.216326382882201</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08723770320569335</v>
+        <v>0.2001468463257436</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.09958589881994417</v>
+        <v>0.1042539991028893</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09371147448713596</v>
+        <v>0.2002470399040423</v>
       </c>
       <c r="J191" t="n">
-        <v>0.541511874658926</v>
+        <v>0.4979096016663639</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09345226894584385</v>
+        <v>0.2019390634782591</v>
       </c>
       <c r="L191" t="n">
-        <v>0.9017926935310967</v>
+        <v>0.8622622520949168</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09204477887687043</v>
+        <v>0.2021331871889091</v>
       </c>
       <c r="N191" t="n">
-        <v>1.348400839015491</v>
+        <v>1.227870806876683</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0879356048313389</v>
+        <v>0.2017480210963495</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1083327278863669</v>
+        <v>0.1024816616689667</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09445521634814498</v>
+        <v>0.201836302125503</v>
       </c>
       <c r="J192" t="n">
-        <v>0.5398032168907823</v>
+        <v>0.500700971367847</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09419395362001722</v>
+        <v>0.2035417544582453</v>
       </c>
       <c r="L192" t="n">
-        <v>0.9019673482057915</v>
+        <v>0.8642534829168509</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09277529299494083</v>
+        <v>0.2037374188332655</v>
       </c>
       <c r="N192" t="n">
-        <v>1.33947579112342</v>
+        <v>1.225643722081284</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08863350645698445</v>
+        <v>0.2033491958669555</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1070677474510655</v>
+        <v>0.09870305364095128</v>
       </c>
       <c r="G193" t="n">
-        <v>0.095198958209154</v>
+        <v>0.2034255643469637</v>
       </c>
       <c r="J193" t="n">
-        <v>0.5357234145530292</v>
+        <v>0.4978627782461444</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09493563829419058</v>
+        <v>0.2051444454382315</v>
       </c>
       <c r="L193" t="n">
-        <v>0.9005933648795523</v>
+        <v>0.8635935814701126</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09350580711301122</v>
+        <v>0.205341650477622</v>
       </c>
       <c r="N193" t="n">
-        <v>1.34347607648137</v>
+        <v>1.228444098364814</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08933140808263</v>
+        <v>0.2049503706375614</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1047922446821288</v>
+        <v>0.1019180872994271</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09594270007016302</v>
+        <v>0.2050148265684243</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5332793321623055</v>
+        <v>0.4989946016723616</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09567732296836395</v>
+        <v>0.2067471364182176</v>
       </c>
       <c r="L194" t="n">
-        <v>0.8929859998235374</v>
+        <v>0.868281818811911</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09423632123108162</v>
+        <v>0.2069458821219784</v>
       </c>
       <c r="N194" t="n">
-        <v>1.337216734785714</v>
+        <v>1.23757090559608</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09002930970827554</v>
+        <v>0.2065515454081674</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1065075067476457</v>
+        <v>0.1011266749249783</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09668644193117204</v>
+        <v>0.206604088789885</v>
       </c>
       <c r="J195" t="n">
-        <v>0.5320778342352506</v>
+        <v>0.501496021017604</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09641900764253732</v>
+        <v>0.2083498273982038</v>
       </c>
       <c r="L195" t="n">
-        <v>0.8962605093089044</v>
+        <v>0.8683174659994553</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09496683534915203</v>
+        <v>0.2085501137663348</v>
       </c>
       <c r="N195" t="n">
-        <v>1.33281280573283</v>
+        <v>1.23562311364389</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09072721133392109</v>
+        <v>0.2081527201787733</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.09921482081570474</v>
+        <v>0.1083287287981888</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09743018379218105</v>
+        <v>0.2081933510113456</v>
       </c>
       <c r="J196" t="n">
-        <v>0.5297257852885033</v>
+        <v>0.5034666156529766</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09716069231671066</v>
+        <v>0.20995251837819</v>
       </c>
       <c r="L196" t="n">
-        <v>0.8936321496068131</v>
+        <v>0.8736997940899549</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09569734946722243</v>
+        <v>0.2101543454106912</v>
       </c>
       <c r="N196" t="n">
-        <v>1.323479329019094</v>
+        <v>1.237399692377051</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09142511295956664</v>
+        <v>0.2097538949493793</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1039154740543948</v>
+        <v>0.09952416119964269</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09817392565319005</v>
+        <v>0.2097826132328063</v>
       </c>
       <c r="J197" t="n">
-        <v>0.5275300498387023</v>
+        <v>0.5054059649495848</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09790237699088404</v>
+        <v>0.2115552093581762</v>
       </c>
       <c r="L197" t="n">
-        <v>0.8887161769884211</v>
+        <v>0.8722280741406188</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09642786358529283</v>
+        <v>0.2117585770550476</v>
       </c>
       <c r="N197" t="n">
-        <v>1.320231344340881</v>
+        <v>1.235799611664373</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09212301458521219</v>
+        <v>0.2113550697199852</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.09861075363180474</v>
+        <v>0.106712884409924</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09891766751419907</v>
+        <v>0.2113718754542669</v>
       </c>
       <c r="J198" t="n">
-        <v>0.5245974924024872</v>
+        <v>0.5068136482785341</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0986440616650574</v>
+        <v>0.2131579003381623</v>
       </c>
       <c r="L198" t="n">
-        <v>0.8926278477248866</v>
+        <v>0.8692015772086565</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09715837770336322</v>
+        <v>0.213362808699404</v>
       </c>
       <c r="N198" t="n">
-        <v>1.322883891394569</v>
+        <v>1.239021841374661</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09282091621085772</v>
+        <v>0.2129562444905912</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09930194671602327</v>
+        <v>0.09889481070961667</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09966140937520809</v>
+        <v>0.2129611376757276</v>
       </c>
       <c r="J199" t="n">
-        <v>0.5224349774964965</v>
+        <v>0.5076892450109296</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09938574633923077</v>
+        <v>0.2147605913181486</v>
       </c>
       <c r="L199" t="n">
-        <v>0.8825824180873685</v>
+        <v>0.8719195743512769</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09788889182143362</v>
+        <v>0.2149670403437605</v>
       </c>
       <c r="N199" t="n">
-        <v>1.322752009876533</v>
+        <v>1.246465351376726</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09351881783650327</v>
+        <v>0.2145574192611971</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1059903404751391</v>
+        <v>0.1090698523793049</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1004051512362171</v>
+        <v>0.2145503998971882</v>
       </c>
       <c r="J200" t="n">
-        <v>0.5185493696373695</v>
+        <v>0.5078323345178766</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1001274310134041</v>
+        <v>0.2163632822981347</v>
       </c>
       <c r="L200" t="n">
-        <v>0.8797951443470253</v>
+        <v>0.8736813366256895</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09861940593950404</v>
+        <v>0.2165712719881169</v>
       </c>
       <c r="N200" t="n">
-        <v>1.31815073948315</v>
+        <v>1.251229111539373</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09421671946214882</v>
+        <v>0.2161585940318031</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.09867722207724114</v>
+        <v>0.09823792169957257</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1011488930972261</v>
+        <v>0.2161396621186489</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5180475333417449</v>
+        <v>0.5078424961704806</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1008691156875775</v>
+        <v>0.2179659732781209</v>
       </c>
       <c r="L201" t="n">
-        <v>0.8849812827750152</v>
+        <v>0.8739861350891029</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09934992005757444</v>
+        <v>0.2181755036324733</v>
       </c>
       <c r="N201" t="n">
-        <v>1.303895119910794</v>
+        <v>1.242212091731412</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09491462108779436</v>
+        <v>0.217759768802409</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.09736387869041804</v>
+        <v>0.1063989309510038</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1018926349582351</v>
+        <v>0.2177289243401095</v>
       </c>
       <c r="J202" t="n">
-        <v>0.517036333126262</v>
+        <v>0.5102193093398464</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1016108003617509</v>
+        <v>0.2195686642581071</v>
       </c>
       <c r="L202" t="n">
-        <v>0.8821560896424967</v>
+        <v>0.8755332407987273</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1000804341756448</v>
+        <v>0.2197797352768297</v>
       </c>
       <c r="N202" t="n">
-        <v>1.308700190855844</v>
+        <v>1.248813261821649</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09561252271343992</v>
+        <v>0.219360943573015</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1070515974827587</v>
+        <v>0.1085527924141826</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1026363768192442</v>
+        <v>0.2193181865615702</v>
       </c>
       <c r="J203" t="n">
-        <v>0.5133226335075596</v>
+        <v>0.5094623533970799</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1023524850359242</v>
+        <v>0.2211713552380933</v>
       </c>
       <c r="L203" t="n">
-        <v>0.871334821220628</v>
+        <v>0.8759219248117716</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1008109482937152</v>
+        <v>0.2213839669211862</v>
       </c>
       <c r="N203" t="n">
-        <v>1.305980992014675</v>
+        <v>1.251831591678894</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09631042433908546</v>
+        <v>0.220962118343621</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09874166562235173</v>
+        <v>0.1006994183696931</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1033801186802532</v>
+        <v>0.2209074487830308</v>
       </c>
       <c r="J204" t="n">
-        <v>0.5109132990022767</v>
+        <v>0.5078712077132859</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1030941697100976</v>
+        <v>0.2227740462180795</v>
       </c>
       <c r="L204" t="n">
-        <v>0.8702327337805678</v>
+        <v>0.8788514581854443</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1015414624117856</v>
+        <v>0.2229881985655426</v>
       </c>
       <c r="N204" t="n">
-        <v>1.296252563083662</v>
+        <v>1.258366051171954</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09700832596473101</v>
+        <v>0.2225632931142268</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.100435370277286</v>
+        <v>0.1048387210981191</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1041238605412622</v>
+        <v>0.2224967110044915</v>
       </c>
       <c r="J205" t="n">
-        <v>0.5065151941270525</v>
+        <v>0.5127454516595702</v>
       </c>
       <c r="K205" t="n">
-        <v>0.103835854384271</v>
+        <v>0.2243767371980657</v>
       </c>
       <c r="L205" t="n">
-        <v>0.8727650835934744</v>
+        <v>0.8830211119769555</v>
       </c>
       <c r="M205" t="n">
-        <v>0.102271976529856</v>
+        <v>0.224592430209899</v>
       </c>
       <c r="N205" t="n">
-        <v>1.288929943759182</v>
+        <v>1.254015610169637</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09770622759037656</v>
+        <v>0.2241644678848328</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.09813399861565036</v>
+        <v>0.1049706128800449</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1048676024022712</v>
+        <v>0.2240859732259521</v>
       </c>
       <c r="J206" t="n">
-        <v>0.5065351833985257</v>
+        <v>0.5110846646070375</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1045775390584443</v>
+        <v>0.2259794281780518</v>
       </c>
       <c r="L206" t="n">
-        <v>0.8693471269305064</v>
+        <v>0.8800301572435139</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1030024906479264</v>
+        <v>0.2261966618542554</v>
       </c>
       <c r="N206" t="n">
-        <v>1.283028173737612</v>
+        <v>1.25057923854075</v>
       </c>
       <c r="O206" t="n">
-        <v>0.0984041292160221</v>
+        <v>0.2257656426554387</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09483883780553348</v>
+        <v>0.1100950059960544</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1056113442632802</v>
+        <v>0.2256752354474128</v>
       </c>
       <c r="J207" t="n">
-        <v>0.5039801313333356</v>
+        <v>0.5110884259267936</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1053192237326177</v>
+        <v>0.227582119158038</v>
       </c>
       <c r="L207" t="n">
-        <v>0.8629941200628219</v>
+        <v>0.885177865042329</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1037330047659968</v>
+        <v>0.2278008934986119</v>
       </c>
       <c r="N207" t="n">
-        <v>1.286062292715327</v>
+        <v>1.258655906154102</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09910203084166765</v>
+        <v>0.2273668174260447</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.09555117501502419</v>
+        <v>0.1052118127267316</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1063550861242892</v>
+        <v>0.2272644976688735</v>
       </c>
       <c r="J208" t="n">
-        <v>0.5019569024481207</v>
+        <v>0.5123563149899435</v>
       </c>
       <c r="K208" t="n">
-        <v>0.106060908406791</v>
+        <v>0.2291848101380242</v>
       </c>
       <c r="L208" t="n">
-        <v>0.8679213192615796</v>
+        <v>0.8851635064306103</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1044635188840672</v>
+        <v>0.2294051251429683</v>
       </c>
       <c r="N208" t="n">
-        <v>1.276447340388703</v>
+        <v>1.260444582878501</v>
       </c>
       <c r="O208" t="n">
-        <v>0.0997999324673132</v>
+        <v>0.2289679921966506</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1052671495447162</v>
+        <v>0.1003209453526606</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1070988279852982</v>
+        <v>0.2288537598903341</v>
       </c>
       <c r="J209" t="n">
-        <v>0.5007723612595205</v>
+        <v>0.5124879111675924</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1068025930809644</v>
+        <v>0.2307875011180104</v>
       </c>
       <c r="L209" t="n">
-        <v>0.859243980797938</v>
+        <v>0.887786352465566</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1051940330021376</v>
+        <v>0.2310093567873247</v>
       </c>
       <c r="N209" t="n">
-        <v>1.271998356454117</v>
+        <v>1.263144238582753</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1004978340929587</v>
+        <v>0.2305691669672566</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.09597934692623744</v>
+        <v>0.1044223161544255</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1078425698463073</v>
+        <v>0.2304430221117948</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4942333722841738</v>
+        <v>0.5142827938308461</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1075442777551378</v>
+        <v>0.2323901920979966</v>
       </c>
       <c r="L210" t="n">
-        <v>0.8630773609430551</v>
+        <v>0.8913456742044066</v>
       </c>
       <c r="M210" t="n">
-        <v>0.105924547120208</v>
+        <v>0.2326135884316811</v>
       </c>
       <c r="N210" t="n">
-        <v>1.269830380607945</v>
+        <v>1.264953843135668</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1011957357186043</v>
+        <v>0.2321703417378626</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1036876859693507</v>
+        <v>0.1015158374126102</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1085863117073163</v>
+        <v>0.2320322843332554</v>
       </c>
       <c r="J211" t="n">
-        <v>0.4958468000387197</v>
+        <v>0.5151405423508093</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1082859624293111</v>
+        <v>0.2339928830779827</v>
       </c>
       <c r="L211" t="n">
-        <v>0.8606367159680897</v>
+        <v>0.89134074270434</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1066550612382784</v>
+        <v>0.2342178200760375</v>
       </c>
       <c r="N211" t="n">
-        <v>1.262958452546563</v>
+        <v>1.263072366406053</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1018936373442498</v>
+        <v>0.2337715165084685</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1043921715266442</v>
+        <v>0.1056014214077988</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1093300535683253</v>
+        <v>0.2336215465547161</v>
       </c>
       <c r="J212" t="n">
-        <v>0.4948898507947408</v>
+        <v>0.5158607360985876</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1090276471034845</v>
+        <v>0.2355955740579689</v>
       </c>
       <c r="L212" t="n">
-        <v>0.8554373021442003</v>
+        <v>0.8894708290225768</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1073855753563488</v>
+        <v>0.2358220517203939</v>
       </c>
       <c r="N212" t="n">
-        <v>1.257397611966346</v>
+        <v>1.264398778262716</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1025915389698954</v>
+        <v>0.2353726912790745</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1010928084507064</v>
+        <v>0.1106789804205754</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1100737954293343</v>
+        <v>0.2352108087761767</v>
       </c>
       <c r="J213" t="n">
-        <v>0.4898085941767067</v>
+        <v>0.5143429544452864</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1097693317776579</v>
+        <v>0.2371982650379551</v>
       </c>
       <c r="L213" t="n">
-        <v>0.8570943757425449</v>
+        <v>0.8915352042163254</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1081160894744192</v>
+        <v>0.2374262833647504</v>
       </c>
       <c r="N213" t="n">
-        <v>1.255362898563672</v>
+        <v>1.261332048574465</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1032894405955409</v>
+        <v>0.2369738660496804</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09778960159412561</v>
+        <v>0.09974842673152384</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1108175372903433</v>
+        <v>0.2368000709976374</v>
       </c>
       <c r="J214" t="n">
-        <v>0.4892017332179121</v>
+        <v>0.5143867767620107</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1105110164518312</v>
+        <v>0.2388009560179413</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8488985690055852</v>
+        <v>0.8933331393427948</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1088466035924896</v>
+        <v>0.2390305150091068</v>
       </c>
       <c r="N214" t="n">
-        <v>1.237769352034916</v>
+        <v>1.261171147210108</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1039873422211865</v>
+        <v>0.2385750408202864</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.09548255580949017</v>
+        <v>0.1078096726212283</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1115612791513523</v>
+        <v>0.238389333219098</v>
       </c>
       <c r="J215" t="n">
-        <v>0.4835693560661191</v>
+        <v>0.5160917824198661</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1112527011260046</v>
+        <v>0.2404036469979275</v>
       </c>
       <c r="L215" t="n">
-        <v>0.8509279938785768</v>
+        <v>0.890163905459195</v>
       </c>
       <c r="M215" t="n">
-        <v>0.10957711771056</v>
+        <v>0.2406347466534632</v>
       </c>
       <c r="N215" t="n">
-        <v>1.233132012076455</v>
+        <v>1.264015044038452</v>
       </c>
       <c r="O215" t="n">
-        <v>0.104685243846832</v>
+        <v>0.2401762155908923</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0971716759493885</v>
+        <v>0.1008626303702728</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1123050210123614</v>
+        <v>0.2399785954405587</v>
       </c>
       <c r="J216" t="n">
-        <v>0.4858115508690899</v>
+        <v>0.5148575507899575</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1119943858001779</v>
+        <v>0.2420063379779137</v>
       </c>
       <c r="L216" t="n">
-        <v>0.8536641693309348</v>
+        <v>0.8892267736227346</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1103076318286304</v>
+        <v>0.2422389782978197</v>
       </c>
       <c r="N216" t="n">
-        <v>1.230165918384664</v>
+        <v>1.270362708928306</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1053831454724776</v>
+        <v>0.2417773903614983</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09985696686640888</v>
+        <v>0.1089072122592414</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1130487628733704</v>
+        <v>0.2415678576620193</v>
       </c>
       <c r="J217" t="n">
-        <v>0.4825284057745867</v>
+        <v>0.5170836612433907</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1127360704743513</v>
+        <v>0.2436090289578998</v>
       </c>
       <c r="L217" t="n">
-        <v>0.8501074250660534</v>
+        <v>0.8918210148906227</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1110381459467008</v>
+        <v>0.243843209942176</v>
       </c>
       <c r="N217" t="n">
-        <v>1.23238611065592</v>
+        <v>1.264313111748478</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1060810470981231</v>
+        <v>0.2433785651321042</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.09953843341313973</v>
+        <v>0.09994333056871807</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1137925047343794</v>
+        <v>0.24315711988348</v>
       </c>
       <c r="J218" t="n">
-        <v>0.4809200089303716</v>
+        <v>0.5146696931512706</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1134777551485247</v>
+        <v>0.245211719937886</v>
       </c>
       <c r="L218" t="n">
-        <v>0.8483580907873258</v>
+        <v>0.8939459003200694</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1117686600647712</v>
+        <v>0.2454474415865325</v>
       </c>
       <c r="N218" t="n">
-        <v>1.226507628586599</v>
+        <v>1.273765222367774</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1067789487237687</v>
+        <v>0.2449797399027102</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.09121608044216931</v>
+        <v>0.1069708975792869</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1145362465953884</v>
+        <v>0.2447463821049406</v>
       </c>
       <c r="J219" t="n">
-        <v>0.4780864484842064</v>
+        <v>0.5178152258847026</v>
       </c>
       <c r="K219" t="n">
-        <v>0.114219439822698</v>
+        <v>0.2468144109178722</v>
       </c>
       <c r="L219" t="n">
-        <v>0.8461164961981453</v>
+        <v>0.8940007009682831</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1124991741828416</v>
+        <v>0.2470516732308889</v>
       </c>
       <c r="N219" t="n">
-        <v>1.215445511873076</v>
+        <v>1.274218010655004</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1074768503494142</v>
+        <v>0.2465809146733161</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.09288991280608605</v>
+        <v>0.1099898255715319</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1152799884563974</v>
+        <v>0.2463356443264013</v>
       </c>
       <c r="J220" t="n">
-        <v>0.4738278125838535</v>
+        <v>0.5159198388147921</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1149611244968714</v>
+        <v>0.2484171018978584</v>
       </c>
       <c r="L220" t="n">
-        <v>0.8449829710019061</v>
+        <v>0.8886846878924735</v>
       </c>
       <c r="M220" t="n">
-        <v>0.113229688300912</v>
+        <v>0.2486559048752453</v>
       </c>
       <c r="N220" t="n">
-        <v>1.211414800211729</v>
+        <v>1.265670446478976</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1081747519750598</v>
+        <v>0.2481820894439221</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.09655993535747823</v>
+        <v>0.1050000268260371</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1160237303174064</v>
+        <v>0.2479249065478619</v>
       </c>
       <c r="J221" t="n">
-        <v>0.4692441893770752</v>
+        <v>0.5161831113126443</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1157028091710448</v>
+        <v>0.2500197928778446</v>
       </c>
       <c r="L221" t="n">
-        <v>0.8469578449020012</v>
+        <v>0.8914971321498493</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1139602024189824</v>
+        <v>0.2502601365196018</v>
       </c>
       <c r="N221" t="n">
-        <v>1.212104210770896</v>
+        <v>1.274121499708496</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1088726536007053</v>
+        <v>0.249783264214528</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0972261529489343</v>
+        <v>0.1089855904876931</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1167674721784155</v>
+        <v>0.2495141687693226</v>
       </c>
       <c r="J222" t="n">
-        <v>0.4694356670116333</v>
+        <v>0.5150046227493643</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1164444938452181</v>
+        <v>0.2516224838578308</v>
       </c>
       <c r="L222" t="n">
-        <v>0.8423414476018245</v>
+        <v>0.8954373047976203</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1146907165370528</v>
+        <v>0.2518643681639581</v>
       </c>
       <c r="N222" t="n">
-        <v>1.203478382768369</v>
+        <v>1.263168887737713</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1095705552263509</v>
+        <v>0.251384438985134</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.09988857043304253</v>
+        <v>0.106759730448409</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1175112140394245</v>
+        <v>0.2511034309907832</v>
       </c>
       <c r="J223" t="n">
-        <v>0.4679023336352899</v>
+        <v>0.516173673671231</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1171861785193915</v>
+        <v>0.2532251748378169</v>
       </c>
       <c r="L223" t="n">
-        <v>0.8436341088047696</v>
+        <v>0.8875310020158982</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1154212306551232</v>
+        <v>0.2534685998083146</v>
       </c>
       <c r="N223" t="n">
-        <v>1.201016024596445</v>
+        <v>1.262098753134064</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1102684568519964</v>
+        <v>0.2529856137557399</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.09654719266239131</v>
+        <v>0.1032898459258376</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1182549559004335</v>
+        <v>0.2526926932122439</v>
       </c>
       <c r="J224" t="n">
-        <v>0.4660442773958074</v>
+        <v>0.5116374323261432</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1179278631935649</v>
+        <v>0.2548278658178031</v>
       </c>
       <c r="L224" t="n">
-        <v>0.8371361582142294</v>
+        <v>0.8910318811588422</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1161517447731936</v>
+        <v>0.255072831452671</v>
       </c>
       <c r="N224" t="n">
-        <v>1.202617302765394</v>
+        <v>1.267286284442194</v>
       </c>
       <c r="O224" t="n">
-        <v>0.110966358477642</v>
+        <v>0.2545867885263459</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1002020244895689</v>
+        <v>0.1076032828674235</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1189986977614425</v>
+        <v>0.2542819554337045</v>
       </c>
       <c r="J225" t="n">
-        <v>0.4629615864409476</v>
+        <v>0.5087269394903406</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1186695478677382</v>
+        <v>0.2564305567977893</v>
       </c>
       <c r="L225" t="n">
-        <v>0.8326479255335983</v>
+        <v>0.8846641589059849</v>
       </c>
       <c r="M225" t="n">
-        <v>0.116882258891264</v>
+        <v>0.2566770630970274</v>
       </c>
       <c r="N225" t="n">
-        <v>1.189282383785485</v>
+        <v>1.254452618244358</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1116642601032875</v>
+        <v>0.2561879632969518</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.09985307076716382</v>
+        <v>0.1037273872206111</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1197424396224515</v>
+        <v>0.2558712176551652</v>
       </c>
       <c r="J226" t="n">
-        <v>0.4599543489184729</v>
+        <v>0.5057733234382396</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1194112325419116</v>
+        <v>0.2580332477777755</v>
       </c>
       <c r="L226" t="n">
-        <v>0.8385697404662693</v>
+        <v>0.874055078348577</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1176127730093344</v>
+        <v>0.2582812947413839</v>
       </c>
       <c r="N226" t="n">
-        <v>1.188411434166988</v>
+        <v>1.24811889112281</v>
       </c>
       <c r="O226" t="n">
-        <v>0.112362161728933</v>
+        <v>0.2577891380675577</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0885003363477643</v>
+        <v>0.0976895049328452</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1204861814834605</v>
+        <v>0.2574604798766258</v>
       </c>
       <c r="J227" t="n">
-        <v>0.4563226529761454</v>
+        <v>0.5043077124442557</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1201529172160849</v>
+        <v>0.2596359387577617</v>
       </c>
       <c r="L227" t="n">
-        <v>0.8348019327156362</v>
+        <v>0.8713318825778711</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1183432871274048</v>
+        <v>0.2598855263857403</v>
       </c>
       <c r="N227" t="n">
-        <v>1.181504620420174</v>
+        <v>1.229706239659805</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1130600633545786</v>
+        <v>0.2593903128381637</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09914382608395875</v>
+        <v>0.09951698195157019</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1212299233444695</v>
+        <v>0.2590497420980865</v>
       </c>
       <c r="J228" t="n">
-        <v>0.4566665867617271</v>
+        <v>0.4990612347828052</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1208946018902583</v>
+        <v>0.2612386297377479</v>
       </c>
       <c r="L228" t="n">
-        <v>0.8304448319850926</v>
+        <v>0.8561218146851177</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1190738012454752</v>
+        <v>0.2614897580300967</v>
       </c>
       <c r="N228" t="n">
-        <v>1.176662109055311</v>
+        <v>1.222735800437598</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1137579649802241</v>
+        <v>0.2609914876087696</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09078354482833545</v>
+        <v>0.09623716422423068</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1219736652054785</v>
+        <v>0.2606390043195472</v>
       </c>
       <c r="J229" t="n">
-        <v>0.45088623842298</v>
+        <v>0.4905650187283041</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1216362865644317</v>
+        <v>0.262841320717734</v>
       </c>
       <c r="L229" t="n">
-        <v>0.8293987679780319</v>
+        <v>0.8488521177615691</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1198043153635456</v>
+        <v>0.2630939896744531</v>
       </c>
       <c r="N229" t="n">
-        <v>1.176484066582669</v>
+        <v>1.204228710038443</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1144558666058697</v>
+        <v>0.2625926623793756</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0984194974334828</v>
+        <v>0.09287739769827116</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1227174070664876</v>
+        <v>0.2622282665410078</v>
       </c>
       <c r="J230" t="n">
-        <v>0.4508816961076664</v>
+        <v>0.482450192555168</v>
       </c>
       <c r="K230" t="n">
-        <v>0.122377971238605</v>
+        <v>0.2644440116977202</v>
       </c>
       <c r="L230" t="n">
-        <v>0.8339640703978475</v>
+        <v>0.8352500348984759</v>
       </c>
       <c r="M230" t="n">
-        <v>0.120534829481616</v>
+        <v>0.2646982213188095</v>
       </c>
       <c r="N230" t="n">
-        <v>1.164270659512518</v>
+        <v>1.188806105044596</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1151537682315152</v>
+        <v>0.2641938371499815</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.09305168875198913</v>
+        <v>0.09246502832113623</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1234611489274966</v>
+        <v>0.2638175287624684</v>
       </c>
       <c r="J231" t="n">
-        <v>0.4489530479635485</v>
+        <v>0.4789478845378135</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1231196559127784</v>
+        <v>0.2660467026777064</v>
       </c>
       <c r="L231" t="n">
-        <v>0.8313410689479332</v>
+        <v>0.8271428091870907</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1212653435996864</v>
+        <v>0.266302452963166</v>
       </c>
       <c r="N231" t="n">
-        <v>1.163522054355127</v>
+        <v>1.17358912203831</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1158516698571608</v>
+        <v>0.2657950119205875</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.08968012363644284</v>
+        <v>0.09202740204027043</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1242048907885056</v>
+        <v>0.2654067909839291</v>
       </c>
       <c r="J232" t="n">
-        <v>0.4416003821383882</v>
+        <v>0.4708892229506562</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1238613405869518</v>
+        <v>0.2676493936576926</v>
       </c>
       <c r="L232" t="n">
-        <v>0.8319300933316824</v>
+        <v>0.8135576837186651</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1219958577177569</v>
+        <v>0.2679066846075224</v>
       </c>
       <c r="N232" t="n">
-        <v>1.159238417620767</v>
+        <v>1.153998897601842</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1165495714828063</v>
+        <v>0.2673961866911934</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09030480693943224</v>
+        <v>0.09059186480311834</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1249486326495146</v>
+        <v>0.2669960532053898</v>
       </c>
       <c r="J233" t="n">
-        <v>0.4429237867799475</v>
+        <v>0.4639053360681122</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1246030252611251</v>
+        <v>0.2692520846376787</v>
       </c>
       <c r="L233" t="n">
-        <v>0.829231473252489</v>
+        <v>0.8056219015844499</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1227263718358272</v>
+        <v>0.2695109162518788</v>
       </c>
       <c r="N233" t="n">
-        <v>1.156819915819706</v>
+        <v>1.136156568317445</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1172474731084519</v>
+        <v>0.2689973614617994</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0859257435135457</v>
+        <v>0.09618576255712452</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1256923745105236</v>
+        <v>0.2685853154268504</v>
       </c>
       <c r="J234" t="n">
-        <v>0.4369233500359891</v>
+        <v>0.4598273521645975</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1253447099352985</v>
+        <v>0.270854775617665</v>
       </c>
       <c r="L234" t="n">
-        <v>0.8287455384137465</v>
+        <v>0.7956627058756971</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1234568859538976</v>
+        <v>0.2711151478962353</v>
       </c>
       <c r="N234" t="n">
-        <v>1.153366715462215</v>
+        <v>1.129783270767374</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1179453747340974</v>
+        <v>0.2705985362324053</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.08654293821137155</v>
+        <v>0.09183644124973347</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1264361163715327</v>
+        <v>0.2701745776483111</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4341991600542747</v>
+        <v>0.4500863995145279</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1260863946094719</v>
+        <v>0.2724574665976512</v>
       </c>
       <c r="L235" t="n">
-        <v>0.8208726185188477</v>
+        <v>0.7785073396836584</v>
       </c>
       <c r="M235" t="n">
-        <v>0.124187400071968</v>
+        <v>0.2727193795405917</v>
       </c>
       <c r="N235" t="n">
-        <v>1.140578983058563</v>
+        <v>1.103600141533885</v>
       </c>
       <c r="O235" t="n">
-        <v>0.118643276359743</v>
+        <v>0.2721997110030113</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09515639588549818</v>
+        <v>0.08557124682838976</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1271798582325417</v>
+        <v>0.2717638398697718</v>
       </c>
       <c r="J236" t="n">
-        <v>0.4329513049825662</v>
+        <v>0.4435136063923198</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1268280792836452</v>
+        <v>0.2740601575776374</v>
       </c>
       <c r="L236" t="n">
-        <v>0.823613043271187</v>
+        <v>0.7664830460995848</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1249179141900384</v>
+        <v>0.2743236111849481</v>
       </c>
       <c r="N236" t="n">
-        <v>1.13955688511902</v>
+        <v>1.092028317199231</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1193411779853885</v>
+        <v>0.2738008857736172</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09476612138851387</v>
+        <v>0.08541172386699769</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1279236000935507</v>
+        <v>0.2733531020912324</v>
       </c>
       <c r="J237" t="n">
-        <v>0.4320798729686262</v>
+        <v>0.4376388742926017</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1275697639578186</v>
+        <v>0.2756628485576235</v>
       </c>
       <c r="L237" t="n">
-        <v>0.8224671423741579</v>
+        <v>0.7616163579411969</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1256484283081089</v>
+        <v>0.2759278428293045</v>
       </c>
       <c r="N237" t="n">
-        <v>1.141900588153855</v>
+        <v>1.080482900025448</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1200390796110341</v>
+        <v>0.2754020605442232</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09537211957300706</v>
+        <v>0.08828044677712668</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1286673419545597</v>
+        <v>0.274942364312693</v>
       </c>
       <c r="J238" t="n">
-        <v>0.4281849521602168</v>
+        <v>0.4354091001302859</v>
       </c>
       <c r="K238" t="n">
-        <v>0.128311448631992</v>
+        <v>0.2772655395376097</v>
       </c>
       <c r="L238" t="n">
-        <v>0.8193352455311533</v>
+        <v>0.7490985448133146</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1263789424261793</v>
+        <v>0.2775320744736609</v>
       </c>
       <c r="N238" t="n">
-        <v>1.125410258673338</v>
+        <v>1.065004205534017</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1207369812366796</v>
+        <v>0.2770032353148291</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08997439529156603</v>
+        <v>0.08814500069307693</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1294110838155687</v>
+        <v>0.2765316265341537</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4244666307050997</v>
+        <v>0.4292595701386685</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1290531333061653</v>
+        <v>0.2788682305175958</v>
       </c>
       <c r="L239" t="n">
-        <v>0.8145176824455675</v>
+        <v>0.7424465414882651</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1271094565442497</v>
+        <v>0.2791363061180173</v>
       </c>
       <c r="N239" t="n">
-        <v>1.123786063187739</v>
+        <v>1.05457706395271</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1214348828623251</v>
+        <v>0.2786044100854351</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.09457295339677915</v>
+        <v>0.08300532083128481</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1301548256765777</v>
+        <v>0.2781208887556144</v>
       </c>
       <c r="J240" t="n">
-        <v>0.4196249967510372</v>
+        <v>0.4264899736700047</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1297948179803387</v>
+        <v>0.280470921497582</v>
       </c>
       <c r="L240" t="n">
-        <v>0.8132147828207938</v>
+        <v>0.7308598096187375</v>
       </c>
       <c r="M240" t="n">
-        <v>0.12783997066232</v>
+        <v>0.2807405377623738</v>
       </c>
       <c r="N240" t="n">
-        <v>1.126228168207327</v>
+        <v>1.040700714497054</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1221327844879707</v>
+        <v>0.280205584856041</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.08916779874123482</v>
+        <v>0.08686134240818671</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1308985675375867</v>
+        <v>0.279710150977075</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4201601384457916</v>
+        <v>0.4162000000765493</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1305365026545121</v>
+        <v>0.2820736124775682</v>
       </c>
       <c r="L241" t="n">
-        <v>0.8139268763602254</v>
+        <v>0.7269378108574222</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1285704847803904</v>
+        <v>0.2823447694067302</v>
       </c>
       <c r="N241" t="n">
-        <v>1.112236740242373</v>
+        <v>1.033074396382578</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1228306861136162</v>
+        <v>0.281806759626647</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.08975893617752131</v>
+        <v>0.08871300064021909</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1316423093985958</v>
+        <v>0.2812994131985357</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4175721439371249</v>
+        <v>0.4149893387105582</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1312781873286854</v>
+        <v>0.2836763034575545</v>
       </c>
       <c r="L242" t="n">
-        <v>0.8167542927672564</v>
+        <v>0.7139800068570089</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1293009988984608</v>
+        <v>0.2839490010510866</v>
       </c>
       <c r="N242" t="n">
-        <v>1.109611945803145</v>
+        <v>1.012697348824809</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1235285877392618</v>
+        <v>0.2834079343972529</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08334637055822702</v>
+        <v>0.08656023074381836</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1323860512596048</v>
+        <v>0.2828886754199963</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4136611013727992</v>
+        <v>0.407557678924286</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1320198720028588</v>
+        <v>0.2852789944375406</v>
       </c>
       <c r="L243" t="n">
-        <v>0.8102973617452798</v>
+        <v>0.7009858592701873</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1300315130165312</v>
+        <v>0.285553232695443</v>
       </c>
       <c r="N243" t="n">
-        <v>1.111253951399913</v>
+        <v>0.9989688110392761</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1242264893649073</v>
+        <v>0.2850091091678589</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.08593010673594031</v>
+        <v>0.07940296793542095</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1331297931206138</v>
+        <v>0.284477937641457</v>
       </c>
       <c r="J244" t="n">
-        <v>0.4119270989005766</v>
+        <v>0.3999047100699883</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1327615566770322</v>
+        <v>0.2868816854175268</v>
       </c>
       <c r="L244" t="n">
-        <v>0.8088564129976898</v>
+        <v>0.6968548297496474</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1307620271346016</v>
+        <v>0.2871574643397994</v>
       </c>
       <c r="N244" t="n">
-        <v>1.098362923542948</v>
+        <v>0.9915880222415058</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1249243909905529</v>
+        <v>0.2866102839384648</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.08451014956324951</v>
+        <v>0.08324114743146324</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1338735349816228</v>
+        <v>0.2860671998629176</v>
       </c>
       <c r="J245" t="n">
-        <v>0.4049702246682191</v>
+        <v>0.3947301214999202</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1335032413512055</v>
+        <v>0.288484376397513</v>
       </c>
       <c r="L245" t="n">
-        <v>0.8077317762278793</v>
+        <v>0.687286379948079</v>
       </c>
       <c r="M245" t="n">
-        <v>0.131492541252672</v>
+        <v>0.2887616959841559</v>
       </c>
       <c r="N245" t="n">
-        <v>1.094839028742518</v>
+        <v>0.9732542216470256</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1256222926161984</v>
+        <v>0.2882114587090708</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.08308650389274297</v>
+        <v>0.07507470444838177</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1346172768426318</v>
+        <v>0.2876564620843783</v>
       </c>
       <c r="J246" t="n">
-        <v>0.4049905668234892</v>
+        <v>0.3891336025663365</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1342449260253789</v>
+        <v>0.2900870673774992</v>
       </c>
       <c r="L246" t="n">
-        <v>0.8110237811392422</v>
+        <v>0.6749799715181718</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1322230553707424</v>
+        <v>0.2903659276285123</v>
       </c>
       <c r="N246" t="n">
-        <v>1.089682433508894</v>
+        <v>0.9561666484713641</v>
       </c>
       <c r="O246" t="n">
-        <v>0.126320194241844</v>
+        <v>0.2898126334796767</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.08665917457700908</v>
+        <v>0.08090357420261279</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1353610187036408</v>
+        <v>0.2892457243058389</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4013882135141488</v>
+        <v>0.3840148426214933</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1349866106995522</v>
+        <v>0.2916897583574853</v>
       </c>
       <c r="L247" t="n">
-        <v>0.8056327574351723</v>
+        <v>0.6635350661126163</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1329535694888128</v>
+        <v>0.2919701592728687</v>
       </c>
       <c r="N247" t="n">
-        <v>1.079993304352345</v>
+        <v>0.9418245419300494</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1270180958674895</v>
+        <v>0.2914138082502826</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08422816646863612</v>
+        <v>0.07972769191059279</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1361047605646498</v>
+        <v>0.2908349865272996</v>
       </c>
       <c r="J248" t="n">
-        <v>0.3997632528879598</v>
+        <v>0.3821735310176451</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1357282953737256</v>
+        <v>0.2932924493374715</v>
       </c>
       <c r="L248" t="n">
-        <v>0.8087590348190625</v>
+        <v>0.6544511253841016</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1336840836068832</v>
+        <v>0.2935743909172251</v>
       </c>
       <c r="N248" t="n">
-        <v>1.07277180778314</v>
+        <v>0.9285271412386084</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1277159974931351</v>
+        <v>0.2930149830208886</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0807934844202125</v>
+        <v>0.07554699278875826</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1368485024256589</v>
+        <v>0.2924242487487603</v>
       </c>
       <c r="J249" t="n">
-        <v>0.3936157730926848</v>
+        <v>0.3722093571070473</v>
       </c>
       <c r="K249" t="n">
-        <v>0.136469980047899</v>
+        <v>0.2948951403174577</v>
       </c>
       <c r="L249" t="n">
-        <v>0.8029029429943071</v>
+        <v>0.6463276109853177</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1344145977249536</v>
+        <v>0.2951786225615816</v>
       </c>
       <c r="N249" t="n">
-        <v>1.07221811031155</v>
+        <v>0.9251736856125689</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1284138991187806</v>
+        <v>0.2946161577914945</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08235513328432653</v>
+        <v>0.07736141205354558</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1375922442866679</v>
+        <v>0.2940135109702209</v>
       </c>
       <c r="J250" t="n">
-        <v>0.3932458622760854</v>
+        <v>0.3700220102419554</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1372116647220723</v>
+        <v>0.2964978312974439</v>
       </c>
       <c r="L250" t="n">
-        <v>0.8092648116642986</v>
+        <v>0.6383639845689546</v>
       </c>
       <c r="M250" t="n">
-        <v>0.135145111843024</v>
+        <v>0.296782854205938</v>
       </c>
       <c r="N250" t="n">
-        <v>1.073832378447844</v>
+        <v>0.9127634142674589</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1291118007444262</v>
+        <v>0.2962173325621005</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.08991311791356663</v>
+        <v>0.07017088492139112</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1383359861476769</v>
+        <v>0.2956027731916815</v>
       </c>
       <c r="J251" t="n">
-        <v>0.3882536085859241</v>
+        <v>0.3632111797746239</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1379533493962457</v>
+        <v>0.2981005222774301</v>
       </c>
       <c r="L251" t="n">
-        <v>0.8028449705324321</v>
+        <v>0.6243597077877023</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1358756259610944</v>
+        <v>0.2983870858502944</v>
       </c>
       <c r="N251" t="n">
-        <v>1.064814778702291</v>
+        <v>0.8974955664188063</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1298097023700717</v>
+        <v>0.2978185073327064</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.08946744316052108</v>
+        <v>0.06797534660873134</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1390797280086859</v>
+        <v>0.2971920354131422</v>
       </c>
       <c r="J252" t="n">
-        <v>0.3844391001699626</v>
+        <v>0.3597765550573089</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1386950340704191</v>
+        <v>0.2997032132574163</v>
       </c>
       <c r="L252" t="n">
-        <v>0.8076437493020996</v>
+        <v>0.6140142422942508</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1366061400791648</v>
+        <v>0.2999913174946508</v>
       </c>
       <c r="N252" t="n">
-        <v>1.051065477585162</v>
+        <v>0.8841693812821393</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1305076039957173</v>
+        <v>0.2994196821033124</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.08801811387777828</v>
+        <v>0.06877473233200265</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1398234698696949</v>
+        <v>0.2987812976346029</v>
       </c>
       <c r="J253" t="n">
-        <v>0.3826024251759635</v>
+        <v>0.3506178254422651</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1394367187445924</v>
+        <v>0.3013059042374024</v>
       </c>
       <c r="L253" t="n">
-        <v>0.8040614776766959</v>
+        <v>0.6056270497412893</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1373366541972352</v>
+        <v>0.3015955491390072</v>
       </c>
       <c r="N253" t="n">
-        <v>1.049984641606726</v>
+        <v>0.8669840980729849</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1312055056213628</v>
+        <v>0.3010208568739183</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.07856513491792658</v>
+        <v>0.0725689773076415</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1405672117307039</v>
+        <v>0.3003705598560635</v>
       </c>
       <c r="J254" t="n">
-        <v>0.3771436717516889</v>
+        <v>0.3488346802817477</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1401784034187658</v>
+        <v>0.3029085952173886</v>
       </c>
       <c r="L254" t="n">
-        <v>0.8027984853596135</v>
+        <v>0.5952975917815083</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1380671683153056</v>
+        <v>0.3031997807833637</v>
       </c>
       <c r="N254" t="n">
-        <v>1.048672437277252</v>
+        <v>0.8563389560068712</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1319034072470084</v>
+        <v>0.3026220316445243</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.08810851113355425</v>
+        <v>0.06935801675208431</v>
       </c>
       <c r="G255" t="n">
-        <v>0.141310953591713</v>
+        <v>0.3019598220775242</v>
       </c>
       <c r="J255" t="n">
-        <v>0.3740629280449005</v>
+        <v>0.3415268089280122</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1409200880929392</v>
+        <v>0.3045112861973748</v>
       </c>
       <c r="L255" t="n">
-        <v>0.7985551020542467</v>
+        <v>0.5891253300675973</v>
       </c>
       <c r="M255" t="n">
-        <v>0.138797682433376</v>
+        <v>0.3048040124277201</v>
       </c>
       <c r="N255" t="n">
-        <v>1.046929031107011</v>
+        <v>0.8327331942993256</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1326013088726539</v>
+        <v>0.3042232064151302</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.07864824737724976</v>
+        <v>0.06714178588176742</v>
       </c>
       <c r="G256" t="n">
-        <v>0.142054695452722</v>
+        <v>0.3035490842989848</v>
       </c>
       <c r="J256" t="n">
-        <v>0.3712602822033608</v>
+        <v>0.3376939007333135</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1416617727671125</v>
+        <v>0.306113977177361</v>
       </c>
       <c r="L256" t="n">
-        <v>0.8026316574639889</v>
+        <v>0.5755097262522462</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1395281965514464</v>
+        <v>0.3064082440720765</v>
       </c>
       <c r="N256" t="n">
-        <v>1.037054589606271</v>
+        <v>0.8247660521658765</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1332992104982995</v>
+        <v>0.3058243811857362</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.08118434850160131</v>
+        <v>0.06792021991312738</v>
       </c>
       <c r="G257" t="n">
-        <v>0.142798437313731</v>
+        <v>0.3051383465204455</v>
       </c>
       <c r="J257" t="n">
-        <v>0.3699358223748317</v>
+        <v>0.326835645049907</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1424034574412859</v>
+        <v>0.3077166681573472</v>
       </c>
       <c r="L257" t="n">
-        <v>0.8017284812922334</v>
+        <v>0.569950241988145</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1402587106695169</v>
+        <v>0.3080124757164329</v>
       </c>
       <c r="N257" t="n">
-        <v>1.034749279285303</v>
+        <v>0.8038367688220512</v>
       </c>
       <c r="O257" t="n">
-        <v>0.133997112123945</v>
+        <v>0.3074255559563421</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.08471681935919745</v>
+        <v>0.06769325406260054</v>
       </c>
       <c r="G258" t="n">
-        <v>0.14354217917474</v>
+        <v>0.3067276087419061</v>
       </c>
       <c r="J258" t="n">
-        <v>0.3677896367070754</v>
+        <v>0.3248517312300479</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1431451421154593</v>
+        <v>0.3093193591373334</v>
       </c>
       <c r="L258" t="n">
-        <v>0.8018459032423739</v>
+        <v>0.5612463389279837</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1409892247875872</v>
+        <v>0.3096167073607893</v>
       </c>
       <c r="N258" t="n">
-        <v>1.018513266654377</v>
+        <v>0.7960445834833781</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1346950137495905</v>
+        <v>0.3090267307269481</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.08024566480262635</v>
+        <v>0.05946082354662331</v>
       </c>
       <c r="G259" t="n">
-        <v>0.144285921035749</v>
+        <v>0.3083168709633667</v>
       </c>
       <c r="J259" t="n">
-        <v>0.364121813347854</v>
+        <v>0.3197418486259914</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1438868267896326</v>
+        <v>0.3109220501173195</v>
       </c>
       <c r="L259" t="n">
-        <v>0.7958842530178041</v>
+        <v>0.5499974787244516</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1417197389056576</v>
+        <v>0.3112209390051457</v>
       </c>
       <c r="N259" t="n">
-        <v>1.018246718223762</v>
+        <v>0.7862887353653841</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1353929153752361</v>
+        <v>0.310627905497554</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.07977088968447646</v>
+        <v>0.0602228635816321</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1450296628967581</v>
+        <v>0.3099061331848274</v>
       </c>
       <c r="J260" t="n">
-        <v>0.3594324404449299</v>
+        <v>0.3129056865899927</v>
       </c>
       <c r="K260" t="n">
-        <v>0.144628511463806</v>
+        <v>0.3125247410973057</v>
       </c>
       <c r="L260" t="n">
-        <v>0.7969438603219172</v>
+        <v>0.5382031230302391</v>
       </c>
       <c r="M260" t="n">
-        <v>0.142450253023728</v>
+        <v>0.3128251706495022</v>
       </c>
       <c r="N260" t="n">
-        <v>1.014849800503727</v>
+        <v>0.7625684636835975</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1360908170008816</v>
+        <v>0.31222908026816</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.07529249885733613</v>
+        <v>0.05697930938406339</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1457734047577671</v>
+        <v>0.3114953954062881</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3569216061460646</v>
+        <v>0.3040429344743069</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1453701961379793</v>
+        <v>0.3141274320772919</v>
       </c>
       <c r="L261" t="n">
-        <v>0.7933250548581068</v>
+        <v>0.5313627334980359</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1431807671417984</v>
+        <v>0.3144294022938586</v>
       </c>
       <c r="N261" t="n">
-        <v>1.006522680004542</v>
+        <v>0.7546830076535461</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1367887186265272</v>
+        <v>0.3138302550387659</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.08281049717379368</v>
+        <v>0.06073009617035353</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1465171466187761</v>
+        <v>0.3130846576277487</v>
       </c>
       <c r="J262" t="n">
-        <v>0.3560893985990208</v>
+        <v>0.3011532816311895</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1461118808121527</v>
+        <v>0.3157301230572781</v>
       </c>
       <c r="L262" t="n">
-        <v>0.7956281663297671</v>
+        <v>0.5176757717805317</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1439112812598689</v>
+        <v>0.316033633938215</v>
       </c>
       <c r="N262" t="n">
-        <v>0.9978655232364774</v>
+        <v>0.7423316064907576</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1374866202521727</v>
+        <v>0.3154314298093719</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.08432488948643746</v>
+        <v>0.062475159156939</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1472608884797851</v>
+        <v>0.3146739198492094</v>
       </c>
       <c r="J263" t="n">
-        <v>0.3528359059515602</v>
+        <v>0.2922364174128955</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1468535654863261</v>
+        <v>0.3173328140372643</v>
       </c>
       <c r="L263" t="n">
-        <v>0.799153524440291</v>
+        <v>0.5127416995304166</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1446417953779393</v>
+        <v>0.3176378655825715</v>
       </c>
       <c r="N263" t="n">
-        <v>1.001578496709802</v>
+        <v>0.7214134994107598</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1381845218778183</v>
+        <v>0.3170326045799778</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.07583568064785584</v>
+        <v>0.05521443356025619</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1480046303407941</v>
+        <v>0.31626318207067</v>
       </c>
       <c r="J264" t="n">
-        <v>0.3455612163514453</v>
+        <v>0.2878920311716802</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1475952501604994</v>
+        <v>0.3189355050172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.7950014588930721</v>
+        <v>0.4967599784003803</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1453723094960097</v>
+        <v>0.3192420972269279</v>
       </c>
       <c r="N264" t="n">
-        <v>0.9829617669347864</v>
+        <v>0.7123279256290805</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1388824235034638</v>
+        <v>0.3186337793505838</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1381.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1381.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3439409710094927</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04447535090220852</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04447535090220852</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07116056144353364</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1853499421367827</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05603894213678274</v>
+        <v>0.2620176825542067</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001400973553419569</v>
+        <v>0.006550442063855167</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,10 +9250,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.02668521054132512</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0004669911844731896</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.05603894213678274</v>
+        <v>0.02894822311326492</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001400973553419569</v>
+        <v>0.0004699034551904562</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.07758660000000001</v>
+        <v>0.02894822311326492</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0013577655</v>
+        <v>0.0004699034551904562</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.1375866</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001459962903225807</v>
+        <v>0.001318218932038835</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.1975866000000001</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001257190277777778</v>
+        <v>0.001444431382978724</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.05578165692012457</v>
+        <v>0.05635434846305834</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003178524442921307</v>
+        <v>0.0009398069103809123</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.2155415306225707</v>
+        <v>0.05635434846305834</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003205381959972367</v>
+        <v>0.0009398069103809123</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.3536573533185665</v>
+        <v>0.1901666632270852</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003208463288712843</v>
+        <v>0.001993486961961732</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.6435128135733024</v>
+        <v>0.2477036775989027</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003771570833333335</v>
+        <v>0.001998747091501534</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.06038628393527807</v>
+        <v>0.07758660000000001</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00476778666438196</v>
+        <v>0.0013577655</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.2620176825542067</v>
+        <v>0.07758660000000001</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.0040732965</v>
+        <v>0.0013577655</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.4527652480637545</v>
+        <v>0.2682831220565021</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004379888709677419</v>
+        <v>0.002990230442942598</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.6958891902753112</v>
+        <v>0.3577936708330405</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004803524311817846</v>
+        <v>0.002998120637252301</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07595955949586353</v>
+        <v>0.101819527165847</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006357048885842614</v>
+        <v>0.001879613820761825</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.3053586499056132</v>
+        <v>0.101819527165847</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006410763919944733</v>
+        <v>0.001879613820761825</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.5133944550363193</v>
+        <v>0.3386134963985747</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006416926577425686</v>
+        <v>0.003986973923923463</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.7618053292162917</v>
+        <v>0.4445672228666772</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006404699082423795</v>
+        <v>0.003997494183003068</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0004669911844731896</v>
+        <v>0.0013577655</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02668521054132512</v>
+        <v>0.07758660000000001</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.07461007032876424</v>
+        <v>0.1238221307842921</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007946311107303266</v>
+        <v>0.002349517275952281</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.3324048679866796</v>
+        <v>0.1238221307842921</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008013454899930916</v>
+        <v>0.002349517275952281</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.5644423718077031</v>
+        <v>0.3943905111697071</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008021158221782107</v>
+        <v>0.004983717404904329</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.8327117631167521</v>
+        <v>0.5343085984834213</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008005873853029742</v>
+        <v>0.004996867728753835</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0854464031608636</v>
+        <v>0.1455778803716417</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009535573328763921</v>
+        <v>0.002819420731142737</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.353483388821832</v>
+        <v>0.1455778803716417</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009616145879917099</v>
+        <v>0.002819420731142737</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.6013422325886932</v>
+        <v>0.4527652480637545</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009625389866138529</v>
+        <v>0.006197070704839203</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.8883061641751938</v>
+        <v>0.600302062466881</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009607048623635692</v>
+        <v>0.005996241274504602</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.07957714471904506</v>
+        <v>0.1666825156042232</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01112483555022457</v>
+        <v>0.003289324186333193</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.3753002591998354</v>
+        <v>0.1666825156042232</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01121883685990328</v>
+        <v>0.003289324186333193</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.637380932249431</v>
+        <v>0.4724671941329339</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01122962151049495</v>
+        <v>0.006977204366866061</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.9313862045901183</v>
+        <v>0.6435128135733024</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01120822339424164</v>
+        <v>0.0067204535940495</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.08711088173019182</v>
+        <v>0.1867317761583639</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01271409777168523</v>
+        <v>0.003759227641523649</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.3909615259094545</v>
+        <v>0.1867317761583639</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01282152783988947</v>
+        <v>0.003759227641523649</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.6732453656600575</v>
+        <v>0.5034068624422107</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01283385315485137</v>
+        <v>0.007973947847846927</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.973349556560028</v>
+        <v>0.6862798418869017</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01280939816484759</v>
+        <v>0.007994988366006137</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.08615620092118734</v>
+        <v>0.205321401710391</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01430335999314588</v>
+        <v>0.004229131096714106</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.4069732357394542</v>
+        <v>0.205321401710391</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01442421881987565</v>
+        <v>0.004229131096714106</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.6932224276907141</v>
+        <v>0.532459876442962</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01443808479920779</v>
+        <v>0.008970691328827794</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>1.000793892283425</v>
+        <v>0.7343876072007226</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01441057293545354</v>
+        <v>0.008994361911756904</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08782168901891502</v>
+        <v>0.2220471319366318</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01589262221460653</v>
+        <v>0.004699034551904561</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.4209414354785995</v>
+        <v>0.2220471319366318</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01602690979986183</v>
+        <v>0.004699034551904561</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.7214990132115413</v>
+        <v>0.5630961321094461</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01604231644356421</v>
+        <v>0.009967434809808658</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>1.030616883958811</v>
+        <v>0.7702870614425831</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01601174770605948</v>
+        <v>0.009993735457507669</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.09421593275025814</v>
+        <v>0.2365047065134135</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01748188443606719</v>
+        <v>0.005168938007095018</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.4323721719156551</v>
+        <v>0.2365047065134135</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01762960077984801</v>
+        <v>0.005168938007095018</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.7378620170926807</v>
+        <v>0.5907855254159219</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01764654808792064</v>
+        <v>0.01096417829078953</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>1.063316203784687</v>
+        <v>0.8107230229027506</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01761292247666544</v>
+        <v>0.01099310900325844</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.08744751884210011</v>
+        <v>0.2482898651170635</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01907114665752784</v>
+        <v>0.005638841462285474</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4414714918393862</v>
+        <v>0.2482898651170635</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0192322917598342</v>
+        <v>0.005638841462285474</v>
       </c>
       <c r="L77" t="n">
-        <v>0.754898334204273</v>
+        <v>0.6194979523366481</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01925077973227706</v>
+        <v>0.01196092177177039</v>
       </c>
       <c r="N77" t="n">
-        <v>1.085489523959557</v>
+        <v>0.8507403098714929</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01921409724727138</v>
+        <v>0.0119924825490092</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0926250340213243</v>
+        <v>0.2569983474239089</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02066040887898849</v>
+        <v>0.00610874491747593</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4446454420385571</v>
+        <v>0.2569983474239089</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02083498273982038</v>
+        <v>0.00610874491747593</v>
       </c>
       <c r="L78" t="n">
-        <v>0.7738948594164601</v>
+        <v>0.6465033088458824</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02085501137663348</v>
+        <v>0.01295766525275126</v>
       </c>
       <c r="N78" t="n">
-        <v>1.105934516681921</v>
+        <v>0.8914837406390782</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02081527201787733</v>
+        <v>0.01299185609475997</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.08885706501481405</v>
+        <v>0.2620176825542067</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02224967110044915</v>
+        <v>0.006550442063855167</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4564000693019333</v>
+        <v>0.2620176825542067</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02243767371980657</v>
+        <v>0.006550442063855167</v>
       </c>
       <c r="L79" t="n">
-        <v>0.7865384875993819</v>
+        <v>0.6695714909178843</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0224592430209899</v>
+        <v>0.01395440873373212</v>
       </c>
       <c r="N79" t="n">
-        <v>1.123648854150282</v>
+        <v>0.9280981334957737</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02241644678848329</v>
+        <v>0.01399122964051074</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.09915902182794331</v>
+        <v>0.2657840807581467</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0238389333219098</v>
+        <v>0.007048551827856842</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4614414204182792</v>
+        <v>0.2657840807581467</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02404036469979275</v>
+        <v>0.007048551827856842</v>
       </c>
       <c r="L80" t="n">
-        <v>0.7971161136231806</v>
+        <v>0.6902723945269118</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02406347466534632</v>
+        <v>0.01495115221471299</v>
       </c>
       <c r="N80" t="n">
-        <v>1.130630208563141</v>
+        <v>0.9637283067318482</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02401762155908923</v>
+        <v>0.01499060318626151</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.09642727238631144</v>
+        <v>0.2692759145613194</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02542819554337046</v>
+        <v>0.007518455283047299</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4691717421429629</v>
+        <v>0.2692759145613194</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02564305567977893</v>
+        <v>0.007518455283047299</v>
       </c>
       <c r="L81" t="n">
-        <v>0.8072160462968734</v>
+        <v>0.7145759156472236</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02566770630970274</v>
+        <v>0.01594789569569385</v>
       </c>
       <c r="N81" t="n">
-        <v>1.147120064091564</v>
+        <v>0.9929190786375687</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02561879632969518</v>
+        <v>0.01598997673201227</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1016524793659823</v>
+        <v>0.272708675080188</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02701745776483111</v>
+        <v>0.007988358738237755</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4740459054369701</v>
+        <v>0.272708675080188</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02724574665976512</v>
+        <v>0.007988358738237755</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8156712755903559</v>
+        <v>0.7368519502530781</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02727193795405916</v>
+        <v>0.01694463917667472</v>
       </c>
       <c r="N82" t="n">
-        <v>1.160152770124634</v>
+        <v>1.023915267503203</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02721997110030113</v>
+        <v>0.01698935027776304</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1028266206171865</v>
+        <v>0.2760827806207923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02860671998629176</v>
+        <v>0.008458262193428212</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4787359132535838</v>
+        <v>0.2760827806207923</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0288484376397513</v>
+        <v>0.008458262193428212</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8285193250448533</v>
+        <v>0.7557703943187341</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02887616959841559</v>
+        <v>0.01794138265765559</v>
       </c>
       <c r="N83" t="n">
-        <v>1.179017811482127</v>
+        <v>1.05776169161902</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02882114587090708</v>
+        <v>0.01798872382351381</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.09594167399015477</v>
+        <v>0.2793986494891718</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03019598220775241</v>
+        <v>0.008928165648618668</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4850032980773345</v>
+        <v>0.2793986494891718</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03045112861973748</v>
+        <v>0.008928165648618668</v>
       </c>
       <c r="L84" t="n">
-        <v>0.8372935311038812</v>
+        <v>0.7738011438184498</v>
       </c>
       <c r="M84" t="n">
-        <v>0.030480401242772</v>
+        <v>0.01893812613863645</v>
       </c>
       <c r="N84" t="n">
-        <v>1.192220980210033</v>
+        <v>1.079703169275286</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03042232064151303</v>
+        <v>0.01898809736926457</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.09898961733511771</v>
+        <v>0.2826566999913664</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03178524442921307</v>
+        <v>0.009398069103809123</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4919095923927522</v>
+        <v>0.2826566999913664</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03205381959972366</v>
+        <v>0.009398069103809123</v>
       </c>
       <c r="L85" t="n">
-        <v>0.8460272302109562</v>
+        <v>0.7944140947264842</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03208463288712843</v>
+        <v>0.01993486961961732</v>
       </c>
       <c r="N85" t="n">
-        <v>1.209668068354337</v>
+        <v>1.109284518762269</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03202349541211897</v>
+        <v>0.01998747091501534</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1019624285023061</v>
+        <v>0.2858573504334158</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03337450665067372</v>
+        <v>0.00986797255899958</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4928163286843674</v>
+        <v>0.2858573504334158</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03365651057970984</v>
+        <v>0.00986797255899958</v>
       </c>
       <c r="L86" t="n">
-        <v>0.8503537588095953</v>
+        <v>0.8062791430170955</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03368886453148485</v>
+        <v>0.02093161310059818</v>
       </c>
       <c r="N86" t="n">
-        <v>1.223464867961031</v>
+        <v>1.132750558370238</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03362467018272492</v>
+        <v>0.02098684446076611</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1058520853419506</v>
+        <v>0.2890010191213597</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03496376887213438</v>
+        <v>0.01033787601419004</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5007850394367099</v>
+        <v>0.2890010191213597</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03525920155969603</v>
+        <v>0.01033787601419004</v>
       </c>
       <c r="L87" t="n">
-        <v>0.8586064533433149</v>
+        <v>0.8227661846645418</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03529309617584128</v>
+        <v>0.02192835658157905</v>
       </c>
       <c r="N87" t="n">
-        <v>1.227617171076102</v>
+        <v>1.15884610638946</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03522584495333087</v>
+        <v>0.02198621800651687</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.09965056570428177</v>
+        <v>0.292088124361238</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03655303109359503</v>
+        <v>0.01080777946938049</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5028772571343105</v>
+        <v>0.292088124361238</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03686189253968222</v>
+        <v>0.01080777946938049</v>
       </c>
       <c r="L88" t="n">
-        <v>0.8679186502556313</v>
+        <v>0.8421451156430826</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0368973278201977</v>
+        <v>0.02292510006255992</v>
       </c>
       <c r="N88" t="n">
-        <v>1.244330769745539</v>
+        <v>1.178615981110203</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03682701972393682</v>
+        <v>0.02298559155226764</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1073498474395304</v>
+        <v>0.2951190844590904</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03814229331505568</v>
+        <v>0.01127768292457095</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5094545142616993</v>
+        <v>0.2951190844590904</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0384645835196684</v>
+        <v>0.01127768292457095</v>
       </c>
       <c r="L89" t="n">
-        <v>0.8768236859900611</v>
+        <v>0.854085831926976</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03850155946455412</v>
+        <v>0.02392184354354078</v>
       </c>
       <c r="N89" t="n">
-        <v>1.25271145601533</v>
+        <v>1.196705000822735</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03842819449454277</v>
+        <v>0.02398496509801841</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1079419083979271</v>
+        <v>0.2980943177209565</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03973155553651633</v>
+        <v>0.01174758637976141</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5104783433034064</v>
+        <v>0.2980943177209565</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04006727449965458</v>
+        <v>0.01174758637976141</v>
       </c>
       <c r="L90" t="n">
-        <v>0.8850548969901211</v>
+        <v>0.8605582294904803</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04010579110891054</v>
+        <v>0.02491858702452165</v>
       </c>
       <c r="N90" t="n">
-        <v>1.263865021931464</v>
+        <v>1.210057983817324</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04002936926514872</v>
+        <v>0.02498433864376917</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1074187264297027</v>
+        <v>0.301014242452876</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04132081775797699</v>
+        <v>0.01221748983495186</v>
       </c>
       <c r="J91" t="n">
-        <v>0.5154102767439621</v>
+        <v>0.301014242452876</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04166996547964077</v>
+        <v>0.01221748983495186</v>
       </c>
       <c r="L91" t="n">
-        <v>0.8882456196993276</v>
+        <v>0.8729322043078545</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04171002275326696</v>
+        <v>0.02591533050550252</v>
       </c>
       <c r="N91" t="n">
-        <v>1.272097259539929</v>
+        <v>1.226119748384237</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04163054403575467</v>
+        <v>0.02598371218951994</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1067722793850877</v>
+        <v>0.3038792769608889</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04291007997943765</v>
+        <v>0.01268739329014232</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5168118470678968</v>
+        <v>0.3038792769608889</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04327265645962695</v>
+        <v>0.01268739329014232</v>
       </c>
       <c r="L92" t="n">
-        <v>0.891829190561197</v>
+        <v>0.8841776523533567</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04331425439762338</v>
+        <v>0.02691207398648338</v>
       </c>
       <c r="N92" t="n">
-        <v>1.273913960886714</v>
+        <v>1.242135112813742</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04323171880636062</v>
+        <v>0.02698308573527071</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1120778842735655</v>
+        <v>0.3066898395510348</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0444993422008983</v>
+        <v>0.01315729674533277</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5209445867597409</v>
+        <v>0.3066898395510348</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04487534743961313</v>
+        <v>0.01315729674533277</v>
       </c>
       <c r="L93" t="n">
-        <v>0.8962389460192461</v>
+        <v>0.8908644696012455</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0449184860419798</v>
+        <v>0.02790881746746424</v>
       </c>
       <c r="N93" t="n">
-        <v>1.274520918017808</v>
+        <v>1.255548895396107</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04483289357696657</v>
+        <v>0.02798245928102147</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1080775014676089</v>
+        <v>0.3094463485293534</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04608860442235895</v>
+        <v>0.01362720020052323</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5228700283040242</v>
+        <v>0.3094463485293534</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04647803841959931</v>
+        <v>0.01362720020052323</v>
       </c>
       <c r="L94" t="n">
-        <v>0.896908222516992</v>
+        <v>0.8944625520257796</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04652271768633622</v>
+        <v>0.02890556094844511</v>
       </c>
       <c r="N94" t="n">
-        <v>1.287025627146605</v>
+        <v>1.2704059144216</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04643406834757251</v>
+        <v>0.02898183282677224</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1010472311806009</v>
+        <v>0.3121492222018847</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0476778666438196</v>
+        <v>0.01409710365571368</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5240353651084133</v>
+        <v>0.3121492222018847</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0480807293995855</v>
+        <v>0.01409710365571368</v>
       </c>
       <c r="L95" t="n">
-        <v>0.905530496127509</v>
+        <v>0.8997417956012179</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04812694933069264</v>
+        <v>0.02990230442942598</v>
       </c>
       <c r="N95" t="n">
-        <v>1.281728767816877</v>
+        <v>1.278750988180489</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04803524311817847</v>
+        <v>0.02998120637252301</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1079481947362809</v>
+        <v>0.3147988788746681</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04926712886528026</v>
+        <v>0.01456700711090414</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5209919821211277</v>
+        <v>0.3147988788746681</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04968342037957168</v>
+        <v>0.01456700711090414</v>
       </c>
       <c r="L96" t="n">
-        <v>0.8976957524339215</v>
+        <v>0.905530496127509</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04973118097504907</v>
+        <v>0.03089904791040685</v>
       </c>
       <c r="N96" t="n">
-        <v>1.274041899353332</v>
+        <v>1.280528934963041</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04963641788878441</v>
+        <v>0.03098057991827378</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.11078481471186</v>
+        <v>0.3173957368537435</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05085639108674091</v>
+        <v>0.0150369105660946</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5225568883355931</v>
+        <v>0.3173957368537435</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05128611135955786</v>
+        <v>0.0150369105660946</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9043069469812015</v>
+        <v>0.8997233501018396</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05133541261940549</v>
+        <v>0.03189579139138771</v>
       </c>
       <c r="N97" t="n">
-        <v>1.274494198800598</v>
+        <v>1.287025627146605</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05123759265939036</v>
+        <v>0.03197995346402455</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1105613190116125</v>
+        <v>0.3199402144451507</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05244565330820156</v>
+        <v>0.01550681402128505</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5192075772686879</v>
+        <v>0.3199402144451507</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05288880233954404</v>
+        <v>0.01550681402128505</v>
       </c>
       <c r="L98" t="n">
-        <v>0.8949684964046576</v>
+        <v>0.8988285308947619</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05293964426376191</v>
+        <v>0.03289253487236857</v>
       </c>
       <c r="N98" t="n">
-        <v>1.283884094807656</v>
+        <v>1.28346064846968</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05283876742999631</v>
+        <v>0.03297932700977531</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1052819355398128</v>
+        <v>0.3224327299549293</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05403491552966222</v>
+        <v>0.01597671747647551</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5193643224104068</v>
+        <v>0.3224327299549293</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05449149331953023</v>
+        <v>0.01597671747647551</v>
       </c>
       <c r="L99" t="n">
-        <v>0.893815534321027</v>
+        <v>0.9018585059233715</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05454387590811832</v>
+        <v>0.03388927835334944</v>
       </c>
       <c r="N99" t="n">
-        <v>1.273461237683077</v>
+        <v>1.282297534165765</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05443994220060226</v>
+        <v>0.03397870055552608</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1019508922007353</v>
+        <v>0.3248737016891192</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05562417775112288</v>
+        <v>0.01644662093166597</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5164473972507435</v>
+        <v>0.3248737016891192</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05609418429951642</v>
+        <v>0.01644662093166597</v>
       </c>
       <c r="L100" t="n">
-        <v>0.8991831943470465</v>
+        <v>0.9004546201043342</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05614810755247476</v>
+        <v>0.0348860218343303</v>
       </c>
       <c r="N100" t="n">
-        <v>1.276375277735432</v>
+        <v>1.281988360064723</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0560411169712082</v>
+        <v>0.03497807410127685</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1085724168986545</v>
+        <v>0.3272635479537601</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05721343997258353</v>
+        <v>0.01691652438685642</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5193770752796922</v>
+        <v>0.3272635479537601</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0576968752795026</v>
+        <v>0.01691652438685642</v>
       </c>
       <c r="L101" t="n">
-        <v>0.8920066100994541</v>
+        <v>0.8949533098770965</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05775233919683118</v>
+        <v>0.03588276531531118</v>
       </c>
       <c r="N101" t="n">
-        <v>1.27427586527329</v>
+        <v>1.278871985000258</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05764229174181415</v>
+        <v>0.03597744764702761</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1041507375378447</v>
+        <v>0.3296026870548916</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05880270219404418</v>
+        <v>0.01738642784204688</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5165736299872474</v>
+        <v>0.3296026870548916</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05929956625948878</v>
+        <v>0.01738642784204688</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8894209151949863</v>
+        <v>0.8935910116811059</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0593565708411876</v>
+        <v>0.03687950879629204</v>
       </c>
       <c r="N102" t="n">
-        <v>1.260012650605224</v>
+        <v>1.278987267806074</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0592434665124201</v>
+        <v>0.03697682119277838</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09869008202258034</v>
+        <v>0.3318915372985536</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06039196441550482</v>
+        <v>0.01785633129723734</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5106573348634031</v>
+        <v>0.3318915372985536</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06090225723947496</v>
+        <v>0.01785633129723734</v>
       </c>
       <c r="L103" t="n">
-        <v>0.8851612432503804</v>
+        <v>0.8956041619558082</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06096080248554401</v>
+        <v>0.03787625227727291</v>
       </c>
       <c r="N103" t="n">
-        <v>1.263235284039804</v>
+        <v>1.267473067315872</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06084464128302605</v>
+        <v>0.03797619473852915</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1061946782571359</v>
+        <v>0.3341305169907858</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06198122663696548</v>
+        <v>0.01832623475242779</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5105484633981536</v>
+        <v>0.3341305169907858</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06250494821946115</v>
+        <v>0.01832623475242779</v>
       </c>
       <c r="L104" t="n">
-        <v>0.8872627278823735</v>
+        <v>0.8892291971406505</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06256503412990044</v>
+        <v>0.03887299575825377</v>
       </c>
       <c r="N104" t="n">
-        <v>1.2575934158856</v>
+        <v>1.273968242363358</v>
       </c>
       <c r="O104" t="n">
-        <v>0.062445816053632</v>
+        <v>0.03897556828427991</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1036687541457856</v>
+        <v>0.336320044437628</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06357048885842613</v>
+        <v>0.01879613820761825</v>
       </c>
       <c r="J105" t="n">
-        <v>0.508267289081493</v>
+        <v>0.336320044437628</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06410763919944733</v>
+        <v>0.01879613820761825</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8807605027077028</v>
+        <v>0.8901025536750793</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06416926577425686</v>
+        <v>0.03986973923923463</v>
       </c>
       <c r="N105" t="n">
-        <v>1.243036696451183</v>
+        <v>1.260711651782235</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06404699082423794</v>
+        <v>0.03997494183003068</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.09911653759280409</v>
+        <v>0.3384605379451199</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06515975107988679</v>
+        <v>0.0192660416628087</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5041340854034155</v>
+        <v>0.3384605379451199</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06571033017943351</v>
+        <v>0.0192660416628087</v>
       </c>
       <c r="L106" t="n">
-        <v>0.8764897013431057</v>
+        <v>0.8809606679985413</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06577349741861328</v>
+        <v>0.0408664827202155</v>
       </c>
       <c r="N106" t="n">
-        <v>1.241614776045126</v>
+        <v>1.263642154406206</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06564816559484389</v>
+        <v>0.04097431537578144</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1005422565024656</v>
+        <v>0.3405524158193011</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06674901330134744</v>
+        <v>0.01973594511799916</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5036691258539154</v>
+        <v>0.3405524158193011</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06731302115941969</v>
+        <v>0.01973594511799916</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8730854574053191</v>
+        <v>0.8796399765504834</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0673777290629697</v>
+        <v>0.04186322620119637</v>
       </c>
       <c r="N107" t="n">
-        <v>1.241277304975997</v>
+        <v>1.259998609068973</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06724934036544984</v>
+        <v>0.04197368892153221</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1039501387790446</v>
+        <v>0.3425960963662116</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06833827552280809</v>
+        <v>0.02020584857318962</v>
       </c>
       <c r="J108" t="n">
-        <v>0.5021926839229867</v>
+        <v>0.3425960963662116</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06891571213940588</v>
+        <v>0.02020584857318962</v>
       </c>
       <c r="L108" t="n">
-        <v>0.8704829045110802</v>
+        <v>0.8773769157703522</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06898196070732612</v>
+        <v>0.04285996968217724</v>
       </c>
       <c r="N108" t="n">
-        <v>1.230373933552368</v>
+        <v>1.250219874604242</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06885051513605579</v>
+        <v>0.04297306246728298</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1063444123268154</v>
+        <v>0.344591997891891</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06992753774426876</v>
+        <v>0.02067575202838007</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5007250331006234</v>
+        <v>0.344591997891891</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07051840311939206</v>
+        <v>0.02067575202838007</v>
       </c>
       <c r="L109" t="n">
-        <v>0.8605171762771262</v>
+        <v>0.8712079220975943</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07058619235168255</v>
+        <v>0.0438567131631581</v>
       </c>
       <c r="N109" t="n">
-        <v>1.224954312082809</v>
+        <v>1.244944809845715</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07045168990666174</v>
+        <v>0.04397243601303374</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1037293050500525</v>
+        <v>0.346540538702379</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07151679996572941</v>
+        <v>0.02114565548357053</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4942864468768203</v>
+        <v>0.346540538702379</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07212109409937824</v>
+        <v>0.02114565548357053</v>
       </c>
       <c r="L110" t="n">
-        <v>0.8580234063201939</v>
+        <v>0.8758694319716562</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07219042399603896</v>
+        <v>0.04485345664413896</v>
       </c>
       <c r="N110" t="n">
-        <v>1.210968090875892</v>
+        <v>1.247312273627097</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07205286467726769</v>
+        <v>0.04497180955878451</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.09610904485303037</v>
+        <v>0.3484421371037155</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07310606218719007</v>
+        <v>0.02161555893876098</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4942971987415711</v>
+        <v>0.3484421371037155</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07372378507936443</v>
+        <v>0.02161555893876098</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8505367282570213</v>
+        <v>0.8673978818319847</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07379465564039539</v>
+        <v>0.04585020012511983</v>
       </c>
       <c r="N111" t="n">
-        <v>1.209664920240187</v>
+        <v>1.243761124782089</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07365403944787363</v>
+        <v>0.04597118310453528</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.09648785964002329</v>
+        <v>0.3502972114019401</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07469532440865072</v>
+        <v>0.02208546239395144</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4921775621848702</v>
+        <v>0.3502972114019401</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07532647605935061</v>
+        <v>0.02208546239395144</v>
       </c>
       <c r="L112" t="n">
-        <v>0.845892275704345</v>
+        <v>0.8617297081180268</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0753988872847518</v>
+        <v>0.0468469436061007</v>
       </c>
       <c r="N112" t="n">
-        <v>1.201594450484265</v>
+        <v>1.239930222144396</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07525521421847958</v>
+        <v>0.04697055665028605</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.09886997731530572</v>
+        <v>0.3521061799030927</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07628458663011137</v>
+        <v>0.0225553658491419</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4852478106967118</v>
+        <v>0.3521061799030927</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07692916703933679</v>
+        <v>0.0225553658491419</v>
       </c>
       <c r="L113" t="n">
-        <v>0.8449251822789023</v>
+        <v>0.8653013472692292</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07700311892910823</v>
+        <v>0.04784368708708157</v>
       </c>
       <c r="N113" t="n">
-        <v>1.189906331916697</v>
+        <v>1.228558424547721</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07685638898908553</v>
+        <v>0.04796993019603681</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1032587441816576</v>
+        <v>0.3538694609132128</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07787384885157202</v>
+        <v>0.02302526930433235</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4825282177670899</v>
+        <v>0.3538694609132128</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07853185801932298</v>
+        <v>0.02302526930433235</v>
       </c>
       <c r="L114" t="n">
-        <v>0.8408705815974302</v>
+        <v>0.858449235725038</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07860735057346466</v>
+        <v>0.04884043056806243</v>
       </c>
       <c r="N114" t="n">
-        <v>1.183550214846053</v>
+        <v>1.225384590825767</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07845756375969148</v>
+        <v>0.04896930374178758</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.09659237998065598</v>
+        <v>0.3555874727383405</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07946311107303267</v>
+        <v>0.02349517275952281</v>
       </c>
       <c r="J115" t="n">
-        <v>0.480039056885999</v>
+        <v>0.3555874727383405</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08013454899930916</v>
+        <v>0.02349517275952281</v>
       </c>
       <c r="L115" t="n">
-        <v>0.8360636072766661</v>
+        <v>0.8588098099249004</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08021158221782107</v>
+        <v>0.0498371740490433</v>
       </c>
       <c r="N115" t="n">
-        <v>1.174275698875463</v>
+        <v>1.220447579812239</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08005873853029744</v>
+        <v>0.04996867728753834</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09084082039369165</v>
+        <v>0.357260633684515</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08105237329449333</v>
+        <v>0.02396507621471327</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4760051635325533</v>
+        <v>0.357260633684515</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08173723997929534</v>
+        <v>0.02396507621471327</v>
       </c>
       <c r="L116" t="n">
-        <v>0.8225023412393904</v>
+        <v>0.8559195063082627</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0818158138621775</v>
+        <v>0.05083391753002416</v>
       </c>
       <c r="N116" t="n">
-        <v>1.17728788519174</v>
+        <v>1.21948625034084</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08165991330090339</v>
+        <v>0.05096805083328912</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.09201784043827416</v>
+        <v>0.3588893620577767</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08264163551595398</v>
+        <v>0.02443497966990372</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4752544211336618</v>
+        <v>0.3588893620577767</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08333993095928154</v>
+        <v>0.02443497966990372</v>
       </c>
       <c r="L117" t="n">
-        <v>0.8215301778636748</v>
+        <v>0.850914761314572</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08342004550653391</v>
+        <v>0.05183066101100503</v>
       </c>
       <c r="N117" t="n">
-        <v>1.160989466230672</v>
+        <v>1.214939461245272</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08326108807150934</v>
+        <v>0.05196742437903988</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09613721513191298</v>
+        <v>0.3604740761641648</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08423089773741463</v>
+        <v>0.02490488312509418</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4707482182122778</v>
+        <v>0.3604740761641648</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08494262193926772</v>
+        <v>0.02490488312509418</v>
       </c>
       <c r="L118" t="n">
-        <v>0.8154264387332402</v>
+        <v>0.8442320113832746</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08502427715089034</v>
+        <v>0.0528274044919859</v>
       </c>
       <c r="N118" t="n">
-        <v>1.158042208632543</v>
+        <v>1.21484607135924</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08486226284211529</v>
+        <v>0.05296679792479065</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0942127194921176</v>
+        <v>0.3620151943097193</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08582015995887529</v>
+        <v>0.02537478658028463</v>
       </c>
       <c r="J119" t="n">
-        <v>0.465352608222198</v>
+        <v>0.3620151943097193</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08654531291925389</v>
+        <v>0.02537478658028463</v>
       </c>
       <c r="L119" t="n">
-        <v>0.8071055933711213</v>
+        <v>0.8398076929538174</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08662850879524676</v>
+        <v>0.05382414797296676</v>
       </c>
       <c r="N119" t="n">
-        <v>1.140407879037637</v>
+        <v>1.203544939516447</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08646343761272124</v>
+        <v>0.05396617147054142</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.09525812853639745</v>
+        <v>0.36351313480048</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08740942218033594</v>
+        <v>0.02584469003547509</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4604336446172201</v>
+        <v>0.36351313480048</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08814800389924007</v>
+        <v>0.02584469003547509</v>
       </c>
       <c r="L120" t="n">
-        <v>0.8031821113003521</v>
+        <v>0.8462782424656472</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08823274043960318</v>
+        <v>0.05482089145394763</v>
       </c>
       <c r="N120" t="n">
-        <v>1.13364824408624</v>
+        <v>1.207774924550596</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08806461238332719</v>
+        <v>0.05496554501629218</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08828721728226216</v>
+        <v>0.3649683159424865</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08899868440179659</v>
+        <v>0.02631459349066555</v>
       </c>
       <c r="J121" t="n">
-        <v>0.456357380851141</v>
+        <v>0.3649683159424865</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08975069487922627</v>
+        <v>0.02631459349066555</v>
       </c>
       <c r="L121" t="n">
-        <v>0.7882704620439678</v>
+        <v>0.8446800963582102</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0898369720839596</v>
+        <v>0.05581763493492849</v>
       </c>
       <c r="N121" t="n">
-        <v>1.127225070418634</v>
+        <v>1.20437488529539</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08966578715393314</v>
+        <v>0.05596491856204295</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.09231376074722114</v>
+        <v>0.3663811560417786</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09058794662325725</v>
+        <v>0.02678449694585601</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4533898703777584</v>
+        <v>0.3663811560417786</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09135338585921245</v>
+        <v>0.02678449694585601</v>
       </c>
       <c r="L122" t="n">
-        <v>0.7804851151250021</v>
+        <v>0.8356496910709537</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09144120372831602</v>
+        <v>0.05681437841590936</v>
       </c>
       <c r="N122" t="n">
-        <v>1.115300124675106</v>
+        <v>1.188883680584534</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09126696192453908</v>
+        <v>0.05696429210779373</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.08535153394878392</v>
+        <v>0.367752073404396</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0921772088447179</v>
+        <v>0.02725440040104646</v>
       </c>
       <c r="J123" t="n">
-        <v>0.450897166650869</v>
+        <v>0.367752073404396</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09295607683919863</v>
+        <v>0.02725440040104646</v>
       </c>
       <c r="L123" t="n">
-        <v>0.77264054006649</v>
+        <v>0.8373234630433242</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09304543537267244</v>
+        <v>0.05781112189689023</v>
       </c>
       <c r="N123" t="n">
-        <v>1.093835173495938</v>
+        <v>1.197740169251731</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09286813669514503</v>
+        <v>0.05796366565354448</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.08441431190445997</v>
+        <v>0.3690814863363786</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09376647106617855</v>
+        <v>0.02772430385623691</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4430453231242704</v>
+        <v>0.3690814863363786</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09455876781918481</v>
+        <v>0.02772430385623691</v>
       </c>
       <c r="L124" t="n">
-        <v>0.7667512063914652</v>
+        <v>0.837937848714768</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09464966701702887</v>
+        <v>0.05880786537787109</v>
       </c>
       <c r="N124" t="n">
-        <v>1.086391983521416</v>
+        <v>1.192083210130684</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09446931146575098</v>
+        <v>0.05896303919929526</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09151586963175881</v>
+        <v>0.3703698131437659</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0953557332876392</v>
+        <v>0.02819420731142737</v>
       </c>
       <c r="J125" t="n">
-        <v>0.4381003932517598</v>
+        <v>0.3703698131437659</v>
       </c>
       <c r="K125" t="n">
-        <v>0.096161458799171</v>
+        <v>0.02819420731142737</v>
       </c>
       <c r="L125" t="n">
-        <v>0.7626315836229629</v>
+        <v>0.8338148324502741</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09625389866138528</v>
+        <v>0.05980460885885196</v>
       </c>
       <c r="N125" t="n">
-        <v>1.080932321391824</v>
+        <v>1.185551662055096</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09607048623635693</v>
+        <v>0.05996241274504602</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08362855021057719</v>
+        <v>0.3716174721325978</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09694499550909985</v>
+        <v>0.02866411076661782</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4377284304871344</v>
+        <v>0.3716174721325978</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09776414977915718</v>
+        <v>0.02866411076661782</v>
       </c>
       <c r="L126" t="n">
-        <v>0.7487961412840171</v>
+        <v>0.8387184031966135</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09785813030574171</v>
+        <v>0.06080135233983282</v>
       </c>
       <c r="N126" t="n">
-        <v>1.063217953747447</v>
+        <v>1.179979690939196</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09767166100696288</v>
+        <v>0.06096178629079679</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.08966099834895172</v>
+        <v>0.3728248816089141</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09853425773056051</v>
+        <v>0.02913401422180829</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4313760734169494</v>
+        <v>0.3728248816089141</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09936684075914336</v>
+        <v>0.02913401422180829</v>
       </c>
       <c r="L127" t="n">
-        <v>0.7481373380231154</v>
+        <v>0.8378455462506689</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09946236195009814</v>
+        <v>0.06179809582081369</v>
       </c>
       <c r="N127" t="n">
-        <v>1.060969104753211</v>
+        <v>1.189602260658062</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09927283577756882</v>
+        <v>0.06196115983654756</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.08462723984740528</v>
+        <v>0.3739924598787543</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1001235199520212</v>
+        <v>0.02960391767699874</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4254700992614959</v>
+        <v>0.3739924598787543</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1009695317391295</v>
+        <v>0.02960391767699874</v>
       </c>
       <c r="L128" t="n">
-        <v>0.7362303274909715</v>
+        <v>0.8350851503259844</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1010665935944546</v>
+        <v>0.06279483930179455</v>
       </c>
       <c r="N128" t="n">
-        <v>1.052695702481693</v>
+        <v>1.176524769697516</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1008740105481748</v>
+        <v>0.06296053338229832</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.08654699364753821</v>
+        <v>0.3751206252481585</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1017127821734818</v>
+        <v>0.03007382113218919</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4234353281258811</v>
+        <v>0.3751206252481585</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1025722227191157</v>
+        <v>0.03007382113218919</v>
       </c>
       <c r="L129" t="n">
-        <v>0.7326326622146312</v>
+        <v>0.8340261041361037</v>
       </c>
       <c r="M129" t="n">
-        <v>0.102670825238811</v>
+        <v>0.06379158278277541</v>
       </c>
       <c r="N129" t="n">
-        <v>1.038246127486727</v>
+        <v>1.181654436378853</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1024751853187807</v>
+        <v>0.06395990692804909</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.08143997869095071</v>
+        <v>0.3762097960231662</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1033020443949425</v>
+        <v>0.03054372458737965</v>
       </c>
       <c r="J130" t="n">
-        <v>0.4185663155485662</v>
+        <v>0.3762097960231662</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1041749136991019</v>
+        <v>0.03054372458737965</v>
       </c>
       <c r="L130" t="n">
-        <v>0.7252082053498519</v>
+        <v>0.8381572963945703</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1042750568831674</v>
+        <v>0.06478832626375629</v>
       </c>
       <c r="N130" t="n">
-        <v>1.024151948761267</v>
+        <v>1.18289847902337</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1040763600893867</v>
+        <v>0.06495928047379985</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07732591391924307</v>
+        <v>0.3772603905098171</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1048913066164031</v>
+        <v>0.03101362804257011</v>
       </c>
       <c r="J131" t="n">
-        <v>0.4114576170680124</v>
+        <v>0.3772603905098171</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1057776046790881</v>
+        <v>0.03101362804257011</v>
       </c>
       <c r="L131" t="n">
-        <v>0.7131208200523917</v>
+        <v>0.8393676158149279</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1058792885275238</v>
+        <v>0.06578506974473715</v>
       </c>
       <c r="N131" t="n">
-        <v>1.003844735298272</v>
+        <v>1.182464115952362</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1056775348599926</v>
+        <v>0.06595865401955062</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08122451827401542</v>
+        <v>0.378272827014151</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1064805688378638</v>
+        <v>0.03148353149776056</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4064037882226809</v>
+        <v>0.378272827014151</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1073802956590743</v>
+        <v>0.03148353149776056</v>
       </c>
       <c r="L132" t="n">
-        <v>0.7032343694780084</v>
+        <v>0.8422459511107196</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1074835201718802</v>
+        <v>0.06678181322571802</v>
       </c>
       <c r="N132" t="n">
-        <v>0.9924560560906991</v>
+        <v>1.172558565487124</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1072787096305986</v>
+        <v>0.06695802756530139</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07515551069686824</v>
+        <v>0.3792475238422078</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1080698310593244</v>
+        <v>0.03195343495295102</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4028993845510326</v>
+        <v>0.3792475238422078</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1089829866390605</v>
+        <v>0.03195343495295102</v>
       </c>
       <c r="L133" t="n">
-        <v>0.6984127167824596</v>
+        <v>0.84178119099549</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1090877518162366</v>
+        <v>0.06777855670669888</v>
       </c>
       <c r="N133" t="n">
-        <v>0.9834174801315042</v>
+        <v>1.173289045948953</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1088798844012045</v>
+        <v>0.06795740111105215</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.07913861012940157</v>
+        <v>0.380184899300027</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1096590932807851</v>
+        <v>0.03242333840814147</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3941389615915294</v>
+        <v>0.380184899300027</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1105856776190466</v>
+        <v>0.03242333840814147</v>
       </c>
       <c r="L134" t="n">
-        <v>0.684819725121503</v>
+        <v>0.8370622241827823</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1106919834605931</v>
+        <v>0.06877530018767974</v>
       </c>
       <c r="N134" t="n">
-        <v>0.9743605764136439</v>
+        <v>1.174462775659144</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1104810591718105</v>
+        <v>0.06895677465680292</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07519353551321578</v>
+        <v>0.3810853716936487</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1112483555022458</v>
+        <v>0.03289324186333193</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3901170748826315</v>
+        <v>0.3810853716936487</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1121883685990328</v>
+        <v>0.03289324186333193</v>
       </c>
       <c r="L135" t="n">
-        <v>0.6789192576508966</v>
+        <v>0.83987793938614</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1122962151049495</v>
+        <v>0.0697720436686606</v>
       </c>
       <c r="N135" t="n">
-        <v>0.9642169139300764</v>
+        <v>1.165886972938992</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1120822339424164</v>
+        <v>0.06995614820255369</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07434000578991112</v>
+        <v>0.3819493593291122</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1128376177237064</v>
+        <v>0.03336314531852239</v>
       </c>
       <c r="J136" t="n">
-        <v>0.387328279962801</v>
+        <v>0.3819493593291122</v>
       </c>
       <c r="K136" t="n">
-        <v>0.113791059579019</v>
+        <v>0.03336314531852239</v>
       </c>
       <c r="L136" t="n">
-        <v>0.6651751775263984</v>
+        <v>0.841317225319107</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1139004467493059</v>
+        <v>0.07076878714964148</v>
       </c>
       <c r="N136" t="n">
-        <v>0.9467180616737577</v>
+        <v>1.169068856109793</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1136834087130223</v>
+        <v>0.07095552174830445</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07659773990108779</v>
+        <v>0.3827772805124576</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1144268799451671</v>
+        <v>0.03383304877371285</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3800671323704986</v>
+        <v>0.3827772805124576</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1153937505590052</v>
+        <v>0.03383304877371285</v>
       </c>
       <c r="L137" t="n">
-        <v>0.6597513479037657</v>
+        <v>0.8426689706952264</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1155046783936624</v>
+        <v>0.07176553063062235</v>
       </c>
       <c r="N137" t="n">
-        <v>0.9434955886376447</v>
+        <v>1.165215643492844</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1152845834836283</v>
+        <v>0.07195489529405523</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07298645678834612</v>
+        <v>0.3835695535497244</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1160161421666277</v>
+        <v>0.0343029522289033</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3776281876441857</v>
+        <v>0.3835695535497244</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1169964415389914</v>
+        <v>0.0343029522289033</v>
       </c>
       <c r="L138" t="n">
-        <v>0.6552116319387564</v>
+        <v>0.8429220642280431</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1171089100380188</v>
+        <v>0.07276227411160321</v>
       </c>
       <c r="N138" t="n">
-        <v>0.9358810638146947</v>
+        <v>1.170334553409439</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1168857582542343</v>
+        <v>0.07295426883980599</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07052587539328631</v>
+        <v>0.3843265967469525</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1176054043880884</v>
+        <v>0.03477285568409376</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3784060013223233</v>
+        <v>0.3843265967469525</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1185991325189776</v>
+        <v>0.03477285568409376</v>
       </c>
       <c r="L139" t="n">
-        <v>0.6499198927871285</v>
+        <v>0.8432653946310995</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1187131416823752</v>
+        <v>0.07375901759258408</v>
       </c>
       <c r="N139" t="n">
-        <v>0.9287060561978638</v>
+        <v>1.159032804180874</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1184869330248402</v>
+        <v>0.07395364238555675</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07323571465750858</v>
+        <v>0.3850488284101815</v>
       </c>
       <c r="G140" t="n">
-        <v>0.119194666609549</v>
+        <v>0.03524275913928421</v>
       </c>
       <c r="J140" t="n">
-        <v>0.3733951289433728</v>
+        <v>0.3850488284101815</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1202018234989637</v>
+        <v>0.03524275913928421</v>
       </c>
       <c r="L140" t="n">
-        <v>0.6495399936046395</v>
+        <v>0.8472878506179398</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1203173733267316</v>
+        <v>0.07475576107356494</v>
       </c>
       <c r="N140" t="n">
-        <v>0.9117021347801096</v>
+        <v>1.161717614128444</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1200881077954462</v>
+        <v>0.07495301593130753</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06913568816911875</v>
+        <v>0.3857366668454512</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1207839288310096</v>
+        <v>0.03571266259447467</v>
       </c>
       <c r="J141" t="n">
-        <v>0.3718901260457952</v>
+        <v>0.3857366668454512</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1218045144789499</v>
+        <v>0.03571266259447467</v>
       </c>
       <c r="L141" t="n">
-        <v>0.6449357975470474</v>
+        <v>0.8509783209021078</v>
       </c>
       <c r="M141" t="n">
-        <v>0.121921604971088</v>
+        <v>0.07575250455454581</v>
       </c>
       <c r="N141" t="n">
-        <v>0.9212008685543888</v>
+        <v>1.157696201573446</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1216892825660521</v>
+        <v>0.07595238947705829</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07815096702917315</v>
+        <v>0.3863905303588016</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1223731910524703</v>
+        <v>0.03618256604966513</v>
       </c>
       <c r="J142" t="n">
-        <v>0.3741855481680519</v>
+        <v>0.3863905303588016</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1234072054589361</v>
+        <v>0.03618256604966513</v>
       </c>
       <c r="L142" t="n">
-        <v>0.6418711677701101</v>
+        <v>0.8513256941971465</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1235258366154445</v>
+        <v>0.07674924803552668</v>
       </c>
       <c r="N142" t="n">
-        <v>0.9142248482530174</v>
+        <v>1.157275784837175</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1232904573366581</v>
+        <v>0.07695176302280905</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.08019536497231688</v>
+        <v>0.387010837256272</v>
       </c>
       <c r="G143" t="n">
-        <v>0.123962453273931</v>
+        <v>0.03665246950485559</v>
       </c>
       <c r="J143" t="n">
-        <v>0.371353610918041</v>
+        <v>0.387010837256272</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1250098964389223</v>
+        <v>0.03665246950485559</v>
       </c>
       <c r="L143" t="n">
-        <v>0.6442461047126651</v>
+        <v>0.8463188592166007</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1251300682598009</v>
+        <v>0.07774599151650755</v>
       </c>
       <c r="N143" t="n">
-        <v>0.9104323634801054</v>
+        <v>1.161463582240926</v>
       </c>
       <c r="O143" t="n">
-        <v>0.124891632107264</v>
+        <v>0.07795113656855983</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07726743305790412</v>
+        <v>0.3875980058439025</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1255517154953916</v>
+        <v>0.03712237296004604</v>
       </c>
       <c r="J144" t="n">
-        <v>0.372260512727037</v>
+        <v>0.3875980058439025</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1266125874189085</v>
+        <v>0.03712237296004604</v>
       </c>
       <c r="L144" t="n">
-        <v>0.6406768155757455</v>
+        <v>0.8476467046740128</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1267342999041573</v>
+        <v>0.07874273499748841</v>
       </c>
       <c r="N144" t="n">
-        <v>0.9207777228067792</v>
+        <v>1.162366812105997</v>
       </c>
       <c r="O144" t="n">
-        <v>0.12649280687787</v>
+        <v>0.07895051011431059</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.08036572234528913</v>
+        <v>0.3881524544277326</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1271409777168523</v>
+        <v>0.03759227641523649</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3713990818362224</v>
+        <v>0.3881524544277326</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1282152783988947</v>
+        <v>0.03759227641523649</v>
       </c>
       <c r="L145" t="n">
-        <v>0.6407368721368027</v>
+        <v>0.8515981192829274</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1283385315485137</v>
+        <v>0.07973947847846927</v>
       </c>
       <c r="N145" t="n">
-        <v>0.9126439106277894</v>
+        <v>1.160392692753681</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1280939816484759</v>
+        <v>0.07994988366006135</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07348878389382602</v>
+        <v>0.3886746013138022</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1287302399383129</v>
+        <v>0.03806217987042695</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3707623703390745</v>
+        <v>0.3886746013138022</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1298179693788808</v>
+        <v>0.03806217987042695</v>
       </c>
       <c r="L146" t="n">
-        <v>0.644614233790842</v>
+        <v>0.8458619917568877</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1299427631928701</v>
+        <v>0.08073622195945014</v>
       </c>
       <c r="N146" t="n">
-        <v>0.920213911337887</v>
+        <v>1.160948442505274</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1296951564190818</v>
+        <v>0.08094925720581213</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.07863516876286902</v>
+        <v>0.389164864808151</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1303195021597736</v>
+        <v>0.0385320833256174</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3737434303290706</v>
+        <v>0.389164864808151</v>
       </c>
       <c r="K147" t="n">
-        <v>0.131420660358867</v>
+        <v>0.0385320833256174</v>
       </c>
       <c r="L147" t="n">
-        <v>0.6478968599328685</v>
+        <v>0.8504272108094373</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1315469948372266</v>
+        <v>0.081732965440431</v>
       </c>
       <c r="N147" t="n">
-        <v>0.9178707093318225</v>
+        <v>1.158741279682073</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1312963311896878</v>
+        <v>0.08194863075156289</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07880342801177231</v>
+        <v>0.3896236632168188</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1319087643812342</v>
+        <v>0.03900198678080787</v>
       </c>
       <c r="J148" t="n">
-        <v>0.3736353138996886</v>
+        <v>0.3896236632168188</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1330233513388532</v>
+        <v>0.03900198678080787</v>
       </c>
       <c r="L148" t="n">
-        <v>0.6439727099578869</v>
+        <v>0.84808266515412</v>
       </c>
       <c r="M148" t="n">
-        <v>0.133151226481583</v>
+        <v>0.08272970892141188</v>
       </c>
       <c r="N148" t="n">
-        <v>0.9135972890043468</v>
+        <v>1.150478422605372</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1328975059602937</v>
+        <v>0.08294800429731367</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.07099211269989014</v>
+        <v>0.3900514148458452</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1334980266026949</v>
+        <v>0.03947189023599832</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3732310731444055</v>
+        <v>0.3900514148458452</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1346260423188394</v>
+        <v>0.03947189023599832</v>
       </c>
       <c r="L149" t="n">
-        <v>0.6447297432609024</v>
+        <v>0.8466172435044796</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1347554581259394</v>
+        <v>0.08372645240239274</v>
       </c>
       <c r="N149" t="n">
-        <v>0.9268766347502101</v>
+        <v>1.153767089596468</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1344986807308997</v>
+        <v>0.08394737784306443</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07819977388657662</v>
+        <v>0.3904485380012702</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1350872888241555</v>
+        <v>0.03994179369118878</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3759237601566988</v>
+        <v>0.3904485380012702</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1362287332988256</v>
+        <v>0.03994179369118878</v>
       </c>
       <c r="L150" t="n">
-        <v>0.6486559192369199</v>
+        <v>0.8556200488152368</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1363596897702958</v>
+        <v>0.0847231958833736</v>
       </c>
       <c r="N150" t="n">
-        <v>0.9230917309641641</v>
+        <v>1.150413829884502</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1360998555015056</v>
+        <v>0.08494675138881519</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07742496263118603</v>
+        <v>0.3908154509891332</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1366765510456162</v>
+        <v>0.04041169714637923</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3756064270300462</v>
+        <v>0.3908154509891332</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1378314242788118</v>
+        <v>0.04041169714637923</v>
       </c>
       <c r="L151" t="n">
-        <v>0.6544391972809448</v>
+        <v>0.8477872372370341</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1379639214146522</v>
+        <v>0.08571993936435447</v>
       </c>
       <c r="N151" t="n">
-        <v>0.9294255620409585</v>
+        <v>1.158894981686887</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1377010302721116</v>
+        <v>0.08594612493456597</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.08166622999307249</v>
+        <v>0.3911525721154741</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1382658132670768</v>
+        <v>0.04088160060156969</v>
       </c>
       <c r="J152" t="n">
-        <v>0.3785721258579248</v>
+        <v>0.3911525721154741</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1394341152587979</v>
+        <v>0.04088160060156969</v>
       </c>
       <c r="L152" t="n">
-        <v>0.6503675367879819</v>
+        <v>0.8503233231017513</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1395681530590087</v>
+        <v>0.08671668284533533</v>
       </c>
       <c r="N152" t="n">
-        <v>0.9273611123753446</v>
+        <v>1.154691016616549</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1393022050427175</v>
+        <v>0.08694549848031673</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07392212703159026</v>
+        <v>0.3914603196863327</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1398550754885375</v>
+        <v>0.04135150405676014</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3776139087338122</v>
+        <v>0.3914603196863327</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1410368062387841</v>
+        <v>0.04135150405676014</v>
       </c>
       <c r="L153" t="n">
-        <v>0.659028897153036</v>
+        <v>0.8500332966148159</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1411723847033651</v>
+        <v>0.08771342632631621</v>
       </c>
       <c r="N153" t="n">
-        <v>0.9289813663620731</v>
+        <v>1.161295410009376</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1409033798133235</v>
+        <v>0.08794487202606749</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.07424324424543199</v>
+        <v>0.3917391120077487</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1414443377099982</v>
+        <v>0.0418214075119506</v>
       </c>
       <c r="J154" t="n">
-        <v>0.3829248277511859</v>
+        <v>0.3917391120077487</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1426394972187703</v>
+        <v>0.0418214075119506</v>
       </c>
       <c r="L154" t="n">
-        <v>0.6575112377711126</v>
+        <v>0.8517221479816557</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1427766163477215</v>
+        <v>0.08871016980729707</v>
       </c>
       <c r="N154" t="n">
-        <v>0.9354693083958946</v>
+        <v>1.153401637201257</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1425045545839294</v>
+        <v>0.08894424557181826</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.08179742001449081</v>
+        <v>0.3919893673857619</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1430335999314588</v>
+        <v>0.04229131096714106</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3810040988301894</v>
+        <v>0.3919893673857619</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1442421881987565</v>
+        <v>0.04229131096714106</v>
       </c>
       <c r="L155" t="n">
-        <v>0.661789000547132</v>
+        <v>0.8517948674076989</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1443808479920779</v>
+        <v>0.08970691328827793</v>
       </c>
       <c r="N155" t="n">
-        <v>0.9439888110258695</v>
+        <v>1.15920317352808</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1441057293545354</v>
+        <v>0.08994361911756903</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.08055887924657804</v>
+        <v>0.392211504126412</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1446228621529195</v>
+        <v>0.04276121442233152</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3853061645249622</v>
+        <v>0.392211504126412</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1458448791787427</v>
+        <v>0.04276121442233152</v>
       </c>
       <c r="L156" t="n">
-        <v>0.6663671920429877</v>
+        <v>0.8493564450983735</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1459850796364343</v>
+        <v>0.0907036567692588</v>
       </c>
       <c r="N156" t="n">
-        <v>0.9472861791660331</v>
+        <v>1.153693494325735</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1457069041251413</v>
+        <v>0.0909429926633198</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07948388192073974</v>
+        <v>0.3924059405357386</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1462121243743801</v>
+        <v>0.04323111787752196</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3859756750527082</v>
+        <v>0.3924059405357386</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1474475701587289</v>
+        <v>0.04323111787752196</v>
       </c>
       <c r="L157" t="n">
-        <v>0.6732580390154101</v>
+        <v>0.8481118712591076</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1475893112807908</v>
+        <v>0.09170040025023966</v>
       </c>
       <c r="N157" t="n">
-        <v>0.9493025571184813</v>
+        <v>1.16346607493011</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1473080788957473</v>
+        <v>0.09194236620907056</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08252868801602198</v>
+        <v>0.3925730949197818</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1478013865958408</v>
+        <v>0.04370102133271242</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3938028898848815</v>
+        <v>0.3925730949197818</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1490502611387151</v>
+        <v>0.04370102133271242</v>
       </c>
       <c r="L158" t="n">
-        <v>0.6786980646606382</v>
+        <v>0.8504661360953285</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1491935429251472</v>
+        <v>0.09269714373122054</v>
       </c>
       <c r="N158" t="n">
-        <v>0.9697242848293667</v>
+        <v>1.155814390677093</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1489092536663532</v>
+        <v>0.09294173975482133</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.08664955751147077</v>
+        <v>0.392713385584581</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1493906488173014</v>
+        <v>0.04417092478790288</v>
       </c>
       <c r="J159" t="n">
-        <v>0.4004780684929364</v>
+        <v>0.392713385584581</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1506529521187012</v>
+        <v>0.04417092478790288</v>
       </c>
       <c r="L159" t="n">
-        <v>0.6911237921749096</v>
+        <v>0.8417242298124648</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1507977745695036</v>
+        <v>0.0936938872122014</v>
       </c>
       <c r="N159" t="n">
-        <v>0.9848377022448399</v>
+        <v>1.153031916902575</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1505104284369592</v>
+        <v>0.0939411133005721</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.08080275038613224</v>
+        <v>0.3928272308361762</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1509799110387621</v>
+        <v>0.04464082824309334</v>
       </c>
       <c r="J160" t="n">
-        <v>0.4049914703483267</v>
+        <v>0.3928272308361762</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1522556430986874</v>
+        <v>0.04464082824309334</v>
       </c>
       <c r="L160" t="n">
-        <v>0.695771744754463</v>
+        <v>0.8436911426159439</v>
       </c>
       <c r="M160" t="n">
-        <v>0.15240200621386</v>
+        <v>0.09469063069318226</v>
       </c>
       <c r="N160" t="n">
-        <v>0.9919291493110532</v>
+        <v>1.156112128942442</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1521116032075651</v>
+        <v>0.09494048684632286</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.08494452661905239</v>
+        <v>0.3929150489806068</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1525691732602227</v>
+        <v>0.04511073169828379</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4105333549225067</v>
+        <v>0.3929150489806068</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1538583340786736</v>
+        <v>0.04511073169828379</v>
       </c>
       <c r="L161" t="n">
-        <v>0.7078784455955364</v>
+        <v>0.8394718647111943</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1540062378582165</v>
+        <v>0.09568737417416313</v>
       </c>
       <c r="N161" t="n">
-        <v>1.003484965974159</v>
+        <v>1.166348502132584</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1537127779781711</v>
+        <v>0.09593986039207363</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.08403114618927726</v>
+        <v>0.3929772583239128</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1541584354816834</v>
+        <v>0.04558063515347425</v>
       </c>
       <c r="J162" t="n">
-        <v>0.4145939816869302</v>
+        <v>0.3929772583239128</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1554610250586598</v>
+        <v>0.04558063515347425</v>
       </c>
       <c r="L162" t="n">
-        <v>0.7123804178943683</v>
+        <v>0.8453713863036432</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1556104695025729</v>
+        <v>0.09668411765514399</v>
       </c>
       <c r="N162" t="n">
-        <v>1.017291492180308</v>
+        <v>1.16083451180889</v>
       </c>
       <c r="O162" t="n">
-        <v>0.155313952748777</v>
+        <v>0.0969392339378244</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.08401886907585301</v>
+        <v>0.3930142771721339</v>
       </c>
       <c r="G163" t="n">
-        <v>0.155747697703144</v>
+        <v>0.0460505386086647</v>
       </c>
       <c r="J163" t="n">
-        <v>0.4197636101130517</v>
+        <v>0.3930142771721339</v>
       </c>
       <c r="K163" t="n">
-        <v>0.157063716038646</v>
+        <v>0.0460505386086647</v>
       </c>
       <c r="L163" t="n">
-        <v>0.7276141848471974</v>
+        <v>0.8391946975987192</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1572147011469293</v>
+        <v>0.09768086113612487</v>
       </c>
       <c r="N163" t="n">
-        <v>1.024335067875652</v>
+        <v>1.166263633307249</v>
       </c>
       <c r="O163" t="n">
-        <v>0.156915127519383</v>
+        <v>0.09793860748357516</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0808725847178299</v>
+        <v>0.3930265238313099</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1573369599246047</v>
+        <v>0.04652044206385517</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4258324996723248</v>
+        <v>0.3930265238313099</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1586664070186321</v>
+        <v>0.04652044206385517</v>
       </c>
       <c r="L164" t="n">
-        <v>0.7303162696502611</v>
+        <v>0.83734678880185</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1588189327912857</v>
+        <v>0.09867760461710573</v>
       </c>
       <c r="N164" t="n">
-        <v>1.036002033006344</v>
+        <v>1.165929341963549</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1585163022899889</v>
+        <v>0.09893798102932594</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.08967443578535653</v>
+        <v>0.3930265238313099</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1589262221460653</v>
+        <v>0.04652044206385517</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4294820529654162</v>
+        <v>0.3930265238313099</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1602690979986183</v>
+        <v>0.04652044206385517</v>
       </c>
       <c r="L165" t="n">
-        <v>0.7359247307168895</v>
+        <v>0.8369326501184633</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1604231644356421</v>
+        <v>0.09967434809808659</v>
       </c>
       <c r="N165" t="n">
-        <v>1.051498732971365</v>
+        <v>1.169225113113678</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1601174770605949</v>
+        <v>0.09993735457507669</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.09145714928749793</v>
+        <v>0.3872855874247677</v>
       </c>
       <c r="G166" t="n">
-        <v>0.160515484367526</v>
+        <v>0.04652017353539115</v>
       </c>
       <c r="J166" t="n">
-        <v>0.4320473105347313</v>
+        <v>0.3872855874247677</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1618717889786045</v>
+        <v>0.04652017353539115</v>
       </c>
       <c r="L166" t="n">
-        <v>0.7442526466948163</v>
+        <v>0.8364572717539875</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1620273960799986</v>
+        <v>0.1006710915790675</v>
       </c>
       <c r="N166" t="n">
-        <v>1.059916181452501</v>
+        <v>1.169544422093526</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1617186518312008</v>
+        <v>0.1009367281208275</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.08822211278936679</v>
+        <v>0.3816019453795006</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1621047465889867</v>
+        <v>0.04651990500692713</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4358227036473571</v>
+        <v>0.3816019453795006</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1634744799585907</v>
+        <v>0.04651990500692713</v>
       </c>
       <c r="L167" t="n">
-        <v>0.7508238934245494</v>
+        <v>0.8368256439138499</v>
       </c>
       <c r="M167" t="n">
-        <v>0.163631627724355</v>
+        <v>0.1016678350600483</v>
       </c>
       <c r="N167" t="n">
-        <v>1.066714853277307</v>
+        <v>1.168980744238981</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1633198266018068</v>
+        <v>0.1019361016665782</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.08597071385607577</v>
+        <v>0.3759774439378509</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1636940088104473</v>
+        <v>0.04651963647846311</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4394148859041333</v>
+        <v>0.3759774439378509</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1650771709385769</v>
+        <v>0.04651963647846311</v>
       </c>
       <c r="L168" t="n">
-        <v>0.7537500014842907</v>
+        <v>0.8361427568034792</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1652358593687114</v>
+        <v>0.1026645785410292</v>
       </c>
       <c r="N168" t="n">
-        <v>1.080811043288696</v>
+        <v>1.173627554885932</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1649210013724127</v>
+        <v>0.102935475212329</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.08570434005273753</v>
+        <v>0.3704139293416681</v>
       </c>
       <c r="G169" t="n">
-        <v>0.165283271031908</v>
+        <v>0.04651936794999909</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4447305109058987</v>
+        <v>0.3704139293416681</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1666798619185631</v>
+        <v>0.04651936794999909</v>
       </c>
       <c r="L169" t="n">
-        <v>0.761142501452242</v>
+        <v>0.8344136006283027</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1668400910130678</v>
+        <v>0.1036613220220101</v>
       </c>
       <c r="N169" t="n">
-        <v>1.082921046329583</v>
+        <v>1.168978329370268</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1665221761430187</v>
+        <v>0.1039348487580798</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.08842437894446478</v>
+        <v>0.3649132478332892</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1668725332533686</v>
+        <v>0.04651909942153508</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4478762322534923</v>
+        <v>0.3649132478332892</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1682825528985492</v>
+        <v>0.04651909942153508</v>
       </c>
       <c r="L170" t="n">
-        <v>0.7681129239066056</v>
+        <v>0.8330431655937487</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1684443226574243</v>
+        <v>0.1046580655029909</v>
       </c>
       <c r="N170" t="n">
-        <v>1.089561157242881</v>
+        <v>1.171626543027877</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1681233509136246</v>
+        <v>0.1049342223038305</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.09113221809637009</v>
+        <v>0.3594772456545693</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1684617954748293</v>
+        <v>0.04651883089307106</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4466587035477532</v>
+        <v>0.3594772456545693</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1698852438785354</v>
+        <v>0.04651883089307106</v>
       </c>
       <c r="L171" t="n">
-        <v>0.7734727994255828</v>
+        <v>0.8290364419052452</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1700485543017807</v>
+        <v>0.1056548089839718</v>
       </c>
       <c r="N171" t="n">
-        <v>1.098647670871503</v>
+        <v>1.167165671194648</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1697245256842306</v>
+        <v>0.1059335958495813</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.09682924507356616</v>
+        <v>0.3541077690478395</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1700510576962899</v>
+        <v>0.04651856236460705</v>
       </c>
       <c r="J172" t="n">
-        <v>0.4520845783895205</v>
+        <v>0.3541077690478395</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1714879348585216</v>
+        <v>0.04651856236460705</v>
       </c>
       <c r="L172" t="n">
-        <v>0.7769336585873758</v>
+        <v>0.8220984197682195</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1716527859461371</v>
+        <v>0.1066515524649527</v>
       </c>
       <c r="N172" t="n">
-        <v>1.110196882058364</v>
+        <v>1.177089189206471</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1713257004548365</v>
+        <v>0.1069329693953321</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.09051684744116567</v>
+        <v>0.3488066642549609</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1716403199177506</v>
+        <v>0.04651829383614303</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4532605103796336</v>
+        <v>0.3488066642549609</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1730906258385078</v>
+        <v>0.04651829383614303</v>
       </c>
       <c r="L173" t="n">
-        <v>0.7842070319701864</v>
+        <v>0.8197340893881002</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1732570175904935</v>
+        <v>0.1076482959459335</v>
       </c>
       <c r="N173" t="n">
-        <v>1.116325085646377</v>
+        <v>1.171390572399232</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1729268752254425</v>
+        <v>0.1079323429410828</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.09119641276428123</v>
+        <v>0.3435757775182586</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1732295821392112</v>
+        <v>0.04651802530767901</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4583931531189311</v>
+        <v>0.3435757775182586</v>
       </c>
       <c r="K174" t="n">
-        <v>0.174693316818494</v>
+        <v>0.04651802530767901</v>
       </c>
       <c r="L174" t="n">
-        <v>0.789204450152216</v>
+        <v>0.818548440970315</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1748612492348499</v>
+        <v>0.1086450394269144</v>
       </c>
       <c r="N174" t="n">
-        <v>1.130548576478456</v>
+        <v>1.177463296108822</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1745280499960484</v>
+        <v>0.1089317164868336</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0978693286080255</v>
+        <v>0.3384169550795997</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1748188443606719</v>
+        <v>0.04651775677921499</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4641891602082526</v>
+        <v>0.3384169550795997</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1762960077984801</v>
+        <v>0.04651775677921499</v>
       </c>
       <c r="L175" t="n">
-        <v>0.7989374437116672</v>
+        <v>0.8236464647202919</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1764654808792064</v>
+        <v>0.1096417829078953</v>
       </c>
       <c r="N175" t="n">
-        <v>1.138683649397514</v>
+        <v>1.173500835671129</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1761292247666544</v>
+        <v>0.1099310900325844</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.09055224584641386</v>
+        <v>0.3333320431813033</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1764081065821325</v>
+        <v>0.04651748825075098</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4629551852484365</v>
+        <v>0.3333320431813033</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1778986987784663</v>
+        <v>0.04651748825075098</v>
       </c>
       <c r="L176" t="n">
-        <v>0.8008175432267417</v>
+        <v>0.8169331508434585</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1780697125235628</v>
+        <v>0.1106385263888761</v>
       </c>
       <c r="N176" t="n">
-        <v>1.138448258597401</v>
+        <v>1.175496666422041</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1777303995372603</v>
+        <v>0.1109304635783351</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.09127432529711607</v>
+        <v>0.3283228880652426</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1779973688035932</v>
+        <v>0.04651721972228696</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4703255803714251</v>
+        <v>0.3283228880652426</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1795013897584525</v>
+        <v>0.04651721972228696</v>
       </c>
       <c r="L177" t="n">
-        <v>0.8085433785451213</v>
+        <v>0.8131134895452432</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1796739441679192</v>
+        <v>0.111635269869857</v>
       </c>
       <c r="N177" t="n">
-        <v>1.147917389550332</v>
+        <v>1.176144263697448</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1793315743078663</v>
+        <v>0.1119298371240859</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.09301419184042209</v>
+        <v>0.3233913359737304</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1795866310250538</v>
+        <v>0.04651695119382294</v>
       </c>
       <c r="J178" t="n">
-        <v>0.470463831112439</v>
+        <v>0.3233913359737304</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1811040807384387</v>
+        <v>0.04651695119382294</v>
       </c>
       <c r="L178" t="n">
-        <v>0.8152737425098275</v>
+        <v>0.815792471031074</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1812781758122756</v>
+        <v>0.1126320133508379</v>
       </c>
       <c r="N178" t="n">
-        <v>1.163775030356129</v>
+        <v>1.174237102833238</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1809327490784722</v>
+        <v>0.1129292106698367</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.09474800955498419</v>
+        <v>0.3185392331486464</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1811758932465145</v>
+        <v>0.04651668266535892</v>
       </c>
       <c r="J179" t="n">
-        <v>0.4758556804281165</v>
+        <v>0.3185392331486464</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1827067717184249</v>
+        <v>0.04651668266535892</v>
       </c>
       <c r="L179" t="n">
-        <v>0.8210132621608592</v>
+        <v>0.814675085506378</v>
       </c>
       <c r="M179" t="n">
-        <v>0.182882407456632</v>
+        <v>0.1136287568318187</v>
       </c>
       <c r="N179" t="n">
-        <v>1.162641264353212</v>
+        <v>1.1757686591653</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1825339238490782</v>
+        <v>0.1139285842155875</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.09645194251945485</v>
+        <v>0.3137684258322966</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1827651554679751</v>
+        <v>0.04651641413689491</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4768868311911859</v>
+        <v>0.3137684258322966</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1843094626984111</v>
+        <v>0.04651641413689491</v>
       </c>
       <c r="L180" t="n">
-        <v>0.8237638625015151</v>
+        <v>0.8147663231765843</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1844866391009885</v>
+        <v>0.1146255003127996</v>
       </c>
       <c r="N180" t="n">
-        <v>1.177036174879997</v>
+        <v>1.178832408029522</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1841350986196841</v>
+        <v>0.1149279577613382</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1011021548124864</v>
+        <v>0.3090807602665679</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1843544176894358</v>
+        <v>0.04651614560843089</v>
       </c>
       <c r="J181" t="n">
-        <v>0.4820429862743759</v>
+        <v>0.3090807602665679</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1859121536783973</v>
+        <v>0.04651614560843089</v>
       </c>
       <c r="L181" t="n">
-        <v>0.8362274685350948</v>
+        <v>0.8060711742471198</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1860908707453449</v>
+        <v>0.1156222437937805</v>
       </c>
       <c r="N181" t="n">
-        <v>1.186179845274903</v>
+        <v>1.186821824761794</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1857362733902901</v>
+        <v>0.115927331307089</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.09367481051273119</v>
+        <v>0.3044780826937589</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1859436799108965</v>
+        <v>0.04651587707996687</v>
       </c>
       <c r="J182" t="n">
-        <v>0.4868098485504149</v>
+        <v>0.3044780826937589</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1875148446583834</v>
+        <v>0.04651587707996687</v>
       </c>
       <c r="L182" t="n">
-        <v>0.8349060052648967</v>
+        <v>0.8081946289234132</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1876951023897013</v>
+        <v>0.1166189872747613</v>
       </c>
       <c r="N182" t="n">
-        <v>1.189892358876348</v>
+        <v>1.179530384698004</v>
       </c>
       <c r="O182" t="n">
-        <v>0.187337448160896</v>
+        <v>0.1169267048528397</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.09414607369884159</v>
+        <v>0.2999622393558612</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1875329421323571</v>
+        <v>0.04651560855150286</v>
       </c>
       <c r="J183" t="n">
-        <v>0.4875731208920316</v>
+        <v>0.2999622393558612</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1891175356383696</v>
+        <v>0.04651560855150286</v>
       </c>
       <c r="L183" t="n">
-        <v>0.8383013976942206</v>
+        <v>0.8073416774108917</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1892993340340577</v>
+        <v>0.1176157307557422</v>
       </c>
       <c r="N183" t="n">
-        <v>1.197493799022752</v>
+        <v>1.18195156317404</v>
       </c>
       <c r="O183" t="n">
-        <v>0.188938622931502</v>
+        <v>0.1179260783985905</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1014921084494701</v>
+        <v>0.2955350764948741</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1891222043538177</v>
+        <v>0.04651534002303884</v>
       </c>
       <c r="J184" t="n">
-        <v>0.4918185061719545</v>
+        <v>0.2955350764948741</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1907202266183558</v>
+        <v>0.04651534002303884</v>
       </c>
       <c r="L184" t="n">
-        <v>0.8419155708263646</v>
+        <v>0.798517309914984</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1909035656784142</v>
+        <v>0.118612474236723</v>
       </c>
       <c r="N184" t="n">
-        <v>1.20580424905253</v>
+        <v>1.179878835525792</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1905397977021079</v>
+        <v>0.1189254519443413</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.09676125351777101</v>
+        <v>0.2911984403530847</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1907114665752784</v>
+        <v>0.04651507149457482</v>
       </c>
       <c r="J185" t="n">
-        <v>0.4916641193886735</v>
+        <v>0.2911984403530847</v>
       </c>
       <c r="K185" t="n">
-        <v>0.192322917598342</v>
+        <v>0.04651507149457482</v>
       </c>
       <c r="L185" t="n">
-        <v>0.8494819103174731</v>
+        <v>0.8023265166411173</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1925077973227706</v>
+        <v>0.1196092177177039</v>
       </c>
       <c r="N185" t="n">
-        <v>1.208467685653321</v>
+        <v>1.183505677089148</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1921409724727139</v>
+        <v>0.119924825490092</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.09902469754066975</v>
+        <v>0.2869541771723989</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1923007287967391</v>
+        <v>0.0465148029661108</v>
       </c>
       <c r="J186" t="n">
-        <v>0.4899240328224809</v>
+        <v>0.2869541771723989</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1939256085783282</v>
+        <v>0.0465148029661108</v>
       </c>
       <c r="L186" t="n">
-        <v>0.8477646269528356</v>
+        <v>0.7974742877947203</v>
       </c>
       <c r="M186" t="n">
-        <v>0.194112028967127</v>
+        <v>0.1206059611986848</v>
       </c>
       <c r="N186" t="n">
-        <v>1.213354201629319</v>
+        <v>1.186025563199997</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1937421472433198</v>
+        <v>0.1209241990358428</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1022823972859715</v>
+        <v>0.2828041331950961</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1938899910181997</v>
+        <v>0.04651453443764679</v>
       </c>
       <c r="J187" t="n">
-        <v>0.4920569072064708</v>
+        <v>0.2828041331950961</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1955282995583144</v>
+        <v>0.04651453443764679</v>
       </c>
       <c r="L187" t="n">
-        <v>0.8524005849762706</v>
+        <v>0.8002656135812201</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1957162606114834</v>
+        <v>0.1216027046796656</v>
       </c>
       <c r="N187" t="n">
-        <v>1.211574359471399</v>
+        <v>1.181431969194227</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1953433220139258</v>
+        <v>0.1219235725815936</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1035342650342603</v>
+        <v>0.2787501546630901</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1954792532396604</v>
+        <v>0.04651426590918277</v>
       </c>
       <c r="J188" t="n">
-        <v>0.4940623219117489</v>
+        <v>0.2787501546630901</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1971309905383005</v>
+        <v>0.04651426590918277</v>
       </c>
       <c r="L188" t="n">
-        <v>0.855789055444987</v>
+        <v>0.7996380659389246</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1973204922558398</v>
+        <v>0.1225994481606465</v>
       </c>
       <c r="N188" t="n">
-        <v>1.220027129048367</v>
+        <v>1.182157889349455</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1969444967845317</v>
+        <v>0.1229229461273443</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1047802130661201</v>
+        <v>0.2747940878186522</v>
       </c>
       <c r="G189" t="n">
-        <v>0.197068515461121</v>
+        <v>0.04651399738071876</v>
       </c>
       <c r="J189" t="n">
-        <v>0.4933398563094202</v>
+        <v>0.2747940878186522</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1987336815182867</v>
+        <v>0.04651399738071876</v>
       </c>
       <c r="L189" t="n">
-        <v>0.8541293094161939</v>
+        <v>0.790566413677275</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1989247239001963</v>
+        <v>0.1235961916416274</v>
       </c>
       <c r="N189" t="n">
-        <v>1.219311480229031</v>
+        <v>1.188868780355146</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1985456715551376</v>
+        <v>0.1239223196730951</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1000201536621352</v>
+        <v>0.2709302400818185</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1986577776825817</v>
+        <v>0.04651372885225474</v>
       </c>
       <c r="J190" t="n">
-        <v>0.49888908977059</v>
+        <v>0.2709302400818185</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2003363724982729</v>
+        <v>0.04651372885225474</v>
       </c>
       <c r="L190" t="n">
-        <v>0.8570206179471009</v>
+        <v>0.7921590640704816</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2005289555445527</v>
+        <v>0.1245929351226082</v>
       </c>
       <c r="N190" t="n">
-        <v>1.216326382882201</v>
+        <v>1.187262927816529</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2001468463257436</v>
+        <v>0.1249216932188459</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1042539991028893</v>
+        <v>0.2671152247635348</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2002470399040423</v>
+        <v>0.04651346032379072</v>
       </c>
       <c r="J191" t="n">
-        <v>0.4979096016663639</v>
+        <v>0.2671152247635348</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2019390634782591</v>
+        <v>0.04651346032379072</v>
       </c>
       <c r="L191" t="n">
-        <v>0.8622622520949168</v>
+        <v>0.7892281492541497</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2021331871889091</v>
+        <v>0.1255896786035891</v>
       </c>
       <c r="N191" t="n">
-        <v>1.227870806876683</v>
+        <v>1.179364451987673</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2017480210963495</v>
+        <v>0.1259210667645966</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1024816616689667</v>
+        <v>0.2633433492838427</v>
       </c>
       <c r="G192" t="n">
-        <v>0.201836302125503</v>
+        <v>0.0465131917953267</v>
       </c>
       <c r="J192" t="n">
-        <v>0.500700971367847</v>
+        <v>0.2633433492838427</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2035417544582453</v>
+        <v>0.0465131917953267</v>
       </c>
       <c r="L192" t="n">
-        <v>0.8642534829168509</v>
+        <v>0.7900858013638863</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2037374188332655</v>
+        <v>0.12658642208457</v>
       </c>
       <c r="N192" t="n">
-        <v>1.225643722081284</v>
+        <v>1.183797473122647</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2033491958669555</v>
+        <v>0.1269204403103474</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.09870305364095128</v>
+        <v>0.2596164598850013</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2034255643469637</v>
+        <v>0.04651292326686268</v>
       </c>
       <c r="J193" t="n">
-        <v>0.4978627782461444</v>
+        <v>0.2596164598850013</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2051444454382315</v>
+        <v>0.04651292326686268</v>
       </c>
       <c r="L193" t="n">
-        <v>0.8635935814701126</v>
+        <v>0.7811441525352971</v>
       </c>
       <c r="M193" t="n">
-        <v>0.205341650477622</v>
+        <v>0.1275831655655508</v>
       </c>
       <c r="N193" t="n">
-        <v>1.228444098364814</v>
+        <v>1.175486111475516</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2049503706375614</v>
+        <v>0.1279198138560982</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1019180872994271</v>
+        <v>0.2559364028089427</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2050148265684243</v>
+        <v>0.04651265473839866</v>
       </c>
       <c r="J194" t="n">
-        <v>0.4989946016723616</v>
+        <v>0.2559364028089427</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2067471364182176</v>
+        <v>0.04651265473839866</v>
       </c>
       <c r="L194" t="n">
-        <v>0.868281818811911</v>
+        <v>0.7804153349039888</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2069458821219784</v>
+        <v>0.1285799090465317</v>
       </c>
       <c r="N194" t="n">
-        <v>1.23757090559608</v>
+        <v>1.17375448730035</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2065515454081674</v>
+        <v>0.1289191874018489</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1011266749249783</v>
+        <v>0.2523050242979217</v>
       </c>
       <c r="G195" t="n">
-        <v>0.206604088789885</v>
+        <v>0.04651238620993465</v>
       </c>
       <c r="J195" t="n">
-        <v>0.501496021017604</v>
+        <v>0.2523050242979217</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2083498273982038</v>
+        <v>0.04651238620993465</v>
       </c>
       <c r="L195" t="n">
-        <v>0.8683174659994553</v>
+        <v>0.7779114806055674</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2085501137663348</v>
+        <v>0.1295766525275126</v>
       </c>
       <c r="N195" t="n">
-        <v>1.23562311364389</v>
+        <v>1.171626720851215</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2081527201787733</v>
+        <v>0.1299185609475997</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1083287287981888</v>
+        <v>0.248724170593875</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2081933510113456</v>
+        <v>0.04651211768147063</v>
       </c>
       <c r="J196" t="n">
-        <v>0.5034666156529766</v>
+        <v>0.248724170593875</v>
       </c>
       <c r="K196" t="n">
-        <v>0.20995251837819</v>
+        <v>0.04651211768147063</v>
       </c>
       <c r="L196" t="n">
-        <v>0.8736997940899549</v>
+        <v>0.7752447217756389</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2101543454106912</v>
+        <v>0.1305733960084934</v>
       </c>
       <c r="N196" t="n">
-        <v>1.237399692377051</v>
+        <v>1.163326932382179</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2097538949493793</v>
+        <v>0.1309179344933505</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.09952416119964269</v>
+        <v>0.245195687939053</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2097826132328063</v>
+        <v>0.04651184915300662</v>
       </c>
       <c r="J197" t="n">
-        <v>0.5054059649495848</v>
+        <v>0.245195687939053</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2115552093581762</v>
+        <v>0.04651184915300662</v>
       </c>
       <c r="L197" t="n">
-        <v>0.8722280741406188</v>
+        <v>0.7777271905498102</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2117585770550476</v>
+        <v>0.1315701394894743</v>
       </c>
       <c r="N197" t="n">
-        <v>1.235799611664373</v>
+        <v>1.166579242147311</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2113550697199852</v>
+        <v>0.1319173080391012</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.106712884409924</v>
+        <v>0.2417214225754716</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2113718754542669</v>
+        <v>0.0465115806245426</v>
       </c>
       <c r="J198" t="n">
-        <v>0.5068136482785341</v>
+        <v>0.2417214225754716</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2131579003381623</v>
+        <v>0.0465115806245426</v>
       </c>
       <c r="L198" t="n">
-        <v>0.8692015772086565</v>
+        <v>0.7733710190636875</v>
       </c>
       <c r="M198" t="n">
-        <v>0.213362808699404</v>
+        <v>0.1325668829704552</v>
       </c>
       <c r="N198" t="n">
-        <v>1.239021841374661</v>
+        <v>1.156907770400677</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2129562444905912</v>
+        <v>0.132916681584852</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09889481070961667</v>
+        <v>0.2383032207451518</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2129611376757276</v>
+        <v>0.04651131209607858</v>
       </c>
       <c r="J199" t="n">
-        <v>0.5076892450109296</v>
+        <v>0.2383032207451518</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2147605913181486</v>
+        <v>0.04651131209607858</v>
       </c>
       <c r="L199" t="n">
-        <v>0.8719195743512769</v>
+        <v>0.7654883394528768</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2149670403437605</v>
+        <v>0.133563626451436</v>
       </c>
       <c r="N199" t="n">
-        <v>1.246465351376726</v>
+        <v>1.159936637396346</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2145574192611971</v>
+        <v>0.1339160551306028</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1090698523793049</v>
+        <v>0.2349429286903369</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2145503998971882</v>
+        <v>0.04651104356761457</v>
       </c>
       <c r="J200" t="n">
-        <v>0.5078323345178766</v>
+        <v>0.2349429286903369</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2163632822981347</v>
+        <v>0.04651104356761457</v>
       </c>
       <c r="L200" t="n">
-        <v>0.8736813366256895</v>
+        <v>0.7716912838529846</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2165712719881169</v>
+        <v>0.1345603699324169</v>
       </c>
       <c r="N200" t="n">
-        <v>1.251229111539373</v>
+        <v>1.151689963388384</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2161585940318031</v>
+        <v>0.1349154286763535</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.09823792169957257</v>
+        <v>0.2316423926529752</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2161396621186489</v>
+        <v>0.04651077503915055</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5078424961704806</v>
+        <v>0.2316423926529752</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2179659732781209</v>
+        <v>0.04651077503915055</v>
       </c>
       <c r="L201" t="n">
-        <v>0.8739861350891029</v>
+        <v>0.7684919843996171</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2181755036324733</v>
+        <v>0.1355571134133978</v>
       </c>
       <c r="N201" t="n">
-        <v>1.242212091731412</v>
+        <v>1.147191868630861</v>
       </c>
       <c r="O201" t="n">
-        <v>0.217759768802409</v>
+        <v>0.1359148022221043</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1063989309510038</v>
+        <v>0.2284034588753049</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2177289243401095</v>
+        <v>0.04651050651068653</v>
       </c>
       <c r="J202" t="n">
-        <v>0.5102193093398464</v>
+        <v>0.2284034588753049</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2195686642581071</v>
+        <v>0.04651050651068653</v>
       </c>
       <c r="L202" t="n">
-        <v>0.8755332407987273</v>
+        <v>0.7628025732283803</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2197797352768297</v>
+        <v>0.1365538568943786</v>
       </c>
       <c r="N202" t="n">
-        <v>1.248813261821649</v>
+        <v>1.151366473377843</v>
       </c>
       <c r="O202" t="n">
-        <v>0.219360943573015</v>
+        <v>0.1369141757678551</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1085527924141826</v>
+        <v>0.2252279735992798</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2193181865615702</v>
+        <v>0.04651023798222251</v>
       </c>
       <c r="J203" t="n">
-        <v>0.5094623533970799</v>
+        <v>0.2252279735992798</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2211713552380933</v>
+        <v>0.04651023798222251</v>
       </c>
       <c r="L203" t="n">
-        <v>0.8759219248117716</v>
+        <v>0.7553351824748809</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2213839669211862</v>
+        <v>0.1375506003753595</v>
       </c>
       <c r="N203" t="n">
-        <v>1.251831591678894</v>
+        <v>1.144637897883397</v>
       </c>
       <c r="O203" t="n">
-        <v>0.220962118343621</v>
+        <v>0.1379135493136058</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1006994183696931</v>
+        <v>0.2221177830671326</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2209074487830308</v>
+        <v>0.04650996945375849</v>
       </c>
       <c r="J204" t="n">
-        <v>0.5078712077132859</v>
+        <v>0.2221177830671326</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2227740462180795</v>
+        <v>0.04650996945375849</v>
       </c>
       <c r="L204" t="n">
-        <v>0.8788514581854443</v>
+        <v>0.7551019442747248</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2229881985655426</v>
+        <v>0.1385473438563403</v>
       </c>
       <c r="N204" t="n">
-        <v>1.258366051171954</v>
+        <v>1.143630262401593</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2225632931142268</v>
+        <v>0.1389129228593566</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1048387210981191</v>
+        <v>0.2190747335208226</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2224967110044915</v>
+        <v>0.04650970092529447</v>
       </c>
       <c r="J205" t="n">
-        <v>0.5127454516595702</v>
+        <v>0.2190747335208226</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2243767371980657</v>
+        <v>0.04650970092529447</v>
       </c>
       <c r="L205" t="n">
-        <v>0.8830211119769555</v>
+        <v>0.7521149907635187</v>
       </c>
       <c r="M205" t="n">
-        <v>0.224592430209899</v>
+        <v>0.1395440873373212</v>
       </c>
       <c r="N205" t="n">
-        <v>1.254015610169637</v>
+        <v>1.135367687186497</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2241644678848328</v>
+        <v>0.1399122964051074</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1049706128800449</v>
+        <v>0.2161006712025768</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2240859732259521</v>
+        <v>0.04650943239683046</v>
       </c>
       <c r="J206" t="n">
-        <v>0.5110846646070375</v>
+        <v>0.2161006712025768</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2259794281780518</v>
+        <v>0.04650943239683046</v>
       </c>
       <c r="L206" t="n">
-        <v>0.8800301572435139</v>
+        <v>0.7542864540768685</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2261966618542554</v>
+        <v>0.1405408308183021</v>
       </c>
       <c r="N206" t="n">
-        <v>1.25057923854075</v>
+        <v>1.135674292492177</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2257656426554387</v>
+        <v>0.1409116699508581</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1100950059960544</v>
+        <v>0.2131974423543604</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2256752354474128</v>
+        <v>0.04650916386836644</v>
       </c>
       <c r="J207" t="n">
-        <v>0.5110884259267936</v>
+        <v>0.2131974423543604</v>
       </c>
       <c r="K207" t="n">
-        <v>0.227582119158038</v>
+        <v>0.04650916386836644</v>
       </c>
       <c r="L207" t="n">
-        <v>0.885177865042329</v>
+        <v>0.7462284663503808</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2278008934986119</v>
+        <v>0.141537574299283</v>
       </c>
       <c r="N207" t="n">
-        <v>1.258655906154102</v>
+        <v>1.123574198572701</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2273668174260447</v>
+        <v>0.1419110434966089</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1052118127267316</v>
+        <v>0.2103668932183943</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2272644976688735</v>
+        <v>0.04650889533990243</v>
       </c>
       <c r="J208" t="n">
-        <v>0.5123563149899435</v>
+        <v>0.2103668932183943</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2291848101380242</v>
+        <v>0.04650889533990243</v>
       </c>
       <c r="L208" t="n">
-        <v>0.8851635064306103</v>
+        <v>0.7435531597196616</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2294051251429683</v>
+        <v>0.1425343177802638</v>
       </c>
       <c r="N208" t="n">
-        <v>1.260444582878501</v>
+        <v>1.121291525682135</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2289679921966506</v>
+        <v>0.1429104170423597</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1003209453526606</v>
+        <v>0.20761087003665</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2288537598903341</v>
+        <v>0.04650862681143841</v>
       </c>
       <c r="J209" t="n">
-        <v>0.5124879111675924</v>
+        <v>0.20761087003665</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2307875011180104</v>
+        <v>0.04650862681143841</v>
       </c>
       <c r="L209" t="n">
-        <v>0.887786352465566</v>
+        <v>0.7482726663203174</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2310093567873247</v>
+        <v>0.1435310612612447</v>
       </c>
       <c r="N209" t="n">
-        <v>1.263144238582753</v>
+        <v>1.12315039407455</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2305691669672566</v>
+        <v>0.1439097905881105</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1044223161544255</v>
+        <v>0.2049312190513419</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2304430221117948</v>
+        <v>0.04650835828297439</v>
       </c>
       <c r="J210" t="n">
-        <v>0.5142827938308461</v>
+        <v>0.2049312190513419</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2323901920979966</v>
+        <v>0.04650835828297439</v>
       </c>
       <c r="L210" t="n">
-        <v>0.8913456742044066</v>
+        <v>0.7389991182879543</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2326135884316811</v>
+        <v>0.1445278047422256</v>
       </c>
       <c r="N210" t="n">
-        <v>1.264953843135668</v>
+        <v>1.118574924004011</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2321703417378626</v>
+        <v>0.1449091641338612</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1015158374126102</v>
+        <v>0.2023297865044482</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2320322843332554</v>
+        <v>0.04650808975451037</v>
       </c>
       <c r="J211" t="n">
-        <v>0.5151405423508093</v>
+        <v>0.2023297865044482</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2339928830779827</v>
+        <v>0.04650808975451037</v>
       </c>
       <c r="L211" t="n">
-        <v>0.89134074270434</v>
+        <v>0.7417446477581788</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2342178200760375</v>
+        <v>0.1455245482232064</v>
       </c>
       <c r="N211" t="n">
-        <v>1.263072366406053</v>
+        <v>1.108489235724586</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2337715165084685</v>
+        <v>0.145908537679612</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1056014214077988</v>
+        <v>0.1998084186381766</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2336215465547161</v>
+        <v>0.04650782122604636</v>
       </c>
       <c r="J212" t="n">
-        <v>0.5158607360985876</v>
+        <v>0.1998084186381766</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2355955740579689</v>
+        <v>0.04650782122604636</v>
       </c>
       <c r="L212" t="n">
-        <v>0.8894708290225768</v>
+        <v>0.7363213868665971</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2358220517203939</v>
+        <v>0.1465212917041873</v>
       </c>
       <c r="N212" t="n">
-        <v>1.264398778262716</v>
+        <v>1.105317449490343</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2353726912790745</v>
+        <v>0.1469079112253628</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1106789804205754</v>
+        <v>0.1973689616945118</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2352108087761767</v>
+        <v>0.04650755269758234</v>
       </c>
       <c r="J213" t="n">
-        <v>0.5143429544452864</v>
+        <v>0.1973689616945118</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2371982650379551</v>
+        <v>0.04650755269758234</v>
       </c>
       <c r="L213" t="n">
-        <v>0.8915352042163254</v>
+        <v>0.7352414677488153</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2374262833647504</v>
+        <v>0.1475180351851682</v>
       </c>
       <c r="N213" t="n">
-        <v>1.261332048574465</v>
+        <v>1.104983685555351</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2369738660496804</v>
+        <v>0.1479072847711135</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09974842673152384</v>
+        <v>0.195013261915655</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2368000709976374</v>
+        <v>0.04650728416911833</v>
       </c>
       <c r="J214" t="n">
-        <v>0.5143867767620107</v>
+        <v>0.195013261915655</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2388009560179413</v>
+        <v>0.04650728416911833</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8933331393427948</v>
+        <v>0.7348170225404398</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2390305150091068</v>
+        <v>0.148514778666149</v>
       </c>
       <c r="N214" t="n">
-        <v>1.261171147210108</v>
+        <v>1.099012064173675</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2385750408202864</v>
+        <v>0.1489066583168643</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1078096726212283</v>
+        <v>0.195013261915655</v>
       </c>
       <c r="G215" t="n">
-        <v>0.238389333219098</v>
+        <v>0.04650728416911833</v>
       </c>
       <c r="J215" t="n">
-        <v>0.5160917824198661</v>
+        <v>0.195013261915655</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2404036469979275</v>
+        <v>0.04650728416911833</v>
       </c>
       <c r="L215" t="n">
-        <v>0.890163905459195</v>
+        <v>0.7377601833770768</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2406347466534632</v>
+        <v>0.1495115221471299</v>
       </c>
       <c r="N215" t="n">
-        <v>1.264015044038452</v>
+        <v>1.101226705599385</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2401762155908923</v>
+        <v>0.1499060318626151</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1008626303702728</v>
+        <v>0.1902163405438739</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2399785954405587</v>
+        <v>0.04648202184283159</v>
       </c>
       <c r="J216" t="n">
-        <v>0.5148575507899575</v>
+        <v>0.1902163405438739</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2420063379779137</v>
+        <v>0.04648202184283159</v>
       </c>
       <c r="L216" t="n">
-        <v>0.8892267736227346</v>
+        <v>0.7359830823943329</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2422389782978197</v>
+        <v>0.1505082656281108</v>
       </c>
       <c r="N216" t="n">
-        <v>1.270362708928306</v>
+        <v>1.087551730086548</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2417773903614983</v>
+        <v>0.1509054054083658</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1089072122592414</v>
+        <v>0.1854535768095982</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2415678576620193</v>
+        <v>0.04645675951654486</v>
       </c>
       <c r="J217" t="n">
-        <v>0.5170836612433907</v>
+        <v>0.1854535768095982</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2436090289578998</v>
+        <v>0.04645675951654486</v>
       </c>
       <c r="L217" t="n">
-        <v>0.8918210148906227</v>
+        <v>0.7285978517278139</v>
       </c>
       <c r="M217" t="n">
-        <v>0.243843209942176</v>
+        <v>0.1515050091090916</v>
       </c>
       <c r="N217" t="n">
-        <v>1.264313111748478</v>
+        <v>1.08431125788923</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2433785651321042</v>
+        <v>0.1519047789541166</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.09994333056871807</v>
+        <v>0.1807255352778695</v>
       </c>
       <c r="G218" t="n">
-        <v>0.24315711988348</v>
+        <v>0.04643149719025813</v>
       </c>
       <c r="J218" t="n">
-        <v>0.5146696931512706</v>
+        <v>0.1807255352778695</v>
       </c>
       <c r="K218" t="n">
-        <v>0.245211719937886</v>
+        <v>0.04643149719025813</v>
       </c>
       <c r="L218" t="n">
-        <v>0.8939459003200694</v>
+        <v>0.7297166235131265</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2454474415865325</v>
+        <v>0.1525017525900725</v>
       </c>
       <c r="N218" t="n">
-        <v>1.273765222367774</v>
+        <v>1.080229409261501</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2449797399027102</v>
+        <v>0.1529041524998674</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1069708975792869</v>
+        <v>0.1760327805137251</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2447463821049406</v>
+        <v>0.0464062348639714</v>
       </c>
       <c r="J219" t="n">
-        <v>0.5178152258847026</v>
+        <v>0.1760327805137251</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2468144109178722</v>
+        <v>0.0464062348639714</v>
       </c>
       <c r="L219" t="n">
-        <v>0.8940007009682831</v>
+        <v>0.7312515298858767</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2470516732308889</v>
+        <v>0.1534984960710534</v>
       </c>
       <c r="N219" t="n">
-        <v>1.274218010655004</v>
+        <v>1.077630304457428</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2465809146733161</v>
+        <v>0.1539035260456181</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1099898255715319</v>
+        <v>0.171375877082207</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2463356443264013</v>
+        <v>0.04638097253768467</v>
       </c>
       <c r="J220" t="n">
-        <v>0.5159198388147921</v>
+        <v>0.171375877082207</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2484171018978584</v>
+        <v>0.04638097253768467</v>
       </c>
       <c r="L220" t="n">
-        <v>0.8886846878924735</v>
+        <v>0.733414702981671</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2486559048752453</v>
+        <v>0.1544952395520342</v>
       </c>
       <c r="N220" t="n">
-        <v>1.265670446478976</v>
+        <v>1.075638063731078</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2481820894439221</v>
+        <v>0.1549028995913689</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1050000268260371</v>
+        <v>0.1667553895483526</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2479249065478619</v>
+        <v>0.04635571021139794</v>
       </c>
       <c r="J221" t="n">
-        <v>0.5161831113126443</v>
+        <v>0.1667553895483526</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2500197928778446</v>
+        <v>0.04635571021139794</v>
       </c>
       <c r="L221" t="n">
-        <v>0.8914971321498493</v>
+        <v>0.7312182749361155</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2502601365196018</v>
+        <v>0.1554919830330151</v>
       </c>
       <c r="N221" t="n">
-        <v>1.274121499708496</v>
+        <v>1.07447680733652</v>
       </c>
       <c r="O221" t="n">
-        <v>0.249783264214528</v>
+        <v>0.1559022731371197</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1089855904876931</v>
+        <v>0.1621718824772034</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2495141687693226</v>
+        <v>0.04633044788511121</v>
       </c>
       <c r="J222" t="n">
-        <v>0.5150046227493643</v>
+        <v>0.1621718824772034</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2516224838578308</v>
+        <v>0.04633044788511121</v>
       </c>
       <c r="L222" t="n">
-        <v>0.8954373047976203</v>
+        <v>0.7256048480525653</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2518643681639581</v>
+        <v>0.156488726513996</v>
       </c>
       <c r="N222" t="n">
-        <v>1.263168887737713</v>
+        <v>1.07680025637838</v>
       </c>
       <c r="O222" t="n">
-        <v>0.251384438985134</v>
+        <v>0.1569016466828704</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.106759730448409</v>
+        <v>0.1576259204337981</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2511034309907832</v>
+        <v>0.04630518555882448</v>
       </c>
       <c r="J223" t="n">
-        <v>0.516173673671231</v>
+        <v>0.1576259204337981</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2532251748378169</v>
+        <v>0.04630518555882448</v>
       </c>
       <c r="L223" t="n">
-        <v>0.8875310020158982</v>
+        <v>0.7327005899775814</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2534685998083146</v>
+        <v>0.1574854699949768</v>
       </c>
       <c r="N223" t="n">
-        <v>1.262098753134064</v>
+        <v>1.070553991498977</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2529856137557399</v>
+        <v>0.1579010202286212</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1032898459258376</v>
+        <v>0.1531180679831753</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2526926932122439</v>
+        <v>0.04627992323253775</v>
       </c>
       <c r="J224" t="n">
-        <v>0.5116374323261432</v>
+        <v>0.1531180679831753</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2548278658178031</v>
+        <v>0.04627992323253775</v>
       </c>
       <c r="L224" t="n">
-        <v>0.8910318811588422</v>
+        <v>0.7275964451799731</v>
       </c>
       <c r="M224" t="n">
-        <v>0.255072831452671</v>
+        <v>0.1584822134759577</v>
       </c>
       <c r="N224" t="n">
-        <v>1.267286284442194</v>
+        <v>1.07891383055219</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2545867885263459</v>
+        <v>0.158900393774372</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1076032828674235</v>
+        <v>0.1486488896903766</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2542819554337045</v>
+        <v>0.04625466090625102</v>
       </c>
       <c r="J225" t="n">
-        <v>0.5087269394903406</v>
+        <v>0.1486488896903766</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2564305567977893</v>
+        <v>0.04625466090625102</v>
       </c>
       <c r="L225" t="n">
-        <v>0.8846641589059849</v>
+        <v>0.7323924131326449</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2566770630970274</v>
+        <v>0.1594789569569385</v>
       </c>
       <c r="N225" t="n">
-        <v>1.254452618244358</v>
+        <v>1.069881312155643</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2561879632969518</v>
+        <v>0.1598997673201227</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1037273872206111</v>
+        <v>0.1442189501204395</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2558712176551652</v>
+        <v>0.04622939857996428</v>
       </c>
       <c r="J226" t="n">
-        <v>0.5057733234382396</v>
+        <v>0.1442189501204395</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2580332477777755</v>
+        <v>0.04622939857996428</v>
       </c>
       <c r="L226" t="n">
-        <v>0.874055078348577</v>
+        <v>0.7307884933085014</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2582812947413839</v>
+        <v>0.1604757004379194</v>
       </c>
       <c r="N226" t="n">
-        <v>1.24811889112281</v>
+        <v>1.06555797492696</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2577891380675577</v>
+        <v>0.1608991408658735</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0976895049328452</v>
+        <v>0.1398288138384057</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2574604798766258</v>
+        <v>0.04620413625367756</v>
       </c>
       <c r="J227" t="n">
-        <v>0.5043077124442557</v>
+        <v>0.1398288138384057</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2596359387577617</v>
+        <v>0.04620413625367756</v>
       </c>
       <c r="L227" t="n">
-        <v>0.8713318825778711</v>
+        <v>0.7255846851804462</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2598855263857403</v>
+        <v>0.1614724439189003</v>
       </c>
       <c r="N227" t="n">
-        <v>1.229706239659805</v>
+        <v>1.070845357483762</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2593903128381637</v>
+        <v>0.1618985144116243</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09951698195157019</v>
+        <v>0.1354790454093127</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2590497420980865</v>
+        <v>0.04617887392739082</v>
       </c>
       <c r="J228" t="n">
-        <v>0.4990612347828052</v>
+        <v>0.1354790454093127</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2612386297377479</v>
+        <v>0.04617887392739082</v>
       </c>
       <c r="L228" t="n">
-        <v>0.8561218146851177</v>
+        <v>0.7246809882213842</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2614897580300967</v>
+        <v>0.1624691873998811</v>
       </c>
       <c r="N228" t="n">
-        <v>1.222735800437598</v>
+        <v>1.066744998443673</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2609914876087696</v>
+        <v>0.162897887957375</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09623716422423068</v>
+        <v>0.1311702093982021</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2606390043195472</v>
+        <v>0.04615361160110409</v>
       </c>
       <c r="J229" t="n">
-        <v>0.4905650187283041</v>
+        <v>0.1311702093982021</v>
       </c>
       <c r="K229" t="n">
-        <v>0.262841320717734</v>
+        <v>0.04615361160110409</v>
       </c>
       <c r="L229" t="n">
-        <v>0.8488521177615691</v>
+        <v>0.7284774019042191</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2630939896744531</v>
+        <v>0.163465930880862</v>
       </c>
       <c r="N229" t="n">
-        <v>1.204228710038443</v>
+        <v>1.071958436424316</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2625926623793756</v>
+        <v>0.1638972615031258</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.09287739769827116</v>
+        <v>0.1269028703701124</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2622282665410078</v>
+        <v>0.04612834927481737</v>
       </c>
       <c r="J230" t="n">
-        <v>0.482450192555168</v>
+        <v>0.1269028703701124</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2644440116977202</v>
+        <v>0.04612834927481737</v>
       </c>
       <c r="L230" t="n">
-        <v>0.8352500348984759</v>
+        <v>0.7319739257018556</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2646982213188095</v>
+        <v>0.1644626743618429</v>
       </c>
       <c r="N230" t="n">
-        <v>1.188806105044596</v>
+        <v>1.071687210043314</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2641938371499815</v>
+        <v>0.1648966350488766</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.09246502832113623</v>
+        <v>0.1226775928900825</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2638175287624684</v>
+        <v>0.04610308694853063</v>
       </c>
       <c r="J231" t="n">
-        <v>0.4789478845378135</v>
+        <v>0.1226775928900825</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2660467026777064</v>
+        <v>0.04610308694853063</v>
       </c>
       <c r="L231" t="n">
-        <v>0.8271428091870907</v>
+        <v>0.7283705590871977</v>
       </c>
       <c r="M231" t="n">
-        <v>0.266302452963166</v>
+        <v>0.1654594178428238</v>
       </c>
       <c r="N231" t="n">
-        <v>1.17358912203831</v>
+        <v>1.069132857918289</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2657950119205875</v>
+        <v>0.1658960085946273</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.09202740204027043</v>
+        <v>0.1184949415231537</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2654067909839291</v>
+        <v>0.04607782462224391</v>
       </c>
       <c r="J232" t="n">
-        <v>0.4708892229506562</v>
+        <v>0.1184949415231537</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2676493936576926</v>
+        <v>0.04607782462224391</v>
       </c>
       <c r="L232" t="n">
-        <v>0.8135576837186651</v>
+        <v>0.72896730153315</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2679066846075224</v>
+        <v>0.1664561613238046</v>
       </c>
       <c r="N232" t="n">
-        <v>1.153998897601842</v>
+        <v>1.059296918666864</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2673961866911934</v>
+        <v>0.1668953821403781</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09059186480311834</v>
+        <v>0.1143554808343638</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2669960532053898</v>
+        <v>0.04605256229595717</v>
       </c>
       <c r="J233" t="n">
-        <v>0.4639053360681122</v>
+        <v>0.1143554808343638</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2692520846376787</v>
+        <v>0.04605256229595717</v>
       </c>
       <c r="L233" t="n">
-        <v>0.8056219015844499</v>
+        <v>0.7279641525126164</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2695109162518788</v>
+        <v>0.1674529048047855</v>
       </c>
       <c r="N233" t="n">
-        <v>1.136156568317445</v>
+        <v>1.067480930906664</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2689973614617994</v>
+        <v>0.1678947556861289</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.09618576255712452</v>
+        <v>0.1102597753887541</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2685853154268504</v>
+        <v>0.04602729996967044</v>
       </c>
       <c r="J234" t="n">
-        <v>0.4598273521645975</v>
+        <v>0.1102597753887541</v>
       </c>
       <c r="K234" t="n">
-        <v>0.270854775617665</v>
+        <v>0.04602729996967044</v>
       </c>
       <c r="L234" t="n">
-        <v>0.7956627058756971</v>
+        <v>0.7308611114985013</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2711151478962353</v>
+        <v>0.1684496482857663</v>
       </c>
       <c r="N234" t="n">
-        <v>1.129783270767374</v>
+        <v>1.058386433255309</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2705985362324053</v>
+        <v>0.1688941292318796</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.09183644124973347</v>
+        <v>0.1062083897513625</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2701745776483111</v>
+        <v>0.04600203764338371</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4500863995145279</v>
+        <v>0.1062083897513625</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2724574665976512</v>
+        <v>0.04600203764338371</v>
       </c>
       <c r="L235" t="n">
-        <v>0.7785073396836584</v>
+        <v>0.729958177963709</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2727193795405917</v>
+        <v>0.1694463917667472</v>
       </c>
       <c r="N235" t="n">
-        <v>1.103600141533885</v>
+        <v>1.061214964330424</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2721997110030113</v>
+        <v>0.1698935027776304</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.08557124682838976</v>
+        <v>0.1022018884872303</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2717638398697718</v>
+        <v>0.04597677531709698</v>
       </c>
       <c r="J236" t="n">
-        <v>0.4435136063923198</v>
+        <v>0.1022018884872303</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2740601575776374</v>
+        <v>0.04597677531709698</v>
       </c>
       <c r="L236" t="n">
-        <v>0.7664830460995848</v>
+        <v>0.7296553513811437</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2743236111849481</v>
+        <v>0.1704431352477281</v>
       </c>
       <c r="N236" t="n">
-        <v>1.092028317199231</v>
+        <v>1.056468062749631</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2738008857736172</v>
+        <v>0.1708928763233812</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.08541172386699769</v>
+        <v>0.09824083616139628</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2733531020912324</v>
+        <v>0.04595151299081025</v>
       </c>
       <c r="J237" t="n">
-        <v>0.4376388742926017</v>
+        <v>0.09824083616139628</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2756628485576235</v>
+        <v>0.04595151299081025</v>
       </c>
       <c r="L237" t="n">
-        <v>0.7616163579411969</v>
+        <v>0.7317526312237098</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2759278428293045</v>
+        <v>0.1714398787287089</v>
       </c>
       <c r="N237" t="n">
-        <v>1.080482900025448</v>
+        <v>1.058347267130553</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2754020605442232</v>
+        <v>0.1718922498691319</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.08828044677712668</v>
+        <v>0.09432579733889909</v>
       </c>
       <c r="G238" t="n">
-        <v>0.274942364312693</v>
+        <v>0.04592625066452351</v>
       </c>
       <c r="J238" t="n">
-        <v>0.4354091001302859</v>
+        <v>0.09432579733889909</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2772655395376097</v>
+        <v>0.04592625066452351</v>
       </c>
       <c r="L238" t="n">
-        <v>0.7490985448133146</v>
+        <v>0.7306500169643114</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2775320744736609</v>
+        <v>0.1724366222096898</v>
       </c>
       <c r="N238" t="n">
-        <v>1.065004205534017</v>
+        <v>1.060254116090813</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2770032353148291</v>
+        <v>0.1728916234148827</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08814500069307693</v>
+        <v>0.09045733658478011</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2765316265341537</v>
+        <v>0.04590098833823679</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4292595701386685</v>
+        <v>0.09045733658478011</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2788682305175958</v>
+        <v>0.04590098833823679</v>
       </c>
       <c r="L239" t="n">
-        <v>0.7424465414882651</v>
+        <v>0.732147508075853</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2791363061180173</v>
+        <v>0.1734333656906707</v>
       </c>
       <c r="N239" t="n">
-        <v>1.05457706395271</v>
+        <v>1.051190148248034</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2786044100854351</v>
+        <v>0.1738909969606335</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.08300532083128481</v>
+        <v>0.08663371315683219</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2781208887556144</v>
+        <v>0.04587572601195006</v>
       </c>
       <c r="J240" t="n">
-        <v>0.4264899736700047</v>
+        <v>0.08663371315683219</v>
       </c>
       <c r="K240" t="n">
-        <v>0.280470921497582</v>
+        <v>0.04587572601195006</v>
       </c>
       <c r="L240" t="n">
-        <v>0.7308598096187375</v>
+        <v>0.7280451040312387</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2807405377623738</v>
+        <v>0.1744301091716516</v>
       </c>
       <c r="N240" t="n">
-        <v>1.040700714497054</v>
+        <v>1.052256902219838</v>
       </c>
       <c r="O240" t="n">
-        <v>0.280205584856041</v>
+        <v>0.1748903705063842</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.08686134240818671</v>
+        <v>0.08284165977662666</v>
       </c>
       <c r="G241" t="n">
-        <v>0.279710150977075</v>
+        <v>0.04585046368566333</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4162000000765493</v>
+        <v>0.08284165977662666</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2820736124775682</v>
+        <v>0.04585046368566333</v>
       </c>
       <c r="L241" t="n">
-        <v>0.7269378108574222</v>
+        <v>0.7305428043033727</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2823447694067302</v>
+        <v>0.1754268526526324</v>
       </c>
       <c r="N241" t="n">
-        <v>1.033074396382578</v>
+        <v>1.05325591662385</v>
       </c>
       <c r="O241" t="n">
-        <v>0.281806759626647</v>
+        <v>0.175889744052135</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.08871300064021909</v>
+        <v>0.07907943570195644</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2812994131985357</v>
+        <v>0.04582520135937659</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4149893387105582</v>
+        <v>0.07907943570195644</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2836763034575545</v>
+        <v>0.04582520135937659</v>
       </c>
       <c r="L242" t="n">
-        <v>0.7139800068570089</v>
+        <v>0.7321406083651594</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2839490010510866</v>
+        <v>0.1764235961336133</v>
       </c>
       <c r="N242" t="n">
-        <v>1.012697348824809</v>
+        <v>1.043588730077691</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2834079343972529</v>
+        <v>0.1768891175978858</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08656023074381836</v>
+        <v>0.07534760549786285</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2828886754199963</v>
+        <v>0.04579993903308986</v>
       </c>
       <c r="J243" t="n">
-        <v>0.407557678924286</v>
+        <v>0.07534760549786285</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2852789944375406</v>
+        <v>0.04579993903308986</v>
       </c>
       <c r="L243" t="n">
-        <v>0.7009858592701873</v>
+        <v>0.7260385156895032</v>
       </c>
       <c r="M243" t="n">
-        <v>0.285553232695443</v>
+        <v>0.1774203396145941</v>
       </c>
       <c r="N243" t="n">
-        <v>0.9989688110392761</v>
+        <v>1.043156881198985</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2850091091678589</v>
+        <v>0.1778884911436365</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.07940296793542095</v>
+        <v>0.07164673372938457</v>
       </c>
       <c r="G244" t="n">
-        <v>0.284477937641457</v>
+        <v>0.04577467670680314</v>
       </c>
       <c r="J244" t="n">
-        <v>0.3999047100699883</v>
+        <v>0.07164673372938457</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2868816854175268</v>
+        <v>0.04577467670680314</v>
       </c>
       <c r="L244" t="n">
-        <v>0.6968548297496474</v>
+        <v>0.729236525749308</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2871574643397994</v>
+        <v>0.178417083095575</v>
       </c>
       <c r="N244" t="n">
-        <v>0.9915880222415058</v>
+        <v>1.044061908605355</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2866102839384648</v>
+        <v>0.1788878646893873</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.08324114743146324</v>
+        <v>0.06797738496156036</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2860671998629176</v>
+        <v>0.04574941438051641</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3947301214999202</v>
+        <v>0.06797738496156036</v>
       </c>
       <c r="K245" t="n">
-        <v>0.288484376397513</v>
+        <v>0.04574941438051641</v>
       </c>
       <c r="L245" t="n">
-        <v>0.687286379948079</v>
+        <v>0.7269346380174784</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2887616959841559</v>
+        <v>0.1794138265765559</v>
       </c>
       <c r="N245" t="n">
-        <v>0.9732542216470256</v>
+        <v>1.050605350914422</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2882114587090708</v>
+        <v>0.1798872382351381</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.07507470444838177</v>
+        <v>0.06434012375943152</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2876564620843783</v>
+        <v>0.04572415205422967</v>
       </c>
       <c r="J246" t="n">
-        <v>0.3891336025663365</v>
+        <v>0.06434012375943152</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2900870673774992</v>
+        <v>0.04572415205422967</v>
       </c>
       <c r="L246" t="n">
-        <v>0.6749799715181718</v>
+        <v>0.7249328519669185</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2903659276285123</v>
+        <v>0.1804105700575367</v>
       </c>
       <c r="N246" t="n">
-        <v>0.9561666484713641</v>
+        <v>1.039688746743811</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2898126334796767</v>
+        <v>0.1808866117808888</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.08090357420261279</v>
+        <v>0.06073551468803595</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2892457243058389</v>
+        <v>0.04569888972794294</v>
       </c>
       <c r="J247" t="n">
-        <v>0.3840148426214933</v>
+        <v>0.06073551468803595</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2916897583574853</v>
+        <v>0.04569888972794294</v>
       </c>
       <c r="L247" t="n">
-        <v>0.6635350661126163</v>
+        <v>0.7267311670705325</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2919701592728687</v>
+        <v>0.1814073135385176</v>
       </c>
       <c r="N247" t="n">
-        <v>0.9418245419300494</v>
+        <v>1.043613634711145</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2914138082502826</v>
+        <v>0.1818859853266396</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.07972769191059279</v>
+        <v>0.05716412231241488</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2908349865272996</v>
+        <v>0.04567362740165621</v>
       </c>
       <c r="J248" t="n">
-        <v>0.3821735310176451</v>
+        <v>0.05716412231241488</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2932924493374715</v>
+        <v>0.04567362740165621</v>
       </c>
       <c r="L248" t="n">
-        <v>0.6544511253841016</v>
+        <v>0.7262295828012248</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2935743909172251</v>
+        <v>0.1824040570194985</v>
       </c>
       <c r="N248" t="n">
-        <v>0.9285271412386084</v>
+        <v>1.037981553434046</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2930149830208886</v>
+        <v>0.1828853588723904</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.07554699278875826</v>
+        <v>0.05362651119760631</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2924242487487603</v>
+        <v>0.04564836507536948</v>
       </c>
       <c r="J249" t="n">
-        <v>0.3722093571070473</v>
+        <v>0.05362651119760631</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2948951403174577</v>
+        <v>0.04564836507536948</v>
       </c>
       <c r="L249" t="n">
-        <v>0.6463276109853177</v>
+        <v>0.7327280986318998</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2951786225615816</v>
+        <v>0.1834008005004793</v>
       </c>
       <c r="N249" t="n">
-        <v>0.9251736856125689</v>
+        <v>1.046594041530136</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2946161577914945</v>
+        <v>0.1838847324181411</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.07736141205354558</v>
+        <v>0.05012324590865139</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2940135109702209</v>
+        <v>0.04562310274908275</v>
       </c>
       <c r="J250" t="n">
-        <v>0.3700220102419554</v>
+        <v>0.05012324590865139</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2964978312974439</v>
+        <v>0.04562310274908275</v>
       </c>
       <c r="L250" t="n">
-        <v>0.6383639845689546</v>
+        <v>0.7253267140354615</v>
       </c>
       <c r="M250" t="n">
-        <v>0.296782854205938</v>
+        <v>0.1843975439814602</v>
       </c>
       <c r="N250" t="n">
-        <v>0.9127634142674589</v>
+        <v>1.04355263761704</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2962173325621005</v>
+        <v>0.1848841059638919</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.07017088492139112</v>
+        <v>0.04665489101058895</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2956027731916815</v>
+        <v>0.04559784042279602</v>
       </c>
       <c r="J251" t="n">
-        <v>0.3632111797746239</v>
+        <v>0.04665489101058895</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2981005222774301</v>
+        <v>0.04559784042279602</v>
       </c>
       <c r="L251" t="n">
-        <v>0.6243597077877023</v>
+        <v>0.7303254284848143</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2983870858502944</v>
+        <v>0.1853942874624411</v>
       </c>
       <c r="N251" t="n">
-        <v>0.8974955664188063</v>
+        <v>1.04215888031238</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2978185073327064</v>
+        <v>0.1858834795096427</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.06797534660873134</v>
+        <v>0.04322201106845774</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2971920354131422</v>
+        <v>0.04557257809650929</v>
       </c>
       <c r="J252" t="n">
-        <v>0.3597765550573089</v>
+        <v>0.04322201106845774</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2997032132574163</v>
+        <v>0.04557257809650929</v>
       </c>
       <c r="L252" t="n">
-        <v>0.6140142422942508</v>
+        <v>0.7292242414528625</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2999913174946508</v>
+        <v>0.1863910309434219</v>
       </c>
       <c r="N252" t="n">
-        <v>0.8841693812821393</v>
+        <v>1.034714308233778</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2994196821033124</v>
+        <v>0.1868828530553934</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.06877473233200265</v>
+        <v>0.03982517064729904</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2987812976346029</v>
+        <v>0.04554731577022256</v>
       </c>
       <c r="J253" t="n">
-        <v>0.3506178254422651</v>
+        <v>0.03982517064729904</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3013059042374024</v>
+        <v>0.04554731577022256</v>
       </c>
       <c r="L253" t="n">
-        <v>0.6056270497412893</v>
+        <v>0.7316231524125102</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3015955491390072</v>
+        <v>0.1873877744244028</v>
       </c>
       <c r="N253" t="n">
-        <v>0.8669840980729849</v>
+        <v>1.039620459998858</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3010208568739183</v>
+        <v>0.1878822266011442</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0725689773076415</v>
+        <v>0.03646493431215073</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3003705598560635</v>
+        <v>0.04552205344393583</v>
       </c>
       <c r="J254" t="n">
-        <v>0.3488346802817477</v>
+        <v>0.03646493431215073</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3029085952173886</v>
+        <v>0.04552205344393583</v>
       </c>
       <c r="L254" t="n">
-        <v>0.5952975917815083</v>
+        <v>0.7327221608366619</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3031997807833637</v>
+        <v>0.1883845179053837</v>
       </c>
       <c r="N254" t="n">
-        <v>0.8563389560068712</v>
+        <v>1.034678874225243</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3026220316445243</v>
+        <v>0.188881600146895</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.06935801675208431</v>
+        <v>0.03314186662805402</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3019598220775242</v>
+        <v>0.04549679111764909</v>
       </c>
       <c r="J255" t="n">
-        <v>0.3415268089280122</v>
+        <v>0.03314186662805402</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3045112861973748</v>
+        <v>0.04549679111764909</v>
       </c>
       <c r="L255" t="n">
-        <v>0.5891253300675973</v>
+        <v>0.7330212661982217</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3048040124277201</v>
+        <v>0.1893812613863645</v>
       </c>
       <c r="N255" t="n">
-        <v>0.8327331942993256</v>
+        <v>1.032091089530556</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3042232064151302</v>
+        <v>0.1898809736926457</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.06714178588176742</v>
+        <v>0.02985653216004697</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3035490842989848</v>
+        <v>0.04547152879136236</v>
       </c>
       <c r="J256" t="n">
-        <v>0.3376939007333135</v>
+        <v>0.02985653216004697</v>
       </c>
       <c r="K256" t="n">
-        <v>0.306113977177361</v>
+        <v>0.04547152879136236</v>
       </c>
       <c r="L256" t="n">
-        <v>0.5755097262522462</v>
+        <v>0.7289204679700939</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3064082440720765</v>
+        <v>0.1903780048673454</v>
       </c>
       <c r="N256" t="n">
-        <v>0.8247660521658765</v>
+        <v>1.037058644532419</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3058243811857362</v>
+        <v>0.1908803472383965</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.06792021991312738</v>
+        <v>0.02660949547317068</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3051383465204455</v>
+        <v>0.04544626646507564</v>
       </c>
       <c r="J257" t="n">
-        <v>0.326835645049907</v>
+        <v>0.02660949547317068</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3077166681573472</v>
+        <v>0.04544626646507564</v>
       </c>
       <c r="L257" t="n">
-        <v>0.569950241988145</v>
+        <v>0.7272197656251828</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3080124757164329</v>
+        <v>0.1913747483483263</v>
       </c>
       <c r="N257" t="n">
-        <v>0.8038367688220512</v>
+        <v>1.038383077848455</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3074255559563421</v>
+        <v>0.1918797207841473</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.06769325406260054</v>
+        <v>0.02340132113246399</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3067276087419061</v>
+        <v>0.0454210041387889</v>
       </c>
       <c r="J258" t="n">
-        <v>0.3248517312300479</v>
+        <v>0.02340132113246399</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3093193591373334</v>
+        <v>0.0454210041387889</v>
       </c>
       <c r="L258" t="n">
-        <v>0.5612463389279837</v>
+        <v>0.7265191586363926</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3096167073607893</v>
+        <v>0.1923714918293071</v>
       </c>
       <c r="N258" t="n">
-        <v>0.7960445834833781</v>
+        <v>1.030665928096288</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3090267307269481</v>
+        <v>0.192879094329898</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05946082354662331</v>
+        <v>0.02023257370296572</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3083168709633667</v>
+        <v>0.04539574181250217</v>
       </c>
       <c r="J259" t="n">
-        <v>0.3197418486259914</v>
+        <v>0.02023257370296572</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3109220501173195</v>
+        <v>0.04539574181250217</v>
       </c>
       <c r="L259" t="n">
-        <v>0.5499974787244516</v>
+        <v>0.7242186464766278</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3112209390051457</v>
+        <v>0.193368235310288</v>
       </c>
       <c r="N259" t="n">
-        <v>0.7862887353653841</v>
+        <v>1.04240873389354</v>
       </c>
       <c r="O259" t="n">
-        <v>0.310627905497554</v>
+        <v>0.1938784678756488</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0602228635816321</v>
+        <v>0.01710381774971695</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3099061331848274</v>
+        <v>0.04537047948621544</v>
       </c>
       <c r="J260" t="n">
-        <v>0.3129056865899927</v>
+        <v>0.01710381774971695</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3125247410973057</v>
+        <v>0.04537047948621544</v>
       </c>
       <c r="L260" t="n">
-        <v>0.5382031230302391</v>
+        <v>0.7258182286187925</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3128251706495022</v>
+        <v>0.1943649787912688</v>
       </c>
       <c r="N260" t="n">
-        <v>0.7625684636835975</v>
+        <v>1.039113033857834</v>
       </c>
       <c r="O260" t="n">
-        <v>0.31222908026816</v>
+        <v>0.1948778414213996</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05697930938406339</v>
+        <v>0.01401561783775587</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3114953954062881</v>
+        <v>0.04534521715992871</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3040429344743069</v>
+        <v>0.01401561783775587</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3141274320772919</v>
+        <v>0.04534521715992871</v>
       </c>
       <c r="L261" t="n">
-        <v>0.5313627334980359</v>
+        <v>0.7250179045357908</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3144294022938586</v>
+        <v>0.1953617222722497</v>
       </c>
       <c r="N261" t="n">
-        <v>0.7546830076535461</v>
+        <v>1.035280366606794</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3138302550387659</v>
+        <v>0.1958772149671503</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.06073009617035353</v>
+        <v>0.01096853853212337</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3130846576277487</v>
+        <v>0.04531995483364198</v>
       </c>
       <c r="J262" t="n">
-        <v>0.3011532816311895</v>
+        <v>0.01096853853212337</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3157301230572781</v>
+        <v>0.04531995483364198</v>
       </c>
       <c r="L262" t="n">
-        <v>0.5176757717805317</v>
+        <v>0.7300176737005273</v>
       </c>
       <c r="M262" t="n">
-        <v>0.316033633938215</v>
+        <v>0.1963584657532306</v>
       </c>
       <c r="N262" t="n">
-        <v>0.7423316064907576</v>
+        <v>1.035412270758041</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3154314298093719</v>
+        <v>0.1968765885129011</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.062475159156939</v>
+        <v>0.00796314439785778</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3146739198492094</v>
+        <v>0.04529469250735525</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2922364174128955</v>
+        <v>0.00796314439785778</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3173328140372643</v>
+        <v>0.04529469250735525</v>
       </c>
       <c r="L263" t="n">
-        <v>0.5127416995304166</v>
+        <v>0.728717535585906</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3176378655825715</v>
+        <v>0.1973552092342115</v>
       </c>
       <c r="N263" t="n">
-        <v>0.7214134994107598</v>
+        <v>1.030410284929199</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3170326045799778</v>
+        <v>0.1978759620586519</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05521443356025619</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.31626318207067</v>
+        <v>0.04526943018106852</v>
       </c>
       <c r="J264" t="n">
-        <v>0.2878920311716802</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3189355050172504</v>
+        <v>0.04526943018106852</v>
       </c>
       <c r="L264" t="n">
-        <v>0.4967599784003803</v>
+        <v>0.7299174896648313</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3192420972269279</v>
+        <v>0.1983519527151923</v>
       </c>
       <c r="N264" t="n">
-        <v>0.7123279256290805</v>
+        <v>1.036275947737891</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3186337793505838</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1988753356044026</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04525627228633168</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04525627228633168</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.009414591154538215</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04525654081479569</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.009414591154538215</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04525654081479569</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.01381427735290094</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04525680934325971</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.01381427735290094</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04525680934325971</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01819896886362507</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04525707787172373</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01819896886362507</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04525707787172373</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.02256857595562983</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04525734640018775</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.02256857595562983</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04525734640018775</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.02692300889745339</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04525761492865176</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.02692300889745339</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04525761492865176</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.03126217795801367</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04525788345711578</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.03126217795801367</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04525788345711578</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.03558599340585017</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04525815198557979</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.03558599340585017</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04525815198557979</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.03989436550987946</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04525842051404382</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.03989436550987946</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04525842051404382</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.04418720453864239</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04525868904250783</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.04418720453864239</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04525868904250783</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.0484644207610542</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04525895757097185</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.0484644207610542</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04525895757097185</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.05272592444565707</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04525922609943587</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.05272592444565707</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04525922609943587</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.05697162586136492</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04525949462789989</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.05697162586136492</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.04525949462789989</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.06120143527672126</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0452597631563639</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.06120143527672126</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.0452597631563639</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.06541526296063863</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04526003168482792</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.06541526296063863</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04526003168482792</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.06961301918166193</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04526030021329194</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.06961301918166193</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04526030021329194</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.07379461420870231</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04526056874175596</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.07379461420870231</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04526056874175596</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.07795995831030611</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04526083727021997</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.07795995831030611</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04526083727021997</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.08210896175529289</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04526110579868398</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.08210896175529289</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.04526110579868398</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.08624153481248079</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.045261374327148</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.08624153481248079</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.045261374327148</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.0903575877504183</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04526164285561202</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.0903575877504183</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04526164285561202</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.09445703083801296</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04526191138407604</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.09445703083801296</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04526191138407604</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.09853977434381475</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04526217991254006</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.09853977434381475</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04526217991254006</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.1026057285367297</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04526244844100408</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.1026057285367297</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04526244844100408</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.1066548036853092</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04526271696946809</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.1066548036853092</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04526271696946809</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.1106872764611504</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04526298549793211</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.1106872764611504</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04526298549793211</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.1147052555489609</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04526325402639612</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.1147052555489609</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04526325402639612</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.1187090176203364</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04526352255486014</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.1187090176203364</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04526352255486014</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.122698472943831</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04526379108332416</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.122698472943831</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04526379108332416</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.1266735317883468</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04526405961178818</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.1266735317883468</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04526405961178818</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.1306341044224391</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04526432814025219</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.1306341044224391</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04526432814025219</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.1345801011150086</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04526459666871621</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.1345801011150086</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04526459666871621</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.138511432134612</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04526486519718022</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.138511432134612</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04526486519718022</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.1424280077500638</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04526513372564425</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.1424280077500638</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04526513372564425</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.1463297382301769</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04526540225410827</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.1463297382301769</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04526540225410827</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.1502165338435101</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04526567078257228</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.1502165338435101</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04526567078257228</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.1540883048589607</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0452659393110363</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.1540883048589607</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.0452659393110363</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.1579449615450887</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04526620783950031</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.1579449615450887</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04526620783950031</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.1617864141707904</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04526647636796433</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.1617864141707904</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04526647636796433</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.165612573004627</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04526674489642835</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.165612573004627</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04526674489642835</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.1694233483154932</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04526701342489237</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.1694233483154932</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04526701342489237</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.1732186503719516</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04526728195335638</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.1732186503719516</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04526728195335638</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.1769983894428959</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0452675504818204</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.1769983894428959</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.0452675504818204</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.1807624757968898</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04526781901028441</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.1807624757968898</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04526781901028441</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.1845108197028255</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04526808753874843</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.1845108197028255</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04526808753874843</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.1882433314292684</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04526835606721245</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.1882433314292684</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04526835606721245</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.1919599212451091</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04526862459567647</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.1919599212451091</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04526862459567647</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.1956604994189144</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04526889312414049</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.1956604994189144</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04526889312414049</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.1993449762195737</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04526916165260451</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.1993449762195737</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04526916165260451</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.203013261915655</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04526943018106852</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.203013261915655</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04526943018106852</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.203013261915655</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04525627228633168</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.203013261915655</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04525627228633168</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.2075333484342837</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04528207166954644</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.2075333484342837</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04528207166954644</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.2120272860681057</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04530787105276121</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.2120272860681057</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04530787105276121</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.2164947592817064</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04533367043597597</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.2164947592817064</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04533367043597597</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.2209354525396739</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04535946981919074</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.2209354525396739</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04535946981919074</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.2253490503065965</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04538526920240551</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.2253490503065965</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04538526920240551</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.2297352370470594</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04541106858562027</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.2297352370470594</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04541106858562027</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.2340936972256518</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04543686796883504</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.2340936972256518</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04543686796883504</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.2384241153069591</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0454626673520498</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.2384241153069591</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.0454626673520498</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.2427261757555694</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04548846673526456</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.2427261757555694</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04548846673526456</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.2469995630360709</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04551426611847933</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.2469995630360709</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04551426611847933</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.251243961613049</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04554006550169409</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.251243961613049</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04554006550169409</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.2554590559510918</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04556586488490886</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.2554590559510918</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04556586488490886</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.2596445305147876</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04559166426812362</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.2596445305147876</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04559166426812362</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.2638000697687216</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04561746365133839</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.2638000697687216</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04561746365133839</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.267925358177483</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04564326303455316</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.267925358177483</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04564326303455316</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.2720200802056572</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04566906241776792</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.2720200802056572</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04566906241776792</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.2760839203178324</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04569486180098268</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.2760839203178324</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04569486180098268</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.2801165629785966</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04572066118419745</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.2801165629785966</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04572066118419745</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.2841176926525353</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04574646056741222</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.2841176926525353</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04574646056741222</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.2880869938042366</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04577225995062698</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.2880869938042366</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04577225995062698</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.2920241508982888</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04579805933384175</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.2920241508982888</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04579805933384175</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.2959288483992771</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04582385871705651</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.2959288483992771</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04582385871705651</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.2998007707717899</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04584965810027127</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.2998007707717899</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04584965810027127</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.303639602480415</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04587545748348604</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.303639602480415</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04587545748348604</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.3074463164260069</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0459012568667008</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.3074463164260069</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.0459012568667008</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.3112283276907672</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04592705624991558</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.3112283276907672</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04592705624991558</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.3149866091755503</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04595285563313033</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.3149866091755503</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04595285563313033</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.3187208453449441</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0459786550163451</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.3187208453449441</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.0459786550163451</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.3224307206635368</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04600445439955986</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.3224307206635368</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04600445439955986</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.3261159195959139</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04603025378277463</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.3261159195959139</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04603025378277463</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.3297761266066634</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0460560531659894</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.3297761266066634</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.0460560531659894</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.3334110261603737</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04608185254920416</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.3334110261603737</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04608185254920416</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.3370203027216299</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04610765193241893</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.3370203027216299</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04610765193241893</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.3406036407550205</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04613345131563368</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.3406036407550205</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04613345131563368</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.3441607247251333</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04615925069884846</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.3441607247251333</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04615925069884846</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.3476912390965539</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04618505008206322</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.3476912390965539</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04618505008206322</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.3511948683338713</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04621084946527799</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.3511948683338713</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04621084946527799</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.354671296901671</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04623664884849275</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.354671296901671</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04623664884849275</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.3581202092645412</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04626244823170751</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.3581202092645412</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04626244823170751</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.3615412898870697</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04628824761492228</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.3615412898870697</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04628824761492228</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.3649342232338423</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04631404699813704</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.3649342232338423</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04631404699813704</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.3682986937694471</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04633984638135181</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.3682986937694471</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04633984638135181</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.371634385958472</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04636564576456657</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.371634385958472</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04636564576456657</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.3749409842655028</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04639144514778134</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.3749409842655028</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04639144514778134</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.3782181731551279</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0464172445309961</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.3782181731551279</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.0464172445309961</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.3814656370919337</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04644304391421087</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.3814656370919337</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04644304391421087</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.3846830605405075</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04646884329742564</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.3846830605405075</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04646884329742564</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.3878701279654378</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0464946426806404</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.3878701279654378</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0464946426806404</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.3910265238313099</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04652044206385517</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.3910265238313099</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04652044206385517</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.3910265238313099</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04652044206385517</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.3910265238313099</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04652044206385517</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.3841209941932632</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04970086841251426</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.3841209941932632</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04970086841251426</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.3780027914408264</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05288129476117336</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.3780027914408264</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05288129476117336</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.3726275500188888</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05606172110983245</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.3726275500188888</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05606172110983245</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.3679509043723392</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05924214745849155</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.3679509043723392</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05924214745849155</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.3639284889460671</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06242257380715065</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.3639284889460671</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06242257380715065</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.3605159381849616</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06560300015580975</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.3605159381849616</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06560300015580975</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.3576688865339118</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06878342650446884</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.3576688865339118</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06878342650446884</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.3553429684378069</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07196385285312794</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.3553429684378069</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07196385285312794</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.353493818341536</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07514427920178703</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.353493818341536</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07514427920178703</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.3520770706899884</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07832470555044611</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.3520770706899884</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07832470555044611</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.3510483599280532</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08150513189910522</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.3510483599280532</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08150513189910522</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.3503633205006196</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08468555824776432</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.3503633205006196</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08468555824776432</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.3499775868525769</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0878659845964234</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.3499775868525769</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.0878659845964234</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.3498467934288139</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09104641094508251</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.3498467934288139</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09104641094508251</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.3509919415854541</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09422683729374161</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.3509919415854541</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09422683729374161</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.3544197932928733</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09740726364240071</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.3544197932928733</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09740726364240071</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.3593933617409232</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1005876899910598</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.3593933617409232</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1005876899910598</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.3651651506841932</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1037681163397189</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.3651651506841932</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1037681163397189</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.3709876638772725</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.106948542688378</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.3709876638772725</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.106948542688378</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.3761134050747507</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1101289690370371</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.3761134050747507</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1101289690370371</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.379794878031217</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1133093953856962</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.379794878031217</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1133093953856962</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.3812845865012608</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1164898217343553</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.3812845865012608</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1164898217343553</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.3806209291764144</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1196702480830144</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.3806209291764144</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1196702480830144</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.3785616220459788</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1228506744316735</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.3785616220459788</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1228506744316735</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.3752365615364783</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1260311007803326</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.3752365615364783</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1260311007803326</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.3707739146706274</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1292115271289917</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.3707739146706274</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1292115271289917</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.3653018484711411</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1323919534776508</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.3653018484711411</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1323919534776508</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.3589485299607341</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1355723798263098</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.3589485299607341</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1355723798263098</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.3518421261621211</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.138752806174969</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.3518421261621211</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.138752806174969</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.344110804098017</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.141933232523628</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.344110804098017</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.141933232523628</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.3358827307911363</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1451136588722871</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.3358827307911363</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1451136588722871</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.3272860732641941</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1482940852209462</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.3272860732641941</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1482940852209462</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.3184489985399048</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.3184489985399048</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.3087192437595344</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1546549379182644</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.3087192437595344</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1546549379182644</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.2919619291789926</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1578353642669235</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.2919619291789926</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1578353642669235</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.27324643830059</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1610157906155826</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.27324643830059</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1610157906155826</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.2606020741708763</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1641962169642417</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.2606020741708763</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1641962169642417</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.2590443155884993</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1673766433129008</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.2590443155884993</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1673766433129008</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.2591384534457525</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1705570696615599</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.2591384534457525</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1705570696615599</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.2593275909097993</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.173737496010219</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.2593275909097993</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.173737496010219</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.2596182015024753</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1769179223588781</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.2596182015024753</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1769179223588781</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.260016758745616</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1800983487075372</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.260016758745616</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1800983487075372</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.2605297361610572</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1832787750561963</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.2605297361610572</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1832787750561963</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.2611636072706341</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1864592014048554</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.2611636072706341</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1864592014048554</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.2619248455961825</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1896396277535145</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.2619248455961825</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1896396277535145</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.2633285132896311</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1928200541021736</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.2633285132896311</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1928200541021736</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.2699590223740489</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1960004804508327</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.2699590223740489</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1960004804508327</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.2792627232870213</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1991809067994918</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.2792627232870213</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1991809067994918</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.2866881479381056</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2023613331481509</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.2866881479381056</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2023613331481509</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.292010659913967</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2055417594968099</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.292010659913967</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2055417594968099</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.2968108298188478</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.208722185845469</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.2968108298188478</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.208722185845469</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.3012338123078909</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2119026121941282</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.3012338123078909</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2119026121941282</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.3054247620362389</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2150830385427873</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.3054247620362389</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2150830385427873</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.3095288336590349</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2182634648914464</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.3095288336590349</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2182634648914464</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.3136364394873243</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2214438912401055</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.3136364394873243</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2214438912401055</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.317299023028656</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2246243175887646</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.317299023028656</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2246243175887646</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.3207716989134915</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2278047439374236</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.3207716989134915</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2278047439374236</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.3245467533291677</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2309851702860828</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.3245467533291677</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2309851702860828</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.3291164724630217</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2341655966347418</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.3291164724630217</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2341655966347418</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.3352872035535565</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2373460229834009</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.3352872035535565</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2373460229834009</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.3434250613998914</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.24052644933206</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.3434250613998914</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.24052644933206</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.3532635028962479</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2437068756807191</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.3532635028962479</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2437068756807191</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.3645353709555302</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2468873020293782</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.3645353709555302</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2468873020293782</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.3769735084906424</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2500677283780373</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.3769735084906424</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2500677283780373</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.3903107584144882</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2532481547266964</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.3903107584144882</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2532481547266964</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.4042799636399718</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2564285810753555</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.4042799636399718</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2564285810753555</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.4186139670799974</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2596090074240146</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.4186139670799974</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2596090074240146</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.4330456116474689</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2627894337726737</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.4330456116474689</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2627894337726737</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.44730774025529</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2659698601213328</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.44730774025529</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2659698601213328</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.4611331958163654</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2691502864699919</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.4611331958163654</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2691502864699919</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.4742548212435985</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.272330712818651</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.4742548212435985</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.272330712818651</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.4864054594498935</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2755111391673101</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.4864054594498935</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2755111391673101</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.4973179533481546</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2786915655159692</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.4973179533481546</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2786915655159692</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.5067251458512856</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2818719918646282</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.5067251458512856</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2818719918646282</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.5143598798721907</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2850524182132873</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.5143598798721907</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2850524182132873</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.5199549983237739</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2882328445619464</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.5199549983237739</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2882328445619464</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.5240353651084133</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2914132709106055</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.5240353651084133</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2914132709106055</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.5234806104736636</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2945936972592646</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.5234806104736636</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2945936972592646</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.510018320467106</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2977741236079237</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.510018320467106</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2977741236079237</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.4822506992736863</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3009545499565828</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.4822506992736863</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3009545499565828</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.4451079967401875</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3041349763052419</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.4451079967401875</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3041349763052419</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.4035204627133924</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.307315402653901</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.4035204627133924</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.307315402653901</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.3624183470400841</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3104958290025601</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.3624183470400841</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3104958290025601</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.3267318995670454</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3136762553512192</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.3267318995670454</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3136762553512192</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.3013913701410593</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3168566816998783</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.3013913701410593</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3168566816998783</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.2877437169596506</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3200371080485374</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.2877437169596506</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3200371080485374</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.275635533475892</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3232175343971965</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.275635533475892</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3232175343971965</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.2640821167911979</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3263979607458556</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.2640821167911979</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3263979607458556</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.2531554891584052</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3295783870945147</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.2531554891584052</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3295783870945147</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.2429276728303507</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3327588134431738</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.2429276728303507</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3327588134431738</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.2334706900598714</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3359392397918329</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.2334706900598714</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3359392397918329</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.2248565630998043</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.339119666140492</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.2248565630998043</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.339119666140492</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.2171573142029863</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3423000924891511</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.2171573142029863</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3423000924891511</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.2104449656222543</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3454805188378102</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.2104449656222543</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3454805188378102</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.2047915396104453</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3486609451864693</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.2047915396104453</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3486609451864693</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.2002690584203963</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3518413715351284</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.2002690584203963</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3518413715351284</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1969495443049441</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3550217978837875</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.1969495443049441</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3550217978837875</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1949050195169257</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3582022242324465</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.1949050195169257</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3582022242324465</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.194207506309178</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3613826505811056</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.194207506309178</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3613826505811056</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
